--- a/src/attributions/attributions_saliency_traj_58.xlsx
+++ b/src/attributions/attributions_saliency_traj_58.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.104912131377205e-10</v>
+        <v>0.0001032056898111477</v>
       </c>
       <c r="B4" t="n">
-        <v>1.151862871751064e-08</v>
+        <v>0.0004736364644486457</v>
       </c>
       <c r="C4" t="n">
-        <v>2.933807152771806e-08</v>
+        <v>4.581400571623817e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.378984926247995e-08</v>
+        <v>7.516136975027621e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>4.627413119351331e-09</v>
+        <v>3.210578506696038e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>4.571517564500027e-08</v>
+        <v>0.0004774776461999863</v>
       </c>
       <c r="G4" t="n">
-        <v>3.726220754174392e-08</v>
+        <v>1.397839878336526e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.263668192308387e-08</v>
+        <v>3.424815440666862e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.985356045177468e-09</v>
+        <v>7.689392987231258e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.281549882354739e-08</v>
+        <v>0.0001819420576794073</v>
       </c>
       <c r="K4" t="n">
-        <v>5.495996191484664e-08</v>
+        <v>0.0003368885663803667</v>
       </c>
       <c r="L4" t="n">
-        <v>4.236247264088888e-08</v>
+        <v>4.309833457227796e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.933902341188514e-10</v>
+        <v>5.762500586570241e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>5.922379742173689e-08</v>
+        <v>3.940699389204383e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>9.334801376326141e-09</v>
+        <v>0.0003509256639517844</v>
       </c>
       <c r="P4" t="n">
-        <v>2.379711006028629e-08</v>
+        <v>2.306486931047402e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82996817699177e-08</v>
+        <v>0.0001033785665640607</v>
       </c>
       <c r="R4" t="n">
-        <v>1.631484725095333e-09</v>
+        <v>8.913558849599212e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.854183828697842e-08</v>
+        <v>2.433382360322867e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.955585554076379e-09</v>
+        <v>3.492906398605555e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>8.471308099444741e-09</v>
+        <v>1.370700192637742e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>4.539381759371963e-09</v>
+        <v>5.822734237881377e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.342721299759432e-08</v>
+        <v>0.0001170918258139864</v>
       </c>
       <c r="X4" t="n">
-        <v>2.173743496314273e-08</v>
+        <v>4.862246714765206e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.16335261424183e-08</v>
+        <v>3.154918886139058e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.298441128180457e-09</v>
+        <v>3.52835668309126e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.72305120066585e-09</v>
+        <v>3.138211468467489e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.514121934728337e-09</v>
+        <v>3.716483479365706e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.989364725347059e-09</v>
+        <v>5.428549684438622e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.347283351549322e-08</v>
+        <v>2.920259976235684e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.133157341523201e-09</v>
+        <v>0.0001057108238455839</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.553127664839394e-08</v>
+        <v>0.0001078994246199727</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.89095503092085e-08</v>
+        <v>3.650009966804646e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.752989930992044e-08</v>
+        <v>1.677412001299672e-06</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.80360704149507e-09</v>
+        <v>1.776746830728371e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.947440431138148e-09</v>
+        <v>1.317807891609846e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.910563925075166e-09</v>
+        <v>8.891058769222582e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.334162445080892e-09</v>
+        <v>3.419652421143837e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.55562336345838e-08</v>
+        <v>5.261503611109219e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.844246438371556e-08</v>
+        <v>5.269540997687727e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.20729781119644e-08</v>
+        <v>1.917677582241595e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.771324999656827e-09</v>
+        <v>0.0001100377849070355</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.071840167962364e-09</v>
+        <v>6.919454608578235e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.138343019846388e-08</v>
+        <v>5.777533078799024e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.288720045764194e-09</v>
+        <v>0.0001196264129248448</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.418724420749641e-08</v>
+        <v>2.311846037628129e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.930512259055831e-08</v>
+        <v>0.0002251311670988798</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.817734738400304e-09</v>
+        <v>9.981602488551289e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.550643240008867e-08</v>
+        <v>2.891895564971492e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.934312514137673e-08</v>
+        <v>1.407907257089391e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>4.36957066085597e-08</v>
+        <v>0.0001351090904790908</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.040941886136352e-09</v>
+        <v>0.0001111968085751869</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.137769428145475e-08</v>
+        <v>4.537483619060367e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.831561817297825e-10</v>
+        <v>0.000187309313332662</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.674285243780105e-08</v>
+        <v>0.0001545083214296028</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.746592819846683e-08</v>
+        <v>8.338040061062202e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.910568059315665e-08</v>
+        <v>4.996686766389757e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.127747198547695e-09</v>
+        <v>2.655880962265655e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>7.944663593661971e-09</v>
+        <v>0.0001064742536982521</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.830388190488975e-08</v>
+        <v>0.0002154640096705407</v>
       </c>
       <c r="BI4" t="n">
-        <v>9.394777400473231e-09</v>
+        <v>9.896514529827982e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>5.772745836907234e-09</v>
+        <v>6.303399277385324e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>3.187214936417604e-09</v>
+        <v>0.0001199843391077593</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.363012718831214e-08</v>
+        <v>7.919761628727429e-06</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.605450350439241e-08</v>
+        <v>3.488186848699115e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.650986725110215e-08</v>
+        <v>4.770021405420266e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.404211591449211e-08</v>
+        <v>4.03834019380156e-06</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.09481498814057e-08</v>
+        <v>6.456416303990409e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>7.893762088428957e-09</v>
+        <v>2.050644980045035e-06</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.948720378981307e-09</v>
+        <v>5.565693572862074e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>6.199876168011542e-10</v>
+        <v>1.941740083566401e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>8.658067152111926e-09</v>
+        <v>3.439092688495293e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.301944330123206e-08</v>
+        <v>4.286968032829463e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.82544979132615e-09</v>
+        <v>0.0001265278551727533</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.220446588234836e-08</v>
+        <v>4.490174615057185e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.199930726476396e-08</v>
+        <v>3.159738480462693e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.511445984509919e-08</v>
+        <v>9.140544716501608e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3.553953575874402e-08</v>
+        <v>5.096838140161708e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>8.584401633981997e-09</v>
+        <v>5.0080661821994e-06</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.082051420160269e-09</v>
+        <v>7.17482907930389e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.055177456521506e-08</v>
+        <v>6.786684389226139e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.93416624330689e-09</v>
+        <v>2.497916284482926e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.453529208106374e-08</v>
+        <v>6.46273183519952e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>4.830892130769371e-09</v>
+        <v>3.748339804587886e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.355851596609227e-09</v>
+        <v>1.622895251784939e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.466099768838603e-09</v>
+        <v>4.407183951116167e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>4.406084386232578e-09</v>
+        <v>8.490172331221402e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>7.858414363681732e-09</v>
+        <v>2.639475860632956e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>8.23860091259121e-09</v>
+        <v>1.601640178705566e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>2.679868771338079e-09</v>
+        <v>5.170628355699591e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>7.084183906158614e-09</v>
+        <v>4.889072442892939e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>2.158443379585151e-08</v>
+        <v>7.526374974986538e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.21940439967716e-08</v>
+        <v>5.581996447290294e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>8.235092607833394e-09</v>
+        <v>5.406991840573028e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3.883979715624264e-08</v>
+        <v>3.33458483510185e-05</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.046810904625772e-08</v>
+        <v>1.696695471764542e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.271131377933443e-08</v>
+        <v>3.674473191495053e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.364743873466523e-08</v>
+        <v>4.835805157199502e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>8.005616614070732e-09</v>
+        <v>0.0001062214651028626</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.700740881460661e-09</v>
+        <v>1.573460576764774e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.333224730615257e-08</v>
+        <v>7.498884224332869e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.207555122562098e-08</v>
+        <v>2.592790042399429e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.358715223138574e-09</v>
+        <v>2.741217031143606e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>7.230412935044228e-10</v>
+        <v>4.595885548042133e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>3.28909854907522e-09</v>
+        <v>8.669972157804295e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>7.134693280619331e-09</v>
+        <v>1.099843211704865e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.116906656051242e-08</v>
+        <v>1.162784064945299e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.433708374243281e-09</v>
+        <v>5.067224628874101e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.438893753620164e-09</v>
+        <v>2.337538353458513e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>3.081818134020864e-09</v>
+        <v>5.835721094626933e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>2.132318144276724e-08</v>
+        <v>3.389347330085002e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>3.031912854112306e-08</v>
+        <v>0.0001129528172896244</v>
       </c>
       <c r="DI4" t="n">
-        <v>5.351532550434968e-09</v>
+        <v>6.499660958070308e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.863678361109123e-08</v>
+        <v>0.0002037460799328983</v>
       </c>
       <c r="DK4" t="n">
-        <v>7.93237697749305e-10</v>
+        <v>0.0001104745315387845</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.610532057190085e-08</v>
+        <v>2.26080373977311e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.735742077319969e-09</v>
+        <v>0.0001542231329949573</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.848627111973201e-09</v>
+        <v>7.123823161236942e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>2.430580003931482e-08</v>
+        <v>3.449272844591178e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.560408513512357e-08</v>
+        <v>1.548427098896354e-05</v>
       </c>
       <c r="DQ4" t="n">
-        <v>5.027604998986135e-10</v>
+        <v>7.194792124209926e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>3.24014983732468e-08</v>
+        <v>3.671969898277894e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>2.55424286166317e-08</v>
+        <v>4.402053946250817e-06</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.078025529428373e-09</v>
+        <v>8.342081127921119e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.429460638746605e-08</v>
+        <v>2.163795761589427e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.691556050786858e-08</v>
+        <v>2.448331360938028e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>7.447881200661755e-10</v>
+        <v>3.933743937523104e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>5.752896825583775e-09</v>
+        <v>1.355906442768173e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.558454876260384e-08</v>
+        <v>1.715423240966629e-05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2.044658486966e-08</v>
+        <v>3.041233685507905e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.227910217949102e-08</v>
+        <v>2.767614387266804e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.157570649392483e-09</v>
+        <v>1.264538241230184e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>3.036143003676273e-10</v>
+        <v>2.51303099503275e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>7.603599527783445e-09</v>
+        <v>5.291131674312055e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>6.390339368778086e-09</v>
+        <v>4.240875568939373e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>8.881325896936687e-09</v>
+        <v>2.117636904586107e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>2.706529445006822e-09</v>
+        <v>4.231355705996975e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>7.672689150695078e-09</v>
+        <v>6.443852726079058e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.978607144792477e-08</v>
+        <v>8.491994958603755e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.073723415207951e-08</v>
+        <v>5.538334153243341e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>8.646581228788364e-09</v>
+        <v>1.180427534563933e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.755799949876291e-08</v>
+        <v>4.878386971540749e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.571719465687238e-08</v>
+        <v>4.789160811924376e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>8.672254026009796e-09</v>
+        <v>1.869548032118473e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.485872758166806e-08</v>
+        <v>4.594508573063649e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>4.606412584706732e-09</v>
+        <v>2.832132850016933e-05</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.129745452743691e-08</v>
+        <v>1.204397449328098e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.063205168350123e-08</v>
+        <v>3.15625402436126e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.334993893209457e-08</v>
+        <v>0.0001289171341340989</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.679474870286413e-08</v>
+        <v>0.0001889664999907836</v>
       </c>
       <c r="EU4" t="n">
-        <v>8.430837361572685e-09</v>
+        <v>7.052146247588098e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>7.437493287909547e-09</v>
+        <v>6.541590846609324e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>9.243828813509936e-09</v>
+        <v>9.849597699940205e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.350728500744026e-10</v>
+        <v>1.918046109494753e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.611038591420311e-08</v>
+        <v>7.423492934321985e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>8.695494102539669e-09</v>
+        <v>4.015904778498225e-06</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.693596012903754e-09</v>
+        <v>1.98968882614281e-06</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.645701435710635e-09</v>
+        <v>5.881017204956152e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.869960935569793e-10</v>
+        <v>6.895980186527595e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>5.414052317576079e-09</v>
+        <v>4.109555084141903e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>7.835589066473858e-09</v>
+        <v>1.684970993665047e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>8.955483576933432e-10</v>
+        <v>7.155432831496e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>3.996970754371887e-09</v>
+        <v>1.692976547928993e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.255584880510696e-08</v>
+        <v>5.058652823208831e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.973684682354815e-08</v>
+        <v>3.470664159976877e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>5.702130323470556e-09</v>
+        <v>5.241814506007358e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>1.437759511446757e-08</v>
+        <v>2.499171023373492e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>3.121433334030144e-09</v>
+        <v>6.888442294439301e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>4.199337766408462e-09</v>
+        <v>2.066842716885731e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>2.053918590760873e-09</v>
+        <v>2.380399018875323e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>5.033474970161933e-09</v>
+        <v>4.328368959249929e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.722203935017319e-09</v>
+        <v>1.833621354307979e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1.750926514887396e-08</v>
+        <v>5.866526771569625e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.741215527317763e-08</v>
+        <v>6.397836114047095e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>5.765800281665179e-09</v>
+        <v>8.777999028097838e-06</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.384718117947159e-08</v>
+        <v>1.28212132040062e-05</v>
       </c>
       <c r="FU4" t="n">
-        <v>2.322286185574285e-08</v>
+        <v>0.0001395415019942448</v>
       </c>
       <c r="FV4" t="n">
-        <v>4.350361404448222e-09</v>
+        <v>2.450157444400247e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>8.522712313663305e-09</v>
+        <v>4.687174077844247e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>6.527947959966696e-09</v>
+        <v>5.489516479428858e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>5.746919828908403e-09</v>
+        <v>6.185386155266315e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.244237424202765e-08</v>
+        <v>8.203944162232801e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.769808477547485e-08</v>
+        <v>2.491029772500042e-05</v>
       </c>
       <c r="GB4" t="n">
-        <v>7.233535548323289e-09</v>
+        <v>2.243832022941206e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>3.900596290407066e-09</v>
+        <v>0.0001193700663861819</v>
       </c>
       <c r="GD4" t="n">
-        <v>1.622684209223735e-09</v>
+        <v>1.311405958404066e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>6.131660734709499e-10</v>
+        <v>4.137541691306978e-05</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.40610600940505e-09</v>
+        <v>2.378983481321484e-07</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.040397279439276e-08</v>
+        <v>4.319639629102312e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.251870132700788e-09</v>
+        <v>0.0001213495415868238</v>
       </c>
       <c r="B5" t="n">
-        <v>7.919525479849199e-09</v>
+        <v>0.00388789176940918</v>
       </c>
       <c r="C5" t="n">
-        <v>2.411749910891103e-09</v>
+        <v>0.0004451247805263847</v>
       </c>
       <c r="D5" t="n">
-        <v>1.162294260836916e-08</v>
+        <v>0.004024953581392765</v>
       </c>
       <c r="E5" t="n">
-        <v>1.137470917456085e-08</v>
+        <v>0.003403973765671253</v>
       </c>
       <c r="F5" t="n">
-        <v>1.824375650549825e-10</v>
+        <v>0.001648789271712303</v>
       </c>
       <c r="G5" t="n">
-        <v>3.057628872316087e-10</v>
+        <v>2.849125303328037e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>6.698647858627282e-09</v>
+        <v>0.001649264595471323</v>
       </c>
       <c r="I5" t="n">
-        <v>3.899151224118214e-09</v>
+        <v>0.001574285561218858</v>
       </c>
       <c r="J5" t="n">
-        <v>3.374082568896597e-09</v>
+        <v>7.172371260821819e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.855352481707541e-09</v>
+        <v>0.003471605479717255</v>
       </c>
       <c r="L5" t="n">
-        <v>2.981100255539104e-09</v>
+        <v>0.0004477448237594217</v>
       </c>
       <c r="M5" t="n">
-        <v>1.232920343596788e-08</v>
+        <v>0.003600012511014938</v>
       </c>
       <c r="N5" t="n">
-        <v>1.419862272200589e-08</v>
+        <v>0.003718617372214794</v>
       </c>
       <c r="O5" t="n">
-        <v>2.569295887155931e-09</v>
+        <v>0.002458123955875635</v>
       </c>
       <c r="P5" t="n">
-        <v>4.083071214466827e-09</v>
+        <v>0.001026759040541947</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.7373103479772e-09</v>
+        <v>0.001152673154138029</v>
       </c>
       <c r="R5" t="n">
-        <v>4.610642534430553e-09</v>
+        <v>0.001969023142009974</v>
       </c>
       <c r="S5" t="n">
-        <v>9.291395985933093e-10</v>
+        <v>0.0001184897701023147</v>
       </c>
       <c r="T5" t="n">
-        <v>7.216453545844104e-10</v>
+        <v>0.0002731098502408713</v>
       </c>
       <c r="U5" t="n">
-        <v>1.120621151429191e-09</v>
+        <v>0.0001497880148235708</v>
       </c>
       <c r="V5" t="n">
-        <v>5.113285794777767e-09</v>
+        <v>0.0005525145679712296</v>
       </c>
       <c r="W5" t="n">
-        <v>5.840089301045737e-09</v>
+        <v>0.00253545050509274</v>
       </c>
       <c r="X5" t="n">
-        <v>1.529522064558364e-09</v>
+        <v>0.0003440824802964926</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.233795009549567e-09</v>
+        <v>0.001485746586695313</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.735570436840362e-09</v>
+        <v>0.0002088444744003937</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.198113691065373e-09</v>
+        <v>0.0004573029582388699</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.560564344416093e-09</v>
+        <v>0.0001840692857513204</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.859676578343851e-09</v>
+        <v>0.0004578206571750343</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.217535209960488e-09</v>
+        <v>0.0004112917231395841</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.134742491781253e-09</v>
+        <v>0.001342881703749299</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.401124797936973e-09</v>
+        <v>0.002975857350975275</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.390647152987867e-09</v>
+        <v>0.001346097560599446</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.436908866509384e-10</v>
+        <v>0.00040630460716784</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.608138289199701e-09</v>
+        <v>0.0003903688048012555</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.078487743555456e-09</v>
+        <v>8.803427044767886e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.872922261725307e-09</v>
+        <v>0.0002143486490240321</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.140040062352909e-09</v>
+        <v>0.000457858550362289</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.164096596895092e-10</v>
+        <v>2.689026587177068e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.370290325652945e-09</v>
+        <v>0.0007839684258215129</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.366199153807202e-09</v>
+        <v>0.001760233077220619</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.395834337003521e-09</v>
+        <v>0.001012836582958698</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.70398164864605e-10</v>
+        <v>0.0003639352507889271</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.956740991460038e-09</v>
+        <v>0.0008559463312849402</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.286478479300968e-09</v>
+        <v>0.00050880026537925</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.602961123367777e-09</v>
+        <v>0.0001889494596980512</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.240740895753106e-09</v>
+        <v>0.002079619094729424</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.346735694658264e-09</v>
+        <v>0.0001927300472743809</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.051999187570932e-12</v>
+        <v>0.001831382047384977</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.342626868161005e-09</v>
+        <v>0.001964900409802794</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.589672559201063e-09</v>
+        <v>0.001656297361478209</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.110333713860712e-09</v>
+        <v>0.002170221880078316</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.372744915632666e-09</v>
+        <v>0.002797680906951427</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.396353059377134e-09</v>
+        <v>0.001069760764949024</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.508648011545489e-10</v>
+        <v>8.314706792589277e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>5.36086341984543e-10</v>
+        <v>0.001281182165257633</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.204283006650542e-09</v>
+        <v>0.0007881924393586814</v>
       </c>
       <c r="BF5" t="n">
-        <v>9.612953100202049e-09</v>
+        <v>0.0003442728193476796</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.56521248687136e-09</v>
+        <v>0.002043362706899643</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.409530797109483e-09</v>
+        <v>0.001639310037717223</v>
       </c>
       <c r="BI5" t="n">
-        <v>7.70747632383717e-10</v>
+        <v>0.001190526760183275</v>
       </c>
       <c r="BJ5" t="n">
-        <v>6.751466052890009e-11</v>
+        <v>0.001459113555029035</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.09841857831583e-09</v>
+        <v>0.001978109590709209</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.319137548667527e-09</v>
+        <v>2.3745495127514e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>5.125807334138699e-09</v>
+        <v>0.0001818353193812072</v>
       </c>
       <c r="BN5" t="n">
-        <v>8.295473197250658e-10</v>
+        <v>0.0004648882313631475</v>
       </c>
       <c r="BO5" t="n">
-        <v>3.655426850102117e-09</v>
+        <v>0.001638597226701677</v>
       </c>
       <c r="BP5" t="n">
-        <v>3.218514788017046e-09</v>
+        <v>1.814396819099784e-05</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.572280305950358e-09</v>
+        <v>0.001007178099825978</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.948660760004884e-10</v>
+        <v>0.0004280958673916757</v>
       </c>
       <c r="BS5" t="n">
-        <v>4.854895596650977e-09</v>
+        <v>0.000816333806142211</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.859515652569144e-09</v>
+        <v>1.019376213662326e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.978014723709066e-09</v>
+        <v>0.0004947802517563105</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.455443265907519e-10</v>
+        <v>0.001278143026866019</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.548778299527044e-09</v>
+        <v>0.0003392861108295619</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.43212042225116e-09</v>
+        <v>0.002410839078947902</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.515180869660071e-09</v>
+        <v>0.001231864560395479</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.551057726700833e-09</v>
+        <v>0.0001023482764139771</v>
       </c>
       <c r="CA5" t="n">
-        <v>5.760493748674378e-10</v>
+        <v>0.0008955525700002909</v>
       </c>
       <c r="CB5" t="n">
-        <v>2.61087040875907e-09</v>
+        <v>0.001306696562096477</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.904078755250339e-09</v>
+        <v>0.0002542157890275121</v>
       </c>
       <c r="CD5" t="n">
-        <v>3.200548714943352e-10</v>
+        <v>0.000140933771035634</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.561793139259748e-09</v>
+        <v>0.0005036602960899472</v>
       </c>
       <c r="CF5" t="n">
-        <v>4.476245485385277e-10</v>
+        <v>0.0001619544927962124</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.237829616584918e-09</v>
+        <v>0.0006019182619638741</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.049287933265532e-09</v>
+        <v>0.000500737049151212</v>
       </c>
       <c r="CI5" t="n">
-        <v>4.468850844929761e-10</v>
+        <v>0.00025710224872455</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.068693800121423e-09</v>
+        <v>0.0002909044269472361</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.154393330400239e-09</v>
+        <v>0.0003534553397912532</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.549705253012235e-09</v>
+        <v>0.0002525463351048529</v>
       </c>
       <c r="CM5" t="n">
-        <v>2.134520893370961e-10</v>
+        <v>0.0005665093194693327</v>
       </c>
       <c r="CN5" t="n">
-        <v>2.36051345137156e-10</v>
+        <v>2.887121809180826e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>4.075040305195898e-09</v>
+        <v>8.181991142919287e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.585214404187241e-09</v>
+        <v>0.0001881813805084676</v>
       </c>
       <c r="CQ5" t="n">
-        <v>7.33290095311645e-10</v>
+        <v>0.001117272768169641</v>
       </c>
       <c r="CR5" t="n">
-        <v>4.861831381930415e-09</v>
+        <v>0.0009454411920160055</v>
       </c>
       <c r="CS5" t="n">
-        <v>4.498120764750979e-10</v>
+        <v>0.001480127219110727</v>
       </c>
       <c r="CT5" t="n">
-        <v>2.112335584225633e-10</v>
+        <v>0.002467144746333361</v>
       </c>
       <c r="CU5" t="n">
-        <v>2.616563354873591e-10</v>
+        <v>8.320523193106055e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.642437462758608e-10</v>
+        <v>0.0001037515030475333</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.71272670993028e-09</v>
+        <v>0.0004772347747348249</v>
       </c>
       <c r="CX5" t="n">
-        <v>9.31364638190324e-11</v>
+        <v>0.0002722365316003561</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.024179296926775e-09</v>
+        <v>0.0005211828392930329</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.249436636958535e-09</v>
+        <v>0.0007790948147885501</v>
       </c>
       <c r="DA5" t="n">
-        <v>2.12017930989461e-10</v>
+        <v>0.0001493650197517127</v>
       </c>
       <c r="DB5" t="n">
-        <v>3.404781734328566e-10</v>
+        <v>0.0001940346555784345</v>
       </c>
       <c r="DC5" t="n">
-        <v>1.135568639121232e-09</v>
+        <v>0.0002059503021882847</v>
       </c>
       <c r="DD5" t="n">
-        <v>9.470227935182152e-10</v>
+        <v>7.034384179860353e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>2.714182656404773e-09</v>
+        <v>0.000931575836148113</v>
       </c>
       <c r="DF5" t="n">
-        <v>7.251786726669707e-09</v>
+        <v>0.000730794679839164</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.405759841865972e-09</v>
+        <v>0.0008515756344422698</v>
       </c>
       <c r="DH5" t="n">
-        <v>3.320771435610936e-10</v>
+        <v>0.002360604703426361</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.56010071528101e-09</v>
+        <v>0.001181342639029026</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.472434951743651e-09</v>
+        <v>0.0006032479577697814</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.544908090345132e-09</v>
+        <v>0.001299316762015224</v>
       </c>
       <c r="DL5" t="n">
-        <v>3.329931219653304e-09</v>
+        <v>0.0005969135672785342</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.268762428452419e-09</v>
+        <v>0.0004329100484028459</v>
       </c>
       <c r="DN5" t="n">
-        <v>5.847987094576013e-10</v>
+        <v>0.0002623529289849102</v>
       </c>
       <c r="DO5" t="n">
-        <v>2.719572345100119e-10</v>
+        <v>0.0003908403450623155</v>
       </c>
       <c r="DP5" t="n">
-        <v>2.238788043840145e-10</v>
+        <v>0.0001815650030039251</v>
       </c>
       <c r="DQ5" t="n">
-        <v>3.074908327960202e-09</v>
+        <v>0.0008917183149605989</v>
       </c>
       <c r="DR5" t="n">
-        <v>2.508155461100614e-09</v>
+        <v>0.0004021185450255871</v>
       </c>
       <c r="DS5" t="n">
-        <v>4.770536410347859e-09</v>
+        <v>0.0004137730284128338</v>
       </c>
       <c r="DT5" t="n">
-        <v>9.530537470325839e-10</v>
+        <v>0.000772219558712095</v>
       </c>
       <c r="DU5" t="n">
-        <v>3.340486554037625e-09</v>
+        <v>0.0004094521573279053</v>
       </c>
       <c r="DV5" t="n">
-        <v>7.106906174669803e-10</v>
+        <v>0.0002726875536609441</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.61640689616749e-10</v>
+        <v>0.0004553788166958839</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.760789596933932e-09</v>
+        <v>2.397370553808287e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.929308462462643e-10</v>
+        <v>3.641577495727688e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>2.562286383067658e-09</v>
+        <v>0.0002860124805010855</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.119858983322786e-09</v>
+        <v>0.00171428662724793</v>
       </c>
       <c r="EB5" t="n">
-        <v>8.459430933527301e-10</v>
+        <v>0.0006633121520280838</v>
       </c>
       <c r="EC5" t="n">
-        <v>4.22787416187731e-10</v>
+        <v>0.0001127132709370926</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.326915327088841e-10</v>
+        <v>0.0007139142253436148</v>
       </c>
       <c r="EE5" t="n">
-        <v>6.519833561924315e-10</v>
+        <v>0.000405164115363732</v>
       </c>
       <c r="EF5" t="n">
-        <v>1.162214102734538e-09</v>
+        <v>0.0003824111190624535</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.648611330258177e-10</v>
+        <v>9.653030429035425e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>9.642411313848243e-10</v>
+        <v>0.0003389001067262143</v>
       </c>
       <c r="EI5" t="n">
-        <v>1.370694002744699e-09</v>
+        <v>0.0005762877990491688</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.348504641285331e-10</v>
+        <v>0.001030571525916457</v>
       </c>
       <c r="EK5" t="n">
-        <v>1.008821581827135e-09</v>
+        <v>0.0003430577926337719</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.152612391259083e-10</v>
+        <v>0.0005625617923215032</v>
       </c>
       <c r="EM5" t="n">
-        <v>2.203979443393678e-09</v>
+        <v>0.0001239966368302703</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.227282164784071e-10</v>
+        <v>1.26724480651319e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>2.916522578999547e-11</v>
+        <v>0.0002000795066123828</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.217727779196821e-09</v>
+        <v>0.0005089222686365247</v>
       </c>
       <c r="EQ5" t="n">
-        <v>3.268582071669357e-09</v>
+        <v>0.0003175165038555861</v>
       </c>
       <c r="ER5" t="n">
-        <v>2.489223049906286e-09</v>
+        <v>0.0003788121393881738</v>
       </c>
       <c r="ES5" t="n">
-        <v>3.29694604950248e-09</v>
+        <v>0.001341438153758645</v>
       </c>
       <c r="ET5" t="n">
-        <v>7.688983894027501e-10</v>
+        <v>0.001023539109155536</v>
       </c>
       <c r="EU5" t="n">
-        <v>8.801057105323196e-10</v>
+        <v>0.001303594443015754</v>
       </c>
       <c r="EV5" t="n">
-        <v>2.522572595253791e-09</v>
+        <v>0.0003498237056192011</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.142816286048287e-09</v>
+        <v>0.0003379767294973135</v>
       </c>
       <c r="EX5" t="n">
-        <v>5.870322006273909e-10</v>
+        <v>0.0002062737621599808</v>
       </c>
       <c r="EY5" t="n">
-        <v>2.277885213786135e-09</v>
+        <v>0.0004731577937491238</v>
       </c>
       <c r="EZ5" t="n">
-        <v>2.440637691947245e-10</v>
+        <v>0.0001092200400307775</v>
       </c>
       <c r="FA5" t="n">
-        <v>5.256613477833127e-10</v>
+        <v>0.0006921514868736267</v>
       </c>
       <c r="FB5" t="n">
-        <v>3.63935104275015e-09</v>
+        <v>0.0006231438019312918</v>
       </c>
       <c r="FC5" t="n">
-        <v>6.375197592056736e-11</v>
+        <v>0.000465325458208099</v>
       </c>
       <c r="FD5" t="n">
-        <v>5.540707892492946e-10</v>
+        <v>0.0004249604535289109</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.66459268591268e-09</v>
+        <v>0.0004251644422765821</v>
       </c>
       <c r="FF5" t="n">
-        <v>1.353664957903788e-09</v>
+        <v>0.0001273097441298887</v>
       </c>
       <c r="FG5" t="n">
-        <v>2.274409549585243e-10</v>
+        <v>0.0001557021168991923</v>
       </c>
       <c r="FH5" t="n">
-        <v>7.422893411046516e-10</v>
+        <v>3.891796950483695e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>2.830673251352778e-09</v>
+        <v>0.0001759883743943647</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.581086261914777e-09</v>
+        <v>0.0006192529108375311</v>
       </c>
       <c r="FK5" t="n">
-        <v>1.05688635620993e-09</v>
+        <v>0.0007051026332192123</v>
       </c>
       <c r="FL5" t="n">
-        <v>5.886783505104631e-09</v>
+        <v>0.0003192581643816084</v>
       </c>
       <c r="FM5" t="n">
-        <v>2.26466359554145e-10</v>
+        <v>0.0004902886576019228</v>
       </c>
       <c r="FN5" t="n">
-        <v>9.26365373299376e-10</v>
+        <v>0.0004281081492081285</v>
       </c>
       <c r="FO5" t="n">
-        <v>3.825122885103838e-09</v>
+        <v>0.0002044397406280041</v>
       </c>
       <c r="FP5" t="n">
-        <v>2.005572152796731e-09</v>
+        <v>0.0004939615027979016</v>
       </c>
       <c r="FQ5" t="n">
-        <v>6.08635586374362e-09</v>
+        <v>0.0006648400449194014</v>
       </c>
       <c r="FR5" t="n">
-        <v>5.94426174949092e-11</v>
+        <v>6.772120832465589e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>5.965115512651664e-09</v>
+        <v>0.0006842926959507167</v>
       </c>
       <c r="FT5" t="n">
-        <v>8.033709697485847e-09</v>
+        <v>0.002937791403383017</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.235225921547567e-09</v>
+        <v>0.0004104433464817703</v>
       </c>
       <c r="FV5" t="n">
-        <v>1.880187783243059e-09</v>
+        <v>0.0003127719974145293</v>
       </c>
       <c r="FW5" t="n">
-        <v>3.222193623031444e-09</v>
+        <v>0.0002288417454110458</v>
       </c>
       <c r="FX5" t="n">
-        <v>3.90283450002471e-09</v>
+        <v>0.001073895720764995</v>
       </c>
       <c r="FY5" t="n">
-        <v>4.370549477883401e-10</v>
+        <v>6.889121141284704e-05</v>
       </c>
       <c r="FZ5" t="n">
-        <v>1.879189914788526e-09</v>
+        <v>0.0001217747922055423</v>
       </c>
       <c r="GA5" t="n">
-        <v>2.408300225908988e-09</v>
+        <v>0.000376954470993951</v>
       </c>
       <c r="GB5" t="n">
-        <v>3.55718832167895e-09</v>
+        <v>9.860089630819857e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>4.734816538842779e-09</v>
+        <v>0.0008086348534561694</v>
       </c>
       <c r="GD5" t="n">
-        <v>1.495162882392265e-09</v>
+        <v>0.0006656625191681087</v>
       </c>
       <c r="GE5" t="n">
-        <v>2.793391629118958e-10</v>
+        <v>0.0007150995079427958</v>
       </c>
       <c r="GF5" t="n">
-        <v>2.289254341647506e-09</v>
+        <v>0.0005375211476348341</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.892990209029222e-09</v>
+        <v>0.000753184431232512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.536376802488548e-14</v>
+        <v>0.0002353085728827864</v>
       </c>
       <c r="B6" t="n">
-        <v>7.876311365270783e-14</v>
+        <v>0.0002295315352967009</v>
       </c>
       <c r="C6" t="n">
-        <v>9.096982065207038e-14</v>
+        <v>0.0002028826420428231</v>
       </c>
       <c r="D6" t="n">
-        <v>8.605900145069664e-14</v>
+        <v>0.0001360244059469551</v>
       </c>
       <c r="E6" t="n">
-        <v>1.703070464601636e-13</v>
+        <v>0.0009085029596462846</v>
       </c>
       <c r="F6" t="n">
-        <v>2.911459762785108e-16</v>
+        <v>0.000750405655708164</v>
       </c>
       <c r="G6" t="n">
-        <v>1.172043825924465e-13</v>
+        <v>0.0005042768898420036</v>
       </c>
       <c r="H6" t="n">
-        <v>6.68737797342861e-14</v>
+        <v>0.0003141497145406902</v>
       </c>
       <c r="I6" t="n">
-        <v>3.775239059626394e-14</v>
+        <v>0.0005511846975423396</v>
       </c>
       <c r="J6" t="n">
-        <v>6.570724595932748e-14</v>
+        <v>0.0003474598343018442</v>
       </c>
       <c r="K6" t="n">
-        <v>1.628345217994862e-13</v>
+        <v>0.0005184505134820938</v>
       </c>
       <c r="L6" t="n">
-        <v>9.718422355926848e-14</v>
+        <v>0.0001805376814445481</v>
       </c>
       <c r="M6" t="n">
-        <v>1.854390935512179e-14</v>
+        <v>9.17999423108995e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.265385212860301e-14</v>
+        <v>0.001062033697962761</v>
       </c>
       <c r="O6" t="n">
-        <v>1.219389172968377e-13</v>
+        <v>0.0008253343985415995</v>
       </c>
       <c r="P6" t="n">
-        <v>1.057892448229521e-13</v>
+        <v>0.0001609863829798996</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.122373186485421e-13</v>
+        <v>1.570217136759311e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.444487568837485e-13</v>
+        <v>0.0001667698234086856</v>
       </c>
       <c r="S6" t="n">
-        <v>1.51026194724008e-14</v>
+        <v>0.0001867173559730873</v>
       </c>
       <c r="T6" t="n">
-        <v>3.091840087584121e-15</v>
+        <v>0.0001473206066293642</v>
       </c>
       <c r="U6" t="n">
-        <v>7.457738853550167e-14</v>
+        <v>8.401306695304811e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>5.063611239564201e-15</v>
+        <v>2.202796895289794e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.927670805097759e-13</v>
+        <v>0.0002146378828911111</v>
       </c>
       <c r="X6" t="n">
-        <v>1.966941454818131e-14</v>
+        <v>0.0003021386219188571</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.102942554391927e-14</v>
+        <v>0.0001438736799173057</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.053488652528084e-14</v>
+        <v>9.886750922305509e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.056688456834621e-14</v>
+        <v>0.0002805936092045158</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.48515062153086e-15</v>
+        <v>7.259473204612732e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.106977279074573e-14</v>
+        <v>0.0004042570653837174</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.522587462468757e-14</v>
+        <v>0.0002096716780215502</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.006660961807228e-14</v>
+        <v>0.0002273573190905154</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.104191743464891e-13</v>
+        <v>0.0008401447557844222</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.096053010450539e-14</v>
+        <v>0.0005395878688432276</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.610233244362968e-14</v>
+        <v>0.0005237238947302103</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.013671500796169e-13</v>
+        <v>0.0003068856312893331</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.262830240226533e-14</v>
+        <v>0.0004329434596002102</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.099812615793562e-14</v>
+        <v>0.0001410448749084026</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.455318968161511e-14</v>
+        <v>0.0001886684622149915</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.786258654553653e-14</v>
+        <v>1.392901322105899e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.702764478773744e-14</v>
+        <v>0.0004099036450497806</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.831283450156253e-14</v>
+        <v>0.0003152414865326136</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.289685875394009e-14</v>
+        <v>0.0001436627935618162</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.499023157734401e-14</v>
+        <v>0.000364461011486128</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.492456111294339e-14</v>
+        <v>0.0002215661661466584</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.852316043604585e-14</v>
+        <v>6.744421261828393e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>7.101378540113126e-14</v>
+        <v>4.327727219788358e-05</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.295593406863693e-13</v>
+        <v>0.000296454963972792</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.080435194917485e-14</v>
+        <v>2.1796233340865e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.472683737110958e-13</v>
+        <v>0.0003643974487204105</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.149732486207007e-13</v>
+        <v>0.0006339274113997817</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.270209199804843e-14</v>
+        <v>0.0002684500650502741</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7.26626451472449e-15</v>
+        <v>0.000864292960613966</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.704141824539299e-14</v>
+        <v>0.0004344651242718101</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.337735735444483e-14</v>
+        <v>9.302966645918787e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.963977633890698e-14</v>
+        <v>0.0003233444294892251</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.513715434875966e-15</v>
+        <v>0.0001919512869790196</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.969051583296331e-14</v>
+        <v>0.0001889333070721477</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.403839354946005e-14</v>
+        <v>6.856907566543669e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.783018905388665e-14</v>
+        <v>0.0008298733737319708</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.029015129941184e-13</v>
+        <v>0.0008517280220985413</v>
       </c>
       <c r="BI6" t="n">
-        <v>4.677399621593435e-14</v>
+        <v>0.0001474163873353973</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.811808860091151e-14</v>
+        <v>0.0003562001802492887</v>
       </c>
       <c r="BK6" t="n">
-        <v>6.584663370112764e-14</v>
+        <v>0.0002695145085453987</v>
       </c>
       <c r="BL6" t="n">
-        <v>8.5411360059226e-14</v>
+        <v>7.388446829281747e-05</v>
       </c>
       <c r="BM6" t="n">
-        <v>5.779893301168307e-14</v>
+        <v>0.0003905516059603542</v>
       </c>
       <c r="BN6" t="n">
-        <v>3.419975484449458e-14</v>
+        <v>0.0002335314929950982</v>
       </c>
       <c r="BO6" t="n">
-        <v>8.619460126115669e-14</v>
+        <v>0.000389532302506268</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.76946534424473e-14</v>
+        <v>3.629243292380124e-05</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.077007792268882e-15</v>
+        <v>0.0003213523596059531</v>
       </c>
       <c r="BR6" t="n">
-        <v>8.548071850507898e-15</v>
+        <v>0.0004634697688743472</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.53323246433008e-14</v>
+        <v>4.081182851223275e-06</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.437545675829274e-15</v>
+        <v>0.0002446687431074679</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.235373801551214e-14</v>
+        <v>0.0001066397089743987</v>
       </c>
       <c r="BV6" t="n">
-        <v>3.754523005428806e-14</v>
+        <v>7.101230585249141e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>3.914453329078964e-14</v>
+        <v>0.0001074028477887623</v>
       </c>
       <c r="BX6" t="n">
-        <v>7.617050165522471e-14</v>
+        <v>3.968073724536225e-05</v>
       </c>
       <c r="BY6" t="n">
-        <v>8.271109356227865e-14</v>
+        <v>0.0003535768482834101</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.025980312535126e-13</v>
+        <v>3.494301927275956e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.518327733777015e-15</v>
+        <v>0.000185456417966634</v>
       </c>
       <c r="CB6" t="n">
-        <v>7.268786978841413e-15</v>
+        <v>0.0001783736806828529</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.225887914671573e-14</v>
+        <v>0.0002908254391513765</v>
       </c>
       <c r="CD6" t="n">
-        <v>3.537251939381321e-15</v>
+        <v>7.538525096606463e-06</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.650800450454058e-14</v>
+        <v>7.294514216482639e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>7.600988218556867e-15</v>
+        <v>8.041745604714379e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.31916214883535e-14</v>
+        <v>0.0001276532420888543</v>
       </c>
       <c r="CH6" t="n">
-        <v>4.017895364289911e-14</v>
+        <v>2.072601637337357e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.887594930761067e-15</v>
+        <v>3.91628491342999e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.935941556059599e-14</v>
+        <v>9.396049426868558e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>7.265020223324974e-15</v>
+        <v>8.080811676336452e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.519579757979669e-15</v>
+        <v>0.0001750083320075646</v>
       </c>
       <c r="CM6" t="n">
-        <v>5.012520414471484e-14</v>
+        <v>7.780479791108519e-06</v>
       </c>
       <c r="CN6" t="n">
-        <v>6.011014033529757e-14</v>
+        <v>7.53516360418871e-05</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.21680606129243e-13</v>
+        <v>1.892303771455772e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.577613433227827e-14</v>
+        <v>0.0002238943125121295</v>
       </c>
       <c r="CQ6" t="n">
-        <v>7.163382029478499e-14</v>
+        <v>0.0004967898712493479</v>
       </c>
       <c r="CR6" t="n">
-        <v>4.412678447467122e-14</v>
+        <v>7.899380580056459e-05</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.027985764074033e-14</v>
+        <v>1.463212538510561e-05</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.65994239295815e-13</v>
+        <v>0.0002339824859518558</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.583118130945443e-14</v>
+        <v>0.0006487248465418816</v>
       </c>
       <c r="CV6" t="n">
-        <v>5.023832878295244e-15</v>
+        <v>1.841794073698111e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.54315679301155e-14</v>
+        <v>0.0001378910965286195</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.416458808155708e-14</v>
+        <v>4.925714529235847e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.714060259086798e-14</v>
+        <v>0.0001189800532301888</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.794430472067254e-14</v>
+        <v>2.538205444579944e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.390740177371636e-14</v>
+        <v>5.699810208170675e-05</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.72706562050727e-14</v>
+        <v>2.307190152350813e-05</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.203161494928642e-14</v>
+        <v>8.221388270612806e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>3.117422388415332e-15</v>
+        <v>0.0001586856669746339</v>
       </c>
       <c r="DE6" t="n">
-        <v>3.644071941985919e-14</v>
+        <v>5.298174073686823e-05</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.940102485613031e-14</v>
+        <v>0.0002956204116344452</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.701224847572205e-14</v>
+        <v>9.387305908603594e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>7.288013779711139e-14</v>
+        <v>0.0005038958042860031</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.659072761171863e-14</v>
+        <v>8.346172398887575e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2.732222508948414e-14</v>
+        <v>0.0005070362240076065</v>
       </c>
       <c r="DK6" t="n">
-        <v>5.603030111276178e-14</v>
+        <v>0.0003051939711440355</v>
       </c>
       <c r="DL6" t="n">
-        <v>8.03622644232789e-14</v>
+        <v>0.0002293440047651529</v>
       </c>
       <c r="DM6" t="n">
-        <v>4.137062396760045e-14</v>
+        <v>0.0006163899088278413</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.476468043150065e-14</v>
+        <v>0.0002021896652877331</v>
       </c>
       <c r="DO6" t="n">
-        <v>6.792870844811449e-14</v>
+        <v>1.163278557214653e-05</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.013173003750709e-14</v>
+        <v>6.877630949020386e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>4.137219267261877e-14</v>
+        <v>0.0001354677660856396</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.690493430801931e-14</v>
+        <v>0.0005031282780691981</v>
       </c>
       <c r="DS6" t="n">
-        <v>9.519914424913761e-14</v>
+        <v>0.0002287641982547939</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.855287043725384e-14</v>
+        <v>0.0004020859487354755</v>
       </c>
       <c r="DU6" t="n">
-        <v>7.294971647153065e-14</v>
+        <v>2.28436038014479e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.311229025206286e-14</v>
+        <v>0.0006267474964261055</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.613712113967321e-16</v>
+        <v>0.0001689675846137106</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.04519120551843e-14</v>
+        <v>7.008977991063148e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>7.171980430332667e-15</v>
+        <v>2.058866084553301e-05</v>
       </c>
       <c r="DZ6" t="n">
-        <v>9.296852025199309e-14</v>
+        <v>0.0003007215855177492</v>
       </c>
       <c r="EA6" t="n">
-        <v>8.184344891528587e-15</v>
+        <v>0.0002528757904656231</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.382406897829959e-14</v>
+        <v>0.0002626730129122734</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.224837593816978e-14</v>
+        <v>7.545908738393337e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.611192512214089e-14</v>
+        <v>0.0002156879345420748</v>
       </c>
       <c r="EE6" t="n">
-        <v>2.328741075029259e-14</v>
+        <v>0.0001036958856275305</v>
       </c>
       <c r="EF6" t="n">
-        <v>7.686740987103945e-15</v>
+        <v>4.200396506348625e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.779193348237356e-15</v>
+        <v>0.0001032969303196296</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.567357897115651e-14</v>
+        <v>0.0001080158399417996</v>
       </c>
       <c r="EI6" t="n">
-        <v>8.193715617024061e-15</v>
+        <v>0.0007136555504985154</v>
       </c>
       <c r="EJ6" t="n">
-        <v>4.749278159871077e-14</v>
+        <v>0.0001241475401911885</v>
       </c>
       <c r="EK6" t="n">
-        <v>9.95974458369844e-15</v>
+        <v>0.0003461192827671766</v>
       </c>
       <c r="EL6" t="n">
-        <v>4.601802269864168e-14</v>
+        <v>0.0004192275227978826</v>
       </c>
       <c r="EM6" t="n">
-        <v>2.137070563372999e-14</v>
+        <v>9.832305659074336e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.385457384737871e-14</v>
+        <v>8.08403710834682e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>5.943744032111536e-14</v>
+        <v>0.0002012384356930852</v>
       </c>
       <c r="EP6" t="n">
-        <v>9.263896006100718e-15</v>
+        <v>2.233124905615114e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>3.007646621989643e-14</v>
+        <v>0.0001231679780175909</v>
       </c>
       <c r="ER6" t="n">
-        <v>3.604620196621423e-14</v>
+        <v>3.315590947750024e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.947075973557846e-14</v>
+        <v>3.858532727463171e-05</v>
       </c>
       <c r="ET6" t="n">
-        <v>3.20445248264687e-15</v>
+        <v>0.0002954125229734927</v>
       </c>
       <c r="EU6" t="n">
-        <v>3.226690697402321e-14</v>
+        <v>0.0001918051711982116</v>
       </c>
       <c r="EV6" t="n">
-        <v>3.529263741062355e-14</v>
+        <v>6.147997919470072e-05</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.638523572464884e-14</v>
+        <v>0.0001830282708397135</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.197932556041992e-15</v>
+        <v>9.733324986882508e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.759449705411546e-14</v>
+        <v>0.0001156888029072434</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.279769374512314e-14</v>
+        <v>0.0001106065901694819</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.547890521340575e-14</v>
+        <v>0.0001735420373734087</v>
       </c>
       <c r="FB6" t="n">
-        <v>2.708216409377101e-14</v>
+        <v>3.547090454958379e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.553951737252868e-14</v>
+        <v>4.47874772362411e-05</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.780277246693322e-14</v>
+        <v>6.382774881785735e-05</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.113885746947344e-14</v>
+        <v>1.995722413994372e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>8.095433537121197e-15</v>
+        <v>6.572429265361279e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.352038021068801e-14</v>
+        <v>1.552962203277275e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.319495541003389e-14</v>
+        <v>0.0002209401282016188</v>
       </c>
       <c r="FI6" t="n">
-        <v>2.279303319436404e-14</v>
+        <v>0.0002198643196607009</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.790711845570548e-14</v>
+        <v>0.0003743405977729708</v>
       </c>
       <c r="FK6" t="n">
-        <v>6.497895347875107e-14</v>
+        <v>0.0002737551985774189</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.047388697582481e-13</v>
+        <v>5.193539254833013e-05</v>
       </c>
       <c r="FM6" t="n">
-        <v>6.02923303459884e-15</v>
+        <v>0.0001163759152404964</v>
       </c>
       <c r="FN6" t="n">
-        <v>8.36646968068247e-14</v>
+        <v>0.0001607865269761533</v>
       </c>
       <c r="FO6" t="n">
-        <v>4.630730139078797e-14</v>
+        <v>0.000396751391235739</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.126297253568496e-14</v>
+        <v>0.0004071700968779624</v>
       </c>
       <c r="FQ6" t="n">
-        <v>6.885043614878947e-14</v>
+        <v>8.003757830010727e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>4.377983977947586e-14</v>
+        <v>0.000346920860465616</v>
       </c>
       <c r="FS6" t="n">
-        <v>3.87240051494004e-14</v>
+        <v>2.509190380806103e-05</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.589899680009069e-13</v>
+        <v>0.0005848652217537165</v>
       </c>
       <c r="FU6" t="n">
-        <v>4.736333124744779e-14</v>
+        <v>0.0007756901322863996</v>
       </c>
       <c r="FV6" t="n">
-        <v>6.083756545413599e-14</v>
+        <v>0.0001653112703934312</v>
       </c>
       <c r="FW6" t="n">
-        <v>4.477868135966886e-14</v>
+        <v>0.0003641304210759699</v>
       </c>
       <c r="FX6" t="n">
-        <v>4.387966091824388e-14</v>
+        <v>0.000133002846268937</v>
       </c>
       <c r="FY6" t="n">
-        <v>8.788285312151534e-15</v>
+        <v>8.017494110390544e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>8.638306270378898e-14</v>
+        <v>0.0003117637243121862</v>
       </c>
       <c r="GA6" t="n">
-        <v>2.430039100444117e-14</v>
+        <v>9.893549577100202e-05</v>
       </c>
       <c r="GB6" t="n">
-        <v>5.89175857081993e-14</v>
+        <v>0.0001035485838656314</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.660194063387438e-14</v>
+        <v>0.0003398983972147107</v>
       </c>
       <c r="GD6" t="n">
-        <v>2.182948408895134e-14</v>
+        <v>0.0002615581615827978</v>
       </c>
       <c r="GE6" t="n">
-        <v>3.440574986913504e-14</v>
+        <v>0.000659806770272553</v>
       </c>
       <c r="GF6" t="n">
-        <v>9.906313745385639e-15</v>
+        <v>0.0001482363586546853</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.759068388727022e-14</v>
+        <v>0.0009156715823337436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.840975407205406e-07</v>
+        <v>4.077234105892558e-09</v>
       </c>
       <c r="B7" t="n">
-        <v>1.325704829469032e-06</v>
+        <v>1.627692869377029e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>2.029374400080997e-06</v>
+        <v>3.074924315171756e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>8.159462595358491e-06</v>
+        <v>8.814159957459822e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>3.496999624985619e-06</v>
+        <v>2.794886988510825e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>1.189951944979839e-06</v>
+        <v>2.388008901732519e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.350383627141127e-07</v>
+        <v>7.832890780434809e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>3.010515854384721e-07</v>
+        <v>4.937348307976208e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>1.050062337526469e-06</v>
+        <v>3.981135421327053e-10</v>
       </c>
       <c r="J7" t="n">
-        <v>1.664569595050125e-06</v>
+        <v>1.205161970219137e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>2.432044254874199e-08</v>
+        <v>2.829995793263151e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>2.420700639049755e-06</v>
+        <v>4.13569400947722e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>7.25826157577103e-06</v>
+        <v>2.063082371606129e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>7.938284397823736e-06</v>
+        <v>1.406300942363714e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>2.189409087804961e-06</v>
+        <v>3.138619364406736e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39698875045724e-06</v>
+        <v>3.300309581177885e-09</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.897830993082607e-06</v>
+        <v>4.829006527984347e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>1.953714672708884e-06</v>
+        <v>3.883353194567007e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>6.955324352020398e-07</v>
+        <v>3.228709521962969e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>1.631006398383761e-06</v>
+        <v>4.035195511065126e-10</v>
       </c>
       <c r="U7" t="n">
-        <v>1.706097236819915e-06</v>
+        <v>7.539284196944607e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>9.768696145329159e-07</v>
+        <v>2.099872720151552e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>7.450959401467117e-06</v>
+        <v>7.122403777870545e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>1.014329455983898e-07</v>
+        <v>4.42681269419154e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.327705317384243e-07</v>
+        <v>1.863012188962898e-09</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.768831326553482e-07</v>
+        <v>1.108101721492005e-09</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.412952457258143e-07</v>
+        <v>7.387600253760951e-11</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.97396548173856e-06</v>
+        <v>3.027265382815614e-10</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.154649210860953e-07</v>
+        <v>1.787993503254981e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.020612100750441e-06</v>
+        <v>3.709332840884372e-09</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.152257820853265e-06</v>
+        <v>5.579869899463574e-09</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.303031922361697e-06</v>
+        <v>3.487091171372469e-10</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.047194413989928e-07</v>
+        <v>1.599995802514798e-09</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.464448804559652e-08</v>
+        <v>2.137614973918289e-09</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.095651100513351e-06</v>
+        <v>1.606124788722241e-09</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.397026375751011e-07</v>
+        <v>2.681262323278588e-09</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.087879238388268e-06</v>
+        <v>1.422769235759347e-09</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.758729339002457e-07</v>
+        <v>3.368260947933521e-10</v>
       </c>
       <c r="AM7" t="n">
-        <v>5.968678351564449e-07</v>
+        <v>3.819973504182173e-10</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.62926414507092e-06</v>
+        <v>1.32141986242118e-09</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.213581069554493e-07</v>
+        <v>4.440118051007858e-09</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.139131993317278e-06</v>
+        <v>9.882131779548331e-10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.299537638667971e-07</v>
+        <v>1.2298037033176e-09</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.457959962815949e-07</v>
+        <v>2.273337962321875e-09</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.260640824009897e-08</v>
+        <v>1.906393931605521e-10</v>
       </c>
       <c r="AT7" t="n">
-        <v>9.834670890995767e-07</v>
+        <v>1.274892413860584e-10</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.520106575815589e-08</v>
+        <v>7.027290749306303e-09</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.451174398425792e-06</v>
+        <v>8.800048467705324e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.638850441551767e-06</v>
+        <v>6.041489530872468e-10</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.308845854618994e-07</v>
+        <v>1.70388325670956e-09</v>
       </c>
       <c r="AY7" t="n">
-        <v>5.866724563929893e-07</v>
+        <v>3.793760861015016e-09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.099279643312912e-06</v>
+        <v>5.493835386616297e-10</v>
       </c>
       <c r="BA7" t="n">
-        <v>5.380778702601674e-07</v>
+        <v>1.169629726405219e-09</v>
       </c>
       <c r="BB7" t="n">
-        <v>8.977267498266883e-07</v>
+        <v>3.85183085427343e-09</v>
       </c>
       <c r="BC7" t="n">
-        <v>8.015083494683495e-07</v>
+        <v>1.933590842995159e-09</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.063837203219009e-06</v>
+        <v>3.035454110289493e-10</v>
       </c>
       <c r="BE7" t="n">
-        <v>9.773832516657421e-07</v>
+        <v>2.404159316071741e-09</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.810714472114341e-06</v>
+        <v>2.534991994096458e-09</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.585475388310442e-06</v>
+        <v>3.806294390784615e-09</v>
       </c>
       <c r="BH7" t="n">
-        <v>9.286000022257213e-07</v>
+        <v>4.278334353458035e-10</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.576613158249529e-06</v>
+        <v>2.014399202998618e-10</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.962513576676429e-07</v>
+        <v>1.611834665737888e-09</v>
       </c>
       <c r="BK7" t="n">
-        <v>8.145395469227878e-08</v>
+        <v>4.492941130251893e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.099169705616077e-06</v>
+        <v>7.768118925888245e-10</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.004329533316195e-06</v>
+        <v>5.299731320462797e-09</v>
       </c>
       <c r="BN7" t="n">
-        <v>5.92104015595396e-07</v>
+        <v>4.606709458343516e-10</v>
       </c>
       <c r="BO7" t="n">
-        <v>4.384800149637158e-07</v>
+        <v>1.035592722686829e-09</v>
       </c>
       <c r="BP7" t="n">
-        <v>3.715589855346479e-06</v>
+        <v>1.209682842784332e-08</v>
       </c>
       <c r="BQ7" t="n">
-        <v>4.566278164475079e-07</v>
+        <v>3.227013989359762e-09</v>
       </c>
       <c r="BR7" t="n">
-        <v>8.980071015685098e-07</v>
+        <v>3.05182656923364e-09</v>
       </c>
       <c r="BS7" t="n">
-        <v>7.182550234574592e-07</v>
+        <v>4.868522474055226e-09</v>
       </c>
       <c r="BT7" t="n">
-        <v>3.511524937493959e-07</v>
+        <v>6.48685549720085e-10</v>
       </c>
       <c r="BU7" t="n">
-        <v>2.286778453708393e-06</v>
+        <v>8.622747516007223e-10</v>
       </c>
       <c r="BV7" t="n">
-        <v>6.2678543599759e-07</v>
+        <v>3.556628103140724e-09</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.505524664935365e-07</v>
+        <v>9.904400632976262e-10</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.403314622119069e-06</v>
+        <v>1.959389539507583e-09</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.057147301253281e-06</v>
+        <v>4.626897087689485e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>3.29106501339993e-06</v>
+        <v>1.67152358621081e-09</v>
       </c>
       <c r="CA7" t="n">
-        <v>7.102500489963859e-07</v>
+        <v>2.2507109509462e-09</v>
       </c>
       <c r="CB7" t="n">
-        <v>2.01607491590039e-07</v>
+        <v>5.981288797585194e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>5.342583335732343e-07</v>
+        <v>2.254495257147937e-09</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.357450287287065e-06</v>
+        <v>4.484899951417987e-10</v>
       </c>
       <c r="CE7" t="n">
-        <v>8.465376311050932e-08</v>
+        <v>8.426584985343766e-10</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.652043550848248e-07</v>
+        <v>6.969647081689345e-11</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.074198164336849e-06</v>
+        <v>6.464427881880397e-10</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.332389615527063e-06</v>
+        <v>3.153706185088367e-10</v>
       </c>
       <c r="CI7" t="n">
-        <v>5.379292815632652e-07</v>
+        <v>8.809989404667817e-10</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.214307528447534e-07</v>
+        <v>1.572897034840537e-09</v>
       </c>
       <c r="CK7" t="n">
-        <v>2.568581578543672e-07</v>
+        <v>5.979499118069498e-10</v>
       </c>
       <c r="CL7" t="n">
-        <v>7.122550869098632e-07</v>
+        <v>1.018993778245658e-09</v>
       </c>
       <c r="CM7" t="n">
-        <v>6.994935120019363e-08</v>
+        <v>2.777806429321572e-09</v>
       </c>
       <c r="CN7" t="n">
-        <v>1.518523504273617e-06</v>
+        <v>4.614638005051575e-09</v>
       </c>
       <c r="CO7" t="n">
-        <v>2.617377958813449e-08</v>
+        <v>1.222490109142882e-09</v>
       </c>
       <c r="CP7" t="n">
-        <v>3.504263986542355e-06</v>
+        <v>1.385135006692906e-09</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.088474846255849e-06</v>
+        <v>7.529549428397786e-09</v>
       </c>
       <c r="CR7" t="n">
-        <v>4.363626430858858e-06</v>
+        <v>1.45745815416376e-09</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.686892403540696e-07</v>
+        <v>2.604084725632561e-09</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.773593218487804e-07</v>
+        <v>3.942714155158455e-09</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.745891774542542e-07</v>
+        <v>1.857013209871639e-09</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.23504821658571e-06</v>
+        <v>6.537761998437475e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>6.998878347985737e-07</v>
+        <v>9.648938315010014e-10</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.826482159434818e-09</v>
+        <v>1.000472760193105e-10</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.71324484199431e-06</v>
+        <v>4.316516033497919e-10</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.272453573619714e-06</v>
+        <v>1.950378469839364e-10</v>
       </c>
       <c r="DA7" t="n">
-        <v>5.093742174722138e-07</v>
+        <v>8.06191224889119e-10</v>
       </c>
       <c r="DB7" t="n">
-        <v>6.96969237878875e-08</v>
+        <v>1.787309411582783e-09</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.915963565579659e-07</v>
+        <v>5.523468349366567e-10</v>
       </c>
       <c r="DD7" t="n">
-        <v>7.482601631636498e-07</v>
+        <v>2.941651644494669e-10</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.578614839876536e-06</v>
+        <v>5.160614158228327e-09</v>
       </c>
       <c r="DF7" t="n">
-        <v>6.612023639718245e-07</v>
+        <v>7.17965686902744e-09</v>
       </c>
       <c r="DG7" t="n">
-        <v>9.803850389289437e-07</v>
+        <v>1.253815051782681e-09</v>
       </c>
       <c r="DH7" t="n">
-        <v>2.191676685470156e-06</v>
+        <v>9.532561406899731e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.798657081053534e-06</v>
+        <v>6.791747608758669e-09</v>
       </c>
       <c r="DJ7" t="n">
-        <v>7.961035635162261e-07</v>
+        <v>3.430808304116795e-09</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.175176521428511e-06</v>
+        <v>8.071571855339243e-09</v>
       </c>
       <c r="DL7" t="n">
-        <v>2.316704694749205e-06</v>
+        <v>5.525671920025843e-09</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.218652300849499e-06</v>
+        <v>1.595918730501467e-09</v>
       </c>
       <c r="DN7" t="n">
-        <v>5.032189847042901e-07</v>
+        <v>1.16067588873392e-09</v>
       </c>
       <c r="DO7" t="n">
-        <v>6.638526883762097e-07</v>
+        <v>6.814443453961871e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>8.504733841618872e-07</v>
+        <v>1.059854648488567e-09</v>
       </c>
       <c r="DQ7" t="n">
-        <v>5.580689048656495e-07</v>
+        <v>8.000577977895773e-11</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.266884623873921e-06</v>
+        <v>2.143904609397396e-09</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.526479650237889e-06</v>
+        <v>2.188261238877942e-10</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.050817672876292e-06</v>
+        <v>3.658703340292391e-09</v>
       </c>
       <c r="DU7" t="n">
-        <v>6.720582632624428e-07</v>
+        <v>2.314715530360445e-09</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.129053543991176e-06</v>
+        <v>5.156401972072899e-10</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.527565013428102e-07</v>
+        <v>5.373659850427259e-10</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.01642069441732e-06</v>
+        <v>6.548410702578167e-10</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.320247804414976e-07</v>
+        <v>1.450341735598215e-09</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.494495220162207e-06</v>
+        <v>2.901281881406703e-09</v>
       </c>
       <c r="EA7" t="n">
-        <v>7.1110309818323e-07</v>
+        <v>1.901732660236632e-10</v>
       </c>
       <c r="EB7" t="n">
-        <v>1.214183612319175e-06</v>
+        <v>2.201241411370347e-10</v>
       </c>
       <c r="EC7" t="n">
-        <v>3.824332850399514e-07</v>
+        <v>1.833682206076048e-09</v>
       </c>
       <c r="ED7" t="n">
-        <v>9.625332495488692e-07</v>
+        <v>4.191352598326148e-09</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.212384859172744e-06</v>
+        <v>1.360402235306424e-09</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.546409976072027e-06</v>
+        <v>7.703478410725495e-10</v>
       </c>
       <c r="EG7" t="n">
-        <v>1.132232227973873e-06</v>
+        <v>2.376263630310405e-09</v>
       </c>
       <c r="EH7" t="n">
-        <v>2.396325271547539e-08</v>
+        <v>1.232480006940762e-09</v>
       </c>
       <c r="EI7" t="n">
-        <v>4.272942533134483e-07</v>
+        <v>3.480971066949223e-09</v>
       </c>
       <c r="EJ7" t="n">
-        <v>6.950906481506536e-07</v>
+        <v>7.23547333159047e-10</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.350665570498677e-06</v>
+        <v>2.093454964935404e-09</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.754676617338191e-07</v>
+        <v>2.00752678369831e-10</v>
       </c>
       <c r="EM7" t="n">
-        <v>3.388230851442131e-08</v>
+        <v>9.403915424144316e-10</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.106160993913363e-07</v>
+        <v>6.984694489453602e-10</v>
       </c>
       <c r="EO7" t="n">
-        <v>2.722558747336734e-06</v>
+        <v>3.141438775777772e-10</v>
       </c>
       <c r="EP7" t="n">
-        <v>7.541766535723582e-07</v>
+        <v>8.750118407618857e-10</v>
       </c>
       <c r="EQ7" t="n">
-        <v>4.342226134212979e-07</v>
+        <v>2.633546436481282e-10</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.832072697055992e-07</v>
+        <v>2.619897854216902e-09</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.660585553509009e-06</v>
+        <v>1.022946172213324e-10</v>
       </c>
       <c r="ET7" t="n">
-        <v>6.572604434040841e-07</v>
+        <v>7.076847996501101e-10</v>
       </c>
       <c r="EU7" t="n">
-        <v>7.321809789573308e-07</v>
+        <v>1.498894564022635e-09</v>
       </c>
       <c r="EV7" t="n">
-        <v>6.771860512344574e-07</v>
+        <v>8.454268396462794e-10</v>
       </c>
       <c r="EW7" t="n">
-        <v>5.024946290177468e-07</v>
+        <v>1.822364703585322e-09</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.040200345414632e-06</v>
+        <v>2.251155512000835e-10</v>
       </c>
       <c r="EY7" t="n">
-        <v>3.100467438343912e-07</v>
+        <v>3.412084503828794e-10</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2.729993298089539e-08</v>
+        <v>1.543659644553941e-10</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.279533989873016e-06</v>
+        <v>2.610997529295389e-10</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.563329647069622e-06</v>
+        <v>3.790412428372747e-10</v>
       </c>
       <c r="FC7" t="n">
-        <v>6.526047968691273e-07</v>
+        <v>1.822210826674109e-09</v>
       </c>
       <c r="FD7" t="n">
-        <v>9.463136052545451e-09</v>
+        <v>1.998434751016021e-09</v>
       </c>
       <c r="FE7" t="n">
-        <v>2.975903612423281e-07</v>
+        <v>1.269305993645276e-09</v>
       </c>
       <c r="FF7" t="n">
-        <v>5.000646297048661e-07</v>
+        <v>2.156731182534344e-10</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.802330302780319e-07</v>
+        <v>8.845785770539294e-10</v>
       </c>
       <c r="FH7" t="n">
-        <v>8.531906132702716e-07</v>
+        <v>1.307574937214895e-09</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.062940214069386e-06</v>
+        <v>4.125934871535009e-10</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.499094764767506e-06</v>
+        <v>1.357994383610617e-09</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.291908802159014e-06</v>
+        <v>9.946385937098512e-10</v>
       </c>
       <c r="FL7" t="n">
-        <v>8.5905969626765e-07</v>
+        <v>3.075009136210838e-10</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.728938059386564e-07</v>
+        <v>1.27498012147953e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>2.156896954375043e-07</v>
+        <v>2.311833391388518e-09</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.752163143464713e-06</v>
+        <v>2.379559660425912e-09</v>
       </c>
       <c r="FP7" t="n">
-        <v>5.630000714518246e-07</v>
+        <v>2.172108048981158e-09</v>
       </c>
       <c r="FQ7" t="n">
-        <v>4.752867539536965e-07</v>
+        <v>5.835575578316821e-09</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.032021600622102e-06</v>
+        <v>1.494821044722983e-09</v>
       </c>
       <c r="FS7" t="n">
-        <v>2.415166591163143e-06</v>
+        <v>2.240208907267061e-09</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.267993638975895e-06</v>
+        <v>4.779138196298049e-11</v>
       </c>
       <c r="FU7" t="n">
-        <v>6.542214805449476e-07</v>
+        <v>3.601333897762515e-09</v>
       </c>
       <c r="FV7" t="n">
-        <v>5.854581104358658e-07</v>
+        <v>7.166762738819443e-10</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.27495513879694e-06</v>
+        <v>1.207006716796855e-09</v>
       </c>
       <c r="FX7" t="n">
-        <v>8.071783099694585e-07</v>
+        <v>1.147959949321375e-09</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.365174966849736e-06</v>
+        <v>1.417128497882558e-10</v>
       </c>
       <c r="FZ7" t="n">
-        <v>4.186455555554858e-07</v>
+        <v>2.619521044522344e-09</v>
       </c>
       <c r="GA7" t="n">
-        <v>3.404746848900686e-07</v>
+        <v>3.759723199436849e-09</v>
       </c>
       <c r="GB7" t="n">
-        <v>2.72614261120907e-06</v>
+        <v>1.9128851835859e-09</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.283052256439987e-06</v>
+        <v>5.431930905075433e-09</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.827207142923726e-06</v>
+        <v>4.06117539597517e-09</v>
       </c>
       <c r="GE7" t="n">
-        <v>5.513636125442645e-08</v>
+        <v>1.896371726317625e-09</v>
       </c>
       <c r="GF7" t="n">
-        <v>8.140955287672114e-07</v>
+        <v>2.226286488493656e-09</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.60417425831838e-06</v>
+        <v>1.669785421043457e-09</v>
       </c>
     </row>
     <row r="8">
@@ -4987,4554 +4987,4554 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.193068292579483e-08</v>
+        <v>0.0004667385946959257</v>
       </c>
       <c r="B9" t="n">
-        <v>5.794358770572217e-08</v>
+        <v>0.005443087313324213</v>
       </c>
       <c r="C9" t="n">
-        <v>7.108794441990085e-09</v>
+        <v>0.000149565443280153</v>
       </c>
       <c r="D9" t="n">
-        <v>8.262196615760331e-08</v>
+        <v>0.006341524422168732</v>
       </c>
       <c r="E9" t="n">
-        <v>1.986715680857287e-08</v>
+        <v>0.003005605889484286</v>
       </c>
       <c r="F9" t="n">
-        <v>1.731354259959517e-08</v>
+        <v>0.002420359989628196</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1240936121103e-08</v>
+        <v>0.001042213873006403</v>
       </c>
       <c r="H9" t="n">
-        <v>3.760528599627833e-08</v>
+        <v>0.001486436347477138</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304224372944418e-08</v>
+        <v>0.001218240475282073</v>
       </c>
       <c r="J9" t="n">
-        <v>2.497810314139315e-08</v>
+        <v>0.0003548212116584182</v>
       </c>
       <c r="K9" t="n">
-        <v>4.008768073049396e-08</v>
+        <v>0.004250815603882074</v>
       </c>
       <c r="L9" t="n">
-        <v>4.100190853506547e-09</v>
+        <v>0.001724361442029476</v>
       </c>
       <c r="M9" t="n">
-        <v>7.381596844879823e-08</v>
+        <v>0.005107717588543892</v>
       </c>
       <c r="N9" t="n">
-        <v>2.214463634686581e-08</v>
+        <v>0.004964519757777452</v>
       </c>
       <c r="O9" t="n">
-        <v>7.355656084229167e-10</v>
+        <v>0.003290031105279922</v>
       </c>
       <c r="P9" t="n">
-        <v>5.126770119545654e-09</v>
+        <v>0.0003520383615978062</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.567409573828172e-08</v>
+        <v>0.0001606265577720478</v>
       </c>
       <c r="R9" t="n">
-        <v>1.157974693910546e-08</v>
+        <v>0.001909072510898113</v>
       </c>
       <c r="S9" t="n">
-        <v>1.690365181161724e-09</v>
+        <v>0.0005600650911219418</v>
       </c>
       <c r="T9" t="n">
-        <v>2.20974816222963e-09</v>
+        <v>0.001079541863873601</v>
       </c>
       <c r="U9" t="n">
-        <v>1.953471606697121e-09</v>
+        <v>0.0005450000753626227</v>
       </c>
       <c r="V9" t="n">
-        <v>1.472399802082691e-08</v>
+        <v>0.001243163133040071</v>
       </c>
       <c r="W9" t="n">
-        <v>3.632121448049475e-08</v>
+        <v>0.00137790129519999</v>
       </c>
       <c r="X9" t="n">
-        <v>2.484138672542713e-09</v>
+        <v>0.0009870132198557258</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.21063653230658e-10</v>
+        <v>0.001537920674309134</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.220012535441128e-08</v>
+        <v>0.0004649166949093342</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.102753526855849e-10</v>
+        <v>0.0006600775523111224</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.876025106957059e-08</v>
+        <v>1.191871706396341e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.764226631451038e-08</v>
+        <v>0.0007444618386216462</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.723057607705414e-08</v>
+        <v>0.000107640640635509</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.222730266510098e-08</v>
+        <v>0.001030178158544004</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.428439493940004e-08</v>
+        <v>0.001654905965551734</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.144171424272145e-09</v>
+        <v>0.0007521640509366989</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.252306145564489e-09</v>
+        <v>0.0004556706117000431</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.605357624612225e-09</v>
+        <v>0.0001092228194465861</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.807260829878032e-08</v>
+        <v>7.133407052606344e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.903348494953661e-08</v>
+        <v>0.0004018832114525139</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.401143379098357e-08</v>
+        <v>0.0003587728133425117</v>
       </c>
       <c r="AM9" t="n">
-        <v>8.088931302552282e-09</v>
+        <v>0.0002249883837066591</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.880586767010755e-09</v>
+        <v>6.108806701377034e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.365026893386585e-09</v>
+        <v>0.001786262029781938</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.51490899216833e-08</v>
+        <v>0.001157869701273739</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.361968176600726e-09</v>
+        <v>9.217369370162487e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>6.595833657030425e-09</v>
+        <v>6.865931209176779e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>7.710203586697162e-10</v>
+        <v>0.0006868946948088706</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.273095382563042e-08</v>
+        <v>0.001172066549770534</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.398421538098773e-08</v>
+        <v>0.005230034235864878</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.058274972682739e-08</v>
+        <v>0.0006196141475811601</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.65182515338347e-08</v>
+        <v>0.002372078131884336</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.661146953324533e-08</v>
+        <v>0.0002554180682636797</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.297894502982899e-08</v>
+        <v>0.0003952333354391158</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.058875298554085e-08</v>
+        <v>0.001520748250186443</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.813379206325408e-08</v>
+        <v>0.00186778255738318</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.262020887793369e-08</v>
+        <v>2.92676268145442e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>8.538771467669903e-09</v>
+        <v>0.0003596517199184746</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.523167547645699e-08</v>
+        <v>0.0005031275795772672</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.153286438044688e-10</v>
+        <v>0.0008107285830192268</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.756938416974663e-08</v>
+        <v>0.0005777464248239994</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.315634712284464e-08</v>
+        <v>0.002717131748795509</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.299378205033008e-08</v>
+        <v>0.003218764439225197</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.447405928445278e-08</v>
+        <v>0.001790870213881135</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.543358507660741e-08</v>
+        <v>6.061200110707432e-06</v>
       </c>
       <c r="BK9" t="n">
-        <v>9.972300318850102e-09</v>
+        <v>0.001314273336902261</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.580584939655296e-09</v>
+        <v>0.0007418667082674801</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.915603320412629e-08</v>
+        <v>0.002674282761290669</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.681326716214016e-09</v>
+        <v>0.0008706196094863117</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.570731456013164e-08</v>
+        <v>0.0009996260050684214</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.358390283063727e-08</v>
+        <v>0.001775654731318355</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.283816608577126e-09</v>
+        <v>0.0009897167328745127</v>
       </c>
       <c r="BR9" t="n">
-        <v>4.805500886106984e-09</v>
+        <v>0.0001005601952783763</v>
       </c>
       <c r="BS9" t="n">
-        <v>5.396415314606884e-09</v>
+        <v>0.0003294487542007118</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.738202608045583e-10</v>
+        <v>0.001047661295160651</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.954765759317524e-08</v>
+        <v>0.001153446268290281</v>
       </c>
       <c r="BV9" t="n">
-        <v>8.278569829656135e-09</v>
+        <v>0.002585562877357006</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.058642595808124e-08</v>
+        <v>0.0004324596375226974</v>
       </c>
       <c r="BX9" t="n">
-        <v>5.331413177600552e-08</v>
+        <v>0.001790771377272904</v>
       </c>
       <c r="BY9" t="n">
-        <v>7.445288829899255e-10</v>
+        <v>0.0004248102777637541</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.587028286564873e-08</v>
+        <v>0.0008692661067470908</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.180880015994035e-08</v>
+        <v>0.0001637492096051574</v>
       </c>
       <c r="CB9" t="n">
-        <v>2.430584977730632e-08</v>
+        <v>0.001504014013335109</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.218175160744295e-08</v>
+        <v>0.00091634935233742</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.224997348003853e-08</v>
+        <v>0.0003314238274469972</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.19095808770453e-08</v>
+        <v>0.0007326128543354571</v>
       </c>
       <c r="CF9" t="n">
-        <v>4.470222414454383e-09</v>
+        <v>0.0004640276310965419</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.867508991892919e-08</v>
+        <v>0.0007932265871204436</v>
       </c>
       <c r="CH9" t="n">
-        <v>8.334605894333436e-09</v>
+        <v>0.0001604751887498423</v>
       </c>
       <c r="CI9" t="n">
-        <v>3.542579118942513e-09</v>
+        <v>0.0001822557969717309</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.82775783186662e-09</v>
+        <v>0.0002793273597490042</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.211338229722969e-08</v>
+        <v>0.000247842661337927</v>
       </c>
       <c r="CL9" t="n">
-        <v>5.516335832567165e-09</v>
+        <v>0.0002144956379197538</v>
       </c>
       <c r="CM9" t="n">
-        <v>8.750904889609501e-09</v>
+        <v>0.001302448217757046</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.014972816903992e-08</v>
+        <v>0.0009127530502155423</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.567077312358833e-08</v>
+        <v>2.284843503730372e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.447093372381914e-08</v>
+        <v>0.001978406915441155</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.759862122696632e-08</v>
+        <v>0.001259270589798689</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.75075269229319e-08</v>
+        <v>0.0001410884578945115</v>
       </c>
       <c r="CS9" t="n">
-        <v>8.978455312558253e-09</v>
+        <v>0.0015031264629215</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.929048363384481e-09</v>
+        <v>0.00322405993938446</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.332628617513933e-09</v>
+        <v>0.000107348918390926</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.358191692446553e-08</v>
+        <v>0.0003682399983517826</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.531528859288755e-08</v>
+        <v>0.0005559611017815769</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.189541354307266e-09</v>
+        <v>0.000648140034172684</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.46764511654851e-08</v>
+        <v>0.0009575634612701833</v>
       </c>
       <c r="CZ9" t="n">
-        <v>6.193374701979337e-09</v>
+        <v>0.0004329904040787369</v>
       </c>
       <c r="DA9" t="n">
-        <v>9.656351274145436e-10</v>
+        <v>0.000270586577244103</v>
       </c>
       <c r="DB9" t="n">
-        <v>7.907434707021821e-09</v>
+        <v>0.0003191399737261236</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.0060643873544e-08</v>
+        <v>0.000357089884346351</v>
       </c>
       <c r="DD9" t="n">
-        <v>7.096016219065859e-09</v>
+        <v>7.76375163695775e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.923591146952731e-08</v>
+        <v>0.0001716398692224175</v>
       </c>
       <c r="DF9" t="n">
-        <v>3.683165061829641e-08</v>
+        <v>0.0005853757029399276</v>
       </c>
       <c r="DG9" t="n">
-        <v>4.180353840865791e-09</v>
+        <v>7.921735232230276e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.487265866018106e-08</v>
+        <v>0.002536637708544731</v>
       </c>
       <c r="DI9" t="n">
-        <v>9.528847044748545e-09</v>
+        <v>0.0005653343396261334</v>
       </c>
       <c r="DJ9" t="n">
-        <v>3.323842978630864e-09</v>
+        <v>0.000948021886870265</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.147165118453586e-08</v>
+        <v>0.00111664819996804</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.053110215172183e-08</v>
+        <v>0.0007931066211313009</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.076588456745299e-09</v>
+        <v>0.0005060152616351843</v>
       </c>
       <c r="DN9" t="n">
-        <v>3.314566399126306e-09</v>
+        <v>0.0004780548042617738</v>
       </c>
       <c r="DO9" t="n">
-        <v>2.752776673276003e-09</v>
+        <v>3.209074202459306e-05</v>
       </c>
       <c r="DP9" t="n">
-        <v>5.575929051815365e-09</v>
+        <v>0.0005235241842456162</v>
       </c>
       <c r="DQ9" t="n">
-        <v>3.230369305384784e-10</v>
+        <v>0.0005427561700344086</v>
       </c>
       <c r="DR9" t="n">
-        <v>2.372568363995242e-09</v>
+        <v>0.0002640521270222962</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.962351880990809e-08</v>
+        <v>0.0001008630642900243</v>
       </c>
       <c r="DT9" t="n">
-        <v>9.140467049917333e-09</v>
+        <v>0.001175103592686355</v>
       </c>
       <c r="DU9" t="n">
-        <v>2.288640388314889e-08</v>
+        <v>0.0001478179765399545</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.251464087914655e-08</v>
+        <v>0.0001654692459851503</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.348773620042266e-09</v>
+        <v>8.992468065116554e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>9.858363014814131e-09</v>
+        <v>0.0003310571773909032</v>
       </c>
       <c r="DY9" t="n">
-        <v>5.81545867017752e-10</v>
+        <v>0.0009190621203742921</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.014793665239267e-08</v>
+        <v>4.046761023346335e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>6.883164704873934e-09</v>
+        <v>0.0003201560175511986</v>
       </c>
       <c r="EB9" t="n">
-        <v>9.797069822070625e-10</v>
+        <v>0.001369915553368628</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.360242363190878e-09</v>
+        <v>0.0005202855099923909</v>
       </c>
       <c r="ED9" t="n">
-        <v>8.915499449813069e-10</v>
+        <v>0.0006033008685335517</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.371532043492607e-08</v>
+        <v>2.071302151307464e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.492264267710652e-08</v>
+        <v>0.0001704675087239593</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.177113073680403e-09</v>
+        <v>1.297499693464488e-05</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.28779106770105e-09</v>
+        <v>0.0004011935961898416</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.431610823805386e-08</v>
+        <v>0.001236312906257808</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.08095407572273e-08</v>
+        <v>0.0009459832217544317</v>
       </c>
       <c r="EK9" t="n">
-        <v>9.65148228004864e-09</v>
+        <v>0.0002916414814535528</v>
       </c>
       <c r="EL9" t="n">
-        <v>3.113066471271964e-10</v>
+        <v>0.0004811454855371267</v>
       </c>
       <c r="EM9" t="n">
-        <v>9.503193787452346e-09</v>
+        <v>1.778973455657251e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>7.588989880957797e-09</v>
+        <v>0.0004985093837603927</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.435262575455454e-09</v>
+        <v>3.054249100387096e-05</v>
       </c>
       <c r="EP9" t="n">
-        <v>9.328013028664373e-09</v>
+        <v>0.0008681351901032031</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.802474436374268e-08</v>
+        <v>7.02693869243376e-05</v>
       </c>
       <c r="ER9" t="n">
-        <v>9.532543643331337e-09</v>
+        <v>8.366993279196322e-05</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.282783562179702e-08</v>
+        <v>0.0004713318194262683</v>
       </c>
       <c r="ET9" t="n">
-        <v>8.355064196052808e-09</v>
+        <v>0.001446884591132402</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.829456586222022e-09</v>
+        <v>0.001250849105417728</v>
       </c>
       <c r="EV9" t="n">
-        <v>3.246078605911862e-08</v>
+        <v>0.0007897078758105636</v>
       </c>
       <c r="EW9" t="n">
-        <v>9.929851607637374e-09</v>
+        <v>0.0003364784934092313</v>
       </c>
       <c r="EX9" t="n">
-        <v>9.42096356482125e-09</v>
+        <v>0.0001210626869578846</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.286230144614819e-08</v>
+        <v>0.0005485400906763971</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.070066368846767e-09</v>
+        <v>0.0003200508945155889</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.175794483998516e-08</v>
+        <v>0.0009184966329485178</v>
       </c>
       <c r="FB9" t="n">
-        <v>8.765730363791135e-09</v>
+        <v>0.0005411127931438386</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.918298935838948e-09</v>
+        <v>0.0004086867847945541</v>
       </c>
       <c r="FD9" t="n">
-        <v>5.797409663443887e-09</v>
+        <v>0.0004201305564492941</v>
       </c>
       <c r="FE9" t="n">
-        <v>6.549209174977477e-09</v>
+        <v>0.0004258734697941691</v>
       </c>
       <c r="FF9" t="n">
-        <v>4.71008299030018e-09</v>
+        <v>0.0001807054941309616</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.716630926296148e-08</v>
+        <v>5.249372043181211e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>3.474343257536816e-09</v>
+        <v>0.0003451696247793734</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.181111120018841e-08</v>
+        <v>0.0003514894633553922</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.29080415642602e-09</v>
+        <v>0.0007854964351281524</v>
       </c>
       <c r="FK9" t="n">
-        <v>2.603830573377763e-08</v>
+        <v>0.0008026529685594141</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.480735534187261e-09</v>
+        <v>0.0002073114446830004</v>
       </c>
       <c r="FM9" t="n">
-        <v>7.519766143104789e-09</v>
+        <v>0.0005875201313756406</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.322718195557627e-08</v>
+        <v>2.23122478928417e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.019620476938599e-08</v>
+        <v>0.0001858690084191039</v>
       </c>
       <c r="FP9" t="n">
-        <v>5.791067181348808e-09</v>
+        <v>9.600348130334169e-05</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.20658585345268e-08</v>
+        <v>0.001274461508728564</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.685528694395089e-08</v>
+        <v>0.0002370479196542874</v>
       </c>
       <c r="FS9" t="n">
-        <v>7.854783490301998e-09</v>
+        <v>0.0009757519001141191</v>
       </c>
       <c r="FT9" t="n">
-        <v>3.157949635124169e-08</v>
+        <v>0.002883289009332657</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.106950702795984e-08</v>
+        <v>0.0007871423731558025</v>
       </c>
       <c r="FV9" t="n">
-        <v>7.00849289714256e-09</v>
+        <v>0.0003689320292323828</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.462282822079942e-08</v>
+        <v>1.788779627531767e-06</v>
       </c>
       <c r="FX9" t="n">
-        <v>9.808379886067087e-09</v>
+        <v>0.0001641337003093213</v>
       </c>
       <c r="FY9" t="n">
-        <v>2.195246828762265e-08</v>
+        <v>0.0009531675605103374</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.587996033616037e-08</v>
+        <v>0.0003499632584862411</v>
       </c>
       <c r="GA9" t="n">
-        <v>7.586673511639219e-10</v>
+        <v>0.0006015406106598675</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.217697231936654e-08</v>
+        <v>0.0005972652579657733</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.310269747203165e-08</v>
+        <v>0.0004064585373271257</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.733622578825589e-09</v>
+        <v>0.001163253909908235</v>
       </c>
       <c r="GE9" t="n">
-        <v>6.052319534433082e-09</v>
+        <v>0.002481547649949789</v>
       </c>
       <c r="GF9" t="n">
-        <v>3.145478189026107e-08</v>
+        <v>2.286076778545976e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.304879620496081e-09</v>
+        <v>0.0004311094235163182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.930952971131774e-06</v>
+        <v>0.128519207239151</v>
       </c>
       <c r="B10" t="n">
-        <v>8.520968549419194e-06</v>
+        <v>0.7436598539352417</v>
       </c>
       <c r="C10" t="n">
-        <v>5.043766577728093e-06</v>
+        <v>0.07350741326808929</v>
       </c>
       <c r="D10" t="n">
-        <v>1.272653116757283e-05</v>
+        <v>0.09058762341737747</v>
       </c>
       <c r="E10" t="n">
-        <v>3.553441956682946e-06</v>
+        <v>0.0134404394775629</v>
       </c>
       <c r="F10" t="n">
-        <v>1.990554210351547e-06</v>
+        <v>0.07720474898815155</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64941184266354e-07</v>
+        <v>0.02484503760933876</v>
       </c>
       <c r="H10" t="n">
-        <v>3.705888502736343e-07</v>
+        <v>0.03159103915095329</v>
       </c>
       <c r="I10" t="n">
-        <v>3.211453076801263e-06</v>
+        <v>0.04009589925408363</v>
       </c>
       <c r="J10" t="n">
-        <v>1.357288283543312e-06</v>
+        <v>0.1467465907335281</v>
       </c>
       <c r="K10" t="n">
-        <v>3.882481451000785e-06</v>
+        <v>0.5232400298118591</v>
       </c>
       <c r="L10" t="n">
-        <v>5.391953891376033e-06</v>
+        <v>0.02025913819670677</v>
       </c>
       <c r="M10" t="n">
-        <v>1.444905228709104e-05</v>
+        <v>0.112152136862278</v>
       </c>
       <c r="N10" t="n">
-        <v>7.712441401963588e-06</v>
+        <v>0.02101554721593857</v>
       </c>
       <c r="O10" t="n">
-        <v>6.157324605737813e-06</v>
+        <v>0.0722113773226738</v>
       </c>
       <c r="P10" t="n">
-        <v>2.371737082285108e-07</v>
+        <v>0.06768958270549774</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.484090368350735e-06</v>
+        <v>0.02764587290585041</v>
       </c>
       <c r="R10" t="n">
-        <v>5.645857072522631e-06</v>
+        <v>0.04216187447309494</v>
       </c>
       <c r="S10" t="n">
-        <v>5.415179657575209e-06</v>
+        <v>0.04957713931798935</v>
       </c>
       <c r="T10" t="n">
-        <v>1.114234692067839e-06</v>
+        <v>0.06526788324117661</v>
       </c>
       <c r="U10" t="n">
-        <v>4.359690706223773e-07</v>
+        <v>0.02809531986713409</v>
       </c>
       <c r="V10" t="n">
-        <v>8.380217195735895e-07</v>
+        <v>0.08927049487829208</v>
       </c>
       <c r="W10" t="n">
-        <v>8.284994692075998e-06</v>
+        <v>0.1204081624746323</v>
       </c>
       <c r="X10" t="n">
-        <v>2.042226242338074e-06</v>
+        <v>0.04419530928134918</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.931034830704448e-06</v>
+        <v>0.002444682642817497</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.301020802202402e-07</v>
+        <v>0.1102385967969894</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.244952727574855e-07</v>
+        <v>0.02090801112353802</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.855713091776124e-06</v>
+        <v>0.012127585709095</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.542826566947042e-06</v>
+        <v>0.03515562042593956</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.177225835315767e-06</v>
+        <v>0.1836777329444885</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.929846687038662e-06</v>
+        <v>0.03095181286334991</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.584729256544961e-06</v>
+        <v>0.1665323376655579</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.199470135470619e-06</v>
+        <v>0.06548888981342316</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.15868294617394e-06</v>
+        <v>0.03089161217212677</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.13352075459261e-06</v>
+        <v>0.100322961807251</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.333631073270226e-06</v>
+        <v>0.03045311011373997</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.573817144162604e-06</v>
+        <v>0.1106810867786407</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.346217231912306e-06</v>
+        <v>0.01526895444840193</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.135874638042878e-06</v>
+        <v>0.05790353938937187</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.525775016692933e-06</v>
+        <v>0.07404899597167969</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.207574996442418e-06</v>
+        <v>0.1306459158658981</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.687837311692419e-06</v>
+        <v>0.07046578824520111</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5.999738164064183e-07</v>
+        <v>0.02913060411810875</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.117819235536444e-07</v>
+        <v>0.03366295620799065</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.782589379217825e-06</v>
+        <v>0.01649064943194389</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.607476289995247e-06</v>
+        <v>0.007192522753030062</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.329890200300724e-07</v>
+        <v>0.5244219303131104</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.814314363306039e-07</v>
+        <v>0.0006872238591313362</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.33469733959646e-06</v>
+        <v>0.08878185600042343</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.416470222982753e-07</v>
+        <v>0.04078778252005577</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.170273546653334e-06</v>
+        <v>0.008749054744839668</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.997194087583921e-06</v>
+        <v>0.02687286585569382</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.060898057403392e-06</v>
+        <v>0.04739905148744583</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.357065684715053e-06</v>
+        <v>0.002753825858235359</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.228063517075498e-07</v>
+        <v>0.004700452089309692</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.341170668136328e-06</v>
+        <v>0.1957537233829498</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.099406396562699e-06</v>
+        <v>0.07499342411756516</v>
       </c>
       <c r="BF10" t="n">
-        <v>7.076253950799583e-06</v>
+        <v>0.001859661191701889</v>
       </c>
       <c r="BG10" t="n">
-        <v>7.146698408178054e-06</v>
+        <v>0.09545116126537323</v>
       </c>
       <c r="BH10" t="n">
-        <v>6.186439804878319e-07</v>
+        <v>0.1026203185319901</v>
       </c>
       <c r="BI10" t="n">
-        <v>4.438786618266022e-06</v>
+        <v>0.02206813916563988</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.826870516197232e-06</v>
+        <v>0.1113785356283188</v>
       </c>
       <c r="BK10" t="n">
-        <v>3.447609287832165e-06</v>
+        <v>0.06975880265235901</v>
       </c>
       <c r="BL10" t="n">
-        <v>5.168906227481784e-07</v>
+        <v>0.1449586004018784</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.051307546935277e-06</v>
+        <v>0.2681636214256287</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.102506980212638e-06</v>
+        <v>0.06418728083372116</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.31404476633179e-06</v>
+        <v>0.06233803927898407</v>
       </c>
       <c r="BP10" t="n">
-        <v>3.872675733873621e-06</v>
+        <v>0.1137478351593018</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.019159526549629e-06</v>
+        <v>0.01417406369000673</v>
       </c>
       <c r="BR10" t="n">
-        <v>8.957407544585294e-07</v>
+        <v>0.02244561538100243</v>
       </c>
       <c r="BS10" t="n">
-        <v>5.549463253373688e-07</v>
+        <v>0.09734533727169037</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.305411896941223e-07</v>
+        <v>0.0384213775396347</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.591810473655642e-06</v>
+        <v>0.0366157554090023</v>
       </c>
       <c r="BV10" t="n">
-        <v>2.456198728850723e-07</v>
+        <v>0.2439623475074768</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.767550315889821e-06</v>
+        <v>0.002172742038965225</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.797496098442934e-06</v>
+        <v>0.03757122159004211</v>
       </c>
       <c r="BY10" t="n">
-        <v>8.092162033790373e-07</v>
+        <v>0.01314448192715645</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4.744073294205009e-07</v>
+        <v>0.1305800229310989</v>
       </c>
       <c r="CA10" t="n">
-        <v>9.814057193580084e-07</v>
+        <v>0.06597436219453812</v>
       </c>
       <c r="CB10" t="n">
-        <v>3.35136178364337e-07</v>
+        <v>0.001741542480885983</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.102855089309742e-06</v>
+        <v>0.03596251457929611</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.173839905277418e-06</v>
+        <v>0.04513483121991158</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.015773250401253e-06</v>
+        <v>0.126148134469986</v>
       </c>
       <c r="CF10" t="n">
-        <v>4.009628753465222e-07</v>
+        <v>0.0003128191456198692</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.51517280958069e-06</v>
+        <v>0.02824376150965691</v>
       </c>
       <c r="CH10" t="n">
-        <v>9.604116257833084e-07</v>
+        <v>0.05131499469280243</v>
       </c>
       <c r="CI10" t="n">
-        <v>5.893302841286641e-07</v>
+        <v>0.02765184827148914</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.3324292069683e-07</v>
+        <v>0.01407834887504578</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.570814672253618e-07</v>
+        <v>0.02674019150435925</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.465062496208702e-06</v>
+        <v>0.01299777254462242</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.275667156936834e-07</v>
+        <v>0.1425711214542389</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.637478473843657e-06</v>
+        <v>0.1212026104331017</v>
       </c>
       <c r="CO10" t="n">
-        <v>9.247254695310403e-08</v>
+        <v>0.05142840370535851</v>
       </c>
       <c r="CP10" t="n">
-        <v>5.28121290699346e-06</v>
+        <v>0.1843511760234833</v>
       </c>
       <c r="CQ10" t="n">
-        <v>4.460976015252527e-06</v>
+        <v>0.1049006804823875</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.218970510308282e-06</v>
+        <v>0.1284926384687424</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.684634748424287e-07</v>
+        <v>0.03328698500990868</v>
       </c>
       <c r="CT10" t="n">
-        <v>9.355387078358035e-07</v>
+        <v>0.04175771400332451</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.84047883067251e-06</v>
+        <v>0.01984824240207672</v>
       </c>
       <c r="CV10" t="n">
-        <v>9.661025615059771e-07</v>
+        <v>0.04901102930307388</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.37545987147314e-06</v>
+        <v>0.09569426625967026</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.072703881277448e-08</v>
+        <v>0.002127123065292835</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.162924829463009e-06</v>
+        <v>0.01233792677521706</v>
       </c>
       <c r="CZ10" t="n">
-        <v>7.222557769637206e-07</v>
+        <v>0.06661196053028107</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.364989530993626e-07</v>
+        <v>0.0183744989335537</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.082898251070219e-07</v>
+        <v>0.02261405438184738</v>
       </c>
       <c r="DC10" t="n">
-        <v>6.280375828282558e-07</v>
+        <v>0.02450508438050747</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.490482759436418e-06</v>
+        <v>0.02110416628420353</v>
       </c>
       <c r="DE10" t="n">
-        <v>3.459420440776739e-06</v>
+        <v>0.03128169104456902</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.76748710348329e-06</v>
+        <v>0.04864811152219772</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.399433699589281e-06</v>
+        <v>0.1338179111480713</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.907724820033764e-06</v>
+        <v>0.03175116330385208</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.235445547034033e-06</v>
+        <v>0.04067909717559814</v>
       </c>
       <c r="DJ10" t="n">
-        <v>4.535101197689073e-06</v>
+        <v>0.131108820438385</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.276467512274394e-06</v>
+        <v>0.02086927928030491</v>
       </c>
       <c r="DL10" t="n">
-        <v>5.594632057182025e-06</v>
+        <v>0.02033494971692562</v>
       </c>
       <c r="DM10" t="n">
-        <v>5.607686262010247e-07</v>
+        <v>0.07766157388687134</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.543856112424692e-07</v>
+        <v>0.09576622396707535</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.908900912894751e-06</v>
+        <v>0.01974113285541534</v>
       </c>
       <c r="DP10" t="n">
-        <v>3.363301175340894e-07</v>
+        <v>0.1246226280927658</v>
       </c>
       <c r="DQ10" t="n">
-        <v>7.111880790944269e-07</v>
+        <v>0.05441905930638313</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.711339336907258e-06</v>
+        <v>0.01992902904748917</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.751085051182599e-06</v>
+        <v>0.1602857559919357</v>
       </c>
       <c r="DT10" t="n">
-        <v>5.247464969215798e-07</v>
+        <v>0.01864751428365707</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.617688099031511e-06</v>
+        <v>0.109252855181694</v>
       </c>
       <c r="DV10" t="n">
-        <v>9.885156941891182e-07</v>
+        <v>0.05709601193666458</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.551468358229613e-06</v>
+        <v>0.02869654446840286</v>
       </c>
       <c r="DX10" t="n">
-        <v>2.815801508404547e-06</v>
+        <v>0.004505295306444168</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.110544758375909e-07</v>
+        <v>0.01253582164645195</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.994486294483067e-06</v>
+        <v>0.01237018313258886</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.505453951722302e-06</v>
+        <v>0.09168165177106857</v>
       </c>
       <c r="EB10" t="n">
-        <v>2.477716407156549e-06</v>
+        <v>0.00351214874535799</v>
       </c>
       <c r="EC10" t="n">
-        <v>8.223173608712386e-07</v>
+        <v>0.03500964120030403</v>
       </c>
       <c r="ED10" t="n">
-        <v>3.349252892803634e-07</v>
+        <v>0.03717777132987976</v>
       </c>
       <c r="EE10" t="n">
-        <v>4.502026058617048e-07</v>
+        <v>0.06036883592605591</v>
       </c>
       <c r="EF10" t="n">
-        <v>5.34590469669638e-07</v>
+        <v>0.07920262217521667</v>
       </c>
       <c r="EG10" t="n">
-        <v>9.220523224939825e-07</v>
+        <v>0.1431524157524109</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.648792533615051e-07</v>
+        <v>0.06387954950332642</v>
       </c>
       <c r="EI10" t="n">
-        <v>3.821824520855444e-06</v>
+        <v>0.02270703762769699</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.038131358654937e-07</v>
+        <v>0.03239436447620392</v>
       </c>
       <c r="EK10" t="n">
-        <v>6.802201824029908e-07</v>
+        <v>0.03702347353100777</v>
       </c>
       <c r="EL10" t="n">
-        <v>6.077195848774863e-07</v>
+        <v>0.01302559487521648</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.926561594700615e-07</v>
+        <v>0.04537773504853249</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.25159090202942e-06</v>
+        <v>0.02501947432756424</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.024143614358763e-08</v>
+        <v>0.06457103043794632</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.961136149475351e-06</v>
+        <v>0.04268596693873405</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.471092102496186e-06</v>
+        <v>0.09654486924409866</v>
       </c>
       <c r="ER10" t="n">
-        <v>6.445804956456413e-07</v>
+        <v>0.003537643700838089</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.409849005540309e-06</v>
+        <v>0.05719196423888206</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.500225835115998e-06</v>
+        <v>0.1595612913370132</v>
       </c>
       <c r="EU10" t="n">
-        <v>3.79690362706242e-07</v>
+        <v>0.07287684082984924</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.709760226731305e-06</v>
+        <v>0.001486793160438538</v>
       </c>
       <c r="EW10" t="n">
-        <v>5.083779086589857e-08</v>
+        <v>0.04724329710006714</v>
       </c>
       <c r="EX10" t="n">
-        <v>7.520769713664777e-07</v>
+        <v>0.03389199078083038</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.52428106048319e-06</v>
+        <v>0.1087573543190956</v>
       </c>
       <c r="EZ10" t="n">
-        <v>5.460106322630054e-08</v>
+        <v>0.01437998469918966</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.569595156070136e-06</v>
+        <v>0.01521706953644753</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.541892970635672e-06</v>
+        <v>0.003569460473954678</v>
       </c>
       <c r="FC10" t="n">
-        <v>5.359879651223309e-07</v>
+        <v>0.005073775071650743</v>
       </c>
       <c r="FD10" t="n">
-        <v>2.934234544227365e-07</v>
+        <v>0.0187540240585804</v>
       </c>
       <c r="FE10" t="n">
-        <v>3.3215761163774e-07</v>
+        <v>0.02736868336796761</v>
       </c>
       <c r="FF10" t="n">
-        <v>5.015739930058771e-07</v>
+        <v>0.002371941227465868</v>
       </c>
       <c r="FG10" t="n">
-        <v>3.634922450146405e-06</v>
+        <v>0.03022241033613682</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.656031543006975e-07</v>
+        <v>0.00630499329417944</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.286495603380899e-06</v>
+        <v>0.04424809291958809</v>
       </c>
       <c r="FJ10" t="n">
-        <v>2.028047219937434e-06</v>
+        <v>0.06679695844650269</v>
       </c>
       <c r="FK10" t="n">
-        <v>2.392720261923387e-06</v>
+        <v>0.0827002078294754</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.505178144929232e-06</v>
+        <v>0.01336728036403656</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.47306377584755e-06</v>
+        <v>0.06647214293479919</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.007673290587263e-06</v>
+        <v>0.00181172788143158</v>
       </c>
       <c r="FO10" t="n">
-        <v>2.998664058395661e-06</v>
+        <v>0.07757678627967834</v>
       </c>
       <c r="FP10" t="n">
-        <v>9.316432851846912e-07</v>
+        <v>0.06564445793628693</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.985874575893831e-08</v>
+        <v>0.09297066181898117</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.183026085982419e-07</v>
+        <v>0.1083984076976776</v>
       </c>
       <c r="FS10" t="n">
-        <v>4.338354301580694e-06</v>
+        <v>0.1875694394111633</v>
       </c>
       <c r="FT10" t="n">
-        <v>3.671137278615788e-07</v>
+        <v>0.001315451227128506</v>
       </c>
       <c r="FU10" t="n">
-        <v>5.328801762516377e-06</v>
+        <v>0.1100564002990723</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.294309754484857e-06</v>
+        <v>0.0375930443406105</v>
       </c>
       <c r="FW10" t="n">
-        <v>6.441094910769607e-07</v>
+        <v>0.06118310987949371</v>
       </c>
       <c r="FX10" t="n">
-        <v>4.125140549149364e-06</v>
+        <v>0.01802549883723259</v>
       </c>
       <c r="FY10" t="n">
-        <v>4.133739253120439e-07</v>
+        <v>0.1465311944484711</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2.181409627155517e-06</v>
+        <v>0.004149302840232849</v>
       </c>
       <c r="GA10" t="n">
-        <v>5.587245368587901e-07</v>
+        <v>0.05807756260037422</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.133747557309107e-06</v>
+        <v>0.03550824522972107</v>
       </c>
       <c r="GC10" t="n">
-        <v>7.497818387491861e-06</v>
+        <v>1.643551513552666e-05</v>
       </c>
       <c r="GD10" t="n">
-        <v>5.933559350523865e-07</v>
+        <v>0.09812512993812561</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.525034605265319e-07</v>
+        <v>0.06976774334907532</v>
       </c>
       <c r="GF10" t="n">
-        <v>1.371937628391606e-06</v>
+        <v>0.09672759473323822</v>
       </c>
       <c r="GG10" t="n">
-        <v>7.406502504636592e-07</v>
+        <v>0.06762215495109558</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.886560261650128e-11</v>
+        <v>0.0008055761572904885</v>
       </c>
       <c r="B11" t="n">
-        <v>2.06527850377114e-10</v>
+        <v>0.01716800779104233</v>
       </c>
       <c r="C11" t="n">
-        <v>4.931610675384945e-11</v>
+        <v>0.001493387389928102</v>
       </c>
       <c r="D11" t="n">
-        <v>1.96148833286891e-10</v>
+        <v>0.003984377253800631</v>
       </c>
       <c r="E11" t="n">
-        <v>3.231019618521458e-10</v>
+        <v>0.00828577671200037</v>
       </c>
       <c r="F11" t="n">
-        <v>1.749970029996106e-10</v>
+        <v>0.002145879669114947</v>
       </c>
       <c r="G11" t="n">
-        <v>7.199438267768699e-11</v>
+        <v>0.00191454601008445</v>
       </c>
       <c r="H11" t="n">
-        <v>2.453155456549894e-10</v>
+        <v>0.003631274681538343</v>
       </c>
       <c r="I11" t="n">
-        <v>2.891130945759102e-10</v>
+        <v>0.001369797391816974</v>
       </c>
       <c r="J11" t="n">
-        <v>3.015557942243063e-11</v>
+        <v>0.001209333189763129</v>
       </c>
       <c r="K11" t="n">
-        <v>3.64292901400276e-10</v>
+        <v>0.01375074964016676</v>
       </c>
       <c r="L11" t="n">
-        <v>2.463373949268544e-11</v>
+        <v>0.0001197445089928806</v>
       </c>
       <c r="M11" t="n">
-        <v>1.216981238005843e-10</v>
+        <v>0.001600989489816129</v>
       </c>
       <c r="N11" t="n">
-        <v>1.980319554173438e-11</v>
+        <v>0.005791493225842714</v>
       </c>
       <c r="O11" t="n">
-        <v>5.204961114890772e-11</v>
+        <v>0.003252292983233929</v>
       </c>
       <c r="P11" t="n">
-        <v>5.060658142541641e-11</v>
+        <v>0.001202188548631966</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.999831577061741e-10</v>
+        <v>0.0006076274439692497</v>
       </c>
       <c r="R11" t="n">
-        <v>2.021541822827544e-10</v>
+        <v>0.001566605875268579</v>
       </c>
       <c r="S11" t="n">
-        <v>4.280498698550073e-12</v>
+        <v>0.000341149396263063</v>
       </c>
       <c r="T11" t="n">
-        <v>4.485141771870538e-11</v>
+        <v>0.00138661137316376</v>
       </c>
       <c r="U11" t="n">
-        <v>9.573819514940851e-11</v>
+        <v>4.86174103571102e-05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.006649694157424e-10</v>
+        <v>0.001954308710992336</v>
       </c>
       <c r="W11" t="n">
-        <v>1.836470697735848e-10</v>
+        <v>0.005623260512948036</v>
       </c>
       <c r="X11" t="n">
-        <v>8.190863265422621e-11</v>
+        <v>0.0007350709056481719</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.244804953559608e-11</v>
+        <v>0.0007347350474447012</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.001817101498048e-10</v>
+        <v>0.00253899279050529</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.299288438620486e-11</v>
+        <v>0.0008412100723944604</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.102921194603653e-11</v>
+        <v>0.0006767009035684168</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.049258319119062e-10</v>
+        <v>0.00172400800511241</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.981343281253771e-11</v>
+        <v>0.0007628016755916178</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.001172475622596e-11</v>
+        <v>0.0001443621295038611</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.758104300504272e-10</v>
+        <v>0.001754602184519172</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.113810640940294e-10</v>
+        <v>0.0002152136294171214</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.42274275694021e-10</v>
+        <v>0.0005325838574208319</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.520299858226437e-11</v>
+        <v>0.0004323095199652016</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.08674091631778e-12</v>
+        <v>0.0004859465407207608</v>
       </c>
       <c r="AK11" t="n">
-        <v>8.653244093492773e-11</v>
+        <v>0.002690282883122563</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.279841649326485e-10</v>
+        <v>0.001554711372591555</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.227880436216466e-10</v>
+        <v>0.000883593806065619</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.292329936981474e-10</v>
+        <v>0.001003735233098269</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.88704430826548e-12</v>
+        <v>0.002049065195024014</v>
       </c>
       <c r="AP11" t="n">
-        <v>6.743073460713234e-11</v>
+        <v>0.002725096652284265</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.262854289675658e-11</v>
+        <v>0.0004722286539617926</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.326662556535354e-11</v>
+        <v>8.727610111236572e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>5.299607974684761e-12</v>
+        <v>0.0007352167740464211</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.39373873553339e-10</v>
+        <v>0.0002233321720268577</v>
       </c>
       <c r="AU11" t="n">
-        <v>5.154876525637064e-10</v>
+        <v>0.01203273981809616</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.062438579977012e-11</v>
+        <v>0.0002117875992553309</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.871339277454865e-10</v>
+        <v>0.001666240044869483</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.756736671218675e-10</v>
+        <v>0.002482331823557615</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.889850220759826e-10</v>
+        <v>0.003319693729281425</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.372084291826006e-11</v>
+        <v>0.003261823207139969</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.379121261635419e-10</v>
+        <v>0.0008601656882092357</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.076995047646136e-10</v>
+        <v>0.002104869810864329</v>
       </c>
       <c r="BC11" t="n">
-        <v>3.320680536100795e-11</v>
+        <v>0.00232401886023581</v>
       </c>
       <c r="BD11" t="n">
-        <v>6.544396968788391e-11</v>
+        <v>0.005928180180490017</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.997283060108714e-11</v>
+        <v>0.003060015384107828</v>
       </c>
       <c r="BF11" t="n">
-        <v>8.308147225744023e-11</v>
+        <v>0.0005803385283797979</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.371205093914085e-10</v>
+        <v>0.004529365338385105</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.701736807024901e-10</v>
+        <v>0.003062896430492401</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.424691753459939e-10</v>
+        <v>0.001124164089560509</v>
       </c>
       <c r="BJ11" t="n">
-        <v>6.275490543883322e-11</v>
+        <v>0.001174730132333934</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.979201871837866e-11</v>
+        <v>0.0004468718252610415</v>
       </c>
       <c r="BL11" t="n">
-        <v>3.258009834139486e-11</v>
+        <v>0.002407933352515101</v>
       </c>
       <c r="BM11" t="n">
-        <v>7.714325706009717e-11</v>
+        <v>0.004535647109150887</v>
       </c>
       <c r="BN11" t="n">
-        <v>8.042030236188324e-11</v>
+        <v>0.002472116611897945</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.932347476474305e-10</v>
+        <v>0.001843310310505331</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.20639540024392e-10</v>
+        <v>0.002876427490264177</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.500738283644054e-10</v>
+        <v>0.00186789536383003</v>
       </c>
       <c r="BR11" t="n">
-        <v>7.993898598623872e-11</v>
+        <v>0.0002980716526508331</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.668006843758008e-10</v>
+        <v>0.001080684247426689</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.680304672126766e-11</v>
+        <v>0.0009573035058565438</v>
       </c>
       <c r="BU11" t="n">
-        <v>9.458372973725204e-11</v>
+        <v>0.0004984057741239667</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.958651296707359e-11</v>
+        <v>0.006831409875303507</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.455487397272748e-10</v>
+        <v>0.002497799461707473</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.161244850278464e-10</v>
+        <v>0.001276061404496431</v>
       </c>
       <c r="BY11" t="n">
-        <v>4.347348869782053e-11</v>
+        <v>0.0005889474414288998</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.118204417949187e-10</v>
+        <v>0.0003642882511485368</v>
       </c>
       <c r="CA11" t="n">
-        <v>8.198042245055603e-11</v>
+        <v>0.0001489203423261642</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.579368025250716e-10</v>
+        <v>9.1274079750292e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.136005539110641e-10</v>
+        <v>0.0008243998745456338</v>
       </c>
       <c r="CD11" t="n">
-        <v>7.728123002648246e-11</v>
+        <v>0.0003488020156510174</v>
       </c>
       <c r="CE11" t="n">
-        <v>6.205642943957201e-11</v>
+        <v>0.002779782982543111</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.266681022906504e-11</v>
+        <v>0.0009852972580119967</v>
       </c>
       <c r="CG11" t="n">
-        <v>8.048893496148679e-11</v>
+        <v>0.0001580935931997374</v>
       </c>
       <c r="CH11" t="n">
-        <v>7.256843043146333e-11</v>
+        <v>0.0009180451743304729</v>
       </c>
       <c r="CI11" t="n">
-        <v>3.201943918340611e-11</v>
+        <v>0.0004036710015498102</v>
       </c>
       <c r="CJ11" t="n">
-        <v>4.16067805208975e-11</v>
+        <v>0.001361432834528387</v>
       </c>
       <c r="CK11" t="n">
-        <v>5.141115311246836e-11</v>
+        <v>0.001489372923970222</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.431654794714632e-11</v>
+        <v>0.0004674478259403259</v>
       </c>
       <c r="CM11" t="n">
-        <v>6.597331014823737e-11</v>
+        <v>0.004049636889249086</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.728167747794274e-10</v>
+        <v>0.003719278844073415</v>
       </c>
       <c r="CO11" t="n">
-        <v>3.327166667177472e-11</v>
+        <v>0.0002788477286230773</v>
       </c>
       <c r="CP11" t="n">
-        <v>8.578635024569792e-11</v>
+        <v>0.002944792155176401</v>
       </c>
       <c r="CQ11" t="n">
-        <v>8.724621025635315e-11</v>
+        <v>0.002457613358274102</v>
       </c>
       <c r="CR11" t="n">
-        <v>4.259892091851292e-11</v>
+        <v>0.001515073585323989</v>
       </c>
       <c r="CS11" t="n">
-        <v>5.45822102793192e-11</v>
+        <v>0.002326938323676586</v>
       </c>
       <c r="CT11" t="n">
-        <v>8.09268901891258e-11</v>
+        <v>0.0007947327103465796</v>
       </c>
       <c r="CU11" t="n">
-        <v>9.148598545394293e-11</v>
+        <v>0.001165155321359634</v>
       </c>
       <c r="CV11" t="n">
-        <v>9.247569376924503e-11</v>
+        <v>0.000277738377917558</v>
       </c>
       <c r="CW11" t="n">
-        <v>3.11298729849252e-11</v>
+        <v>0.002301876666024327</v>
       </c>
       <c r="CX11" t="n">
-        <v>5.427148314085528e-12</v>
+        <v>0.001286862534470856</v>
       </c>
       <c r="CY11" t="n">
-        <v>8.625918035409796e-11</v>
+        <v>0.0008989571360871196</v>
       </c>
       <c r="CZ11" t="n">
-        <v>5.533211042130226e-11</v>
+        <v>0.0002996455586981028</v>
       </c>
       <c r="DA11" t="n">
-        <v>2.061991029311816e-11</v>
+        <v>0.0001389674725942314</v>
       </c>
       <c r="DB11" t="n">
-        <v>6.817228205557857e-12</v>
+        <v>0.001109533361159265</v>
       </c>
       <c r="DC11" t="n">
-        <v>4.370750636417675e-11</v>
+        <v>0.001733245444484055</v>
       </c>
       <c r="DD11" t="n">
-        <v>8.011888895376185e-12</v>
+        <v>0.0005542449071072042</v>
       </c>
       <c r="DE11" t="n">
-        <v>8.085764696685871e-11</v>
+        <v>0.001891788677312434</v>
       </c>
       <c r="DF11" t="n">
-        <v>2.404995091964679e-10</v>
+        <v>0.001278548967093229</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.548091516090366e-11</v>
+        <v>0.001221150858327746</v>
       </c>
       <c r="DH11" t="n">
-        <v>3.207763776824635e-10</v>
+        <v>0.007068435195833445</v>
       </c>
       <c r="DI11" t="n">
-        <v>3.439959983531082e-10</v>
+        <v>0.004336883779615164</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.243119635008227e-10</v>
+        <v>0.0009602254722267389</v>
       </c>
       <c r="DK11" t="n">
-        <v>1.5654448223823e-11</v>
+        <v>0.001641663839109242</v>
       </c>
       <c r="DL11" t="n">
-        <v>3.170938511765087e-11</v>
+        <v>0.0006367083406075835</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.196220718648668e-11</v>
+        <v>0.003136689774692059</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.015487902100709e-10</v>
+        <v>0.000344009546097368</v>
       </c>
       <c r="DO11" t="n">
-        <v>8.156622946509096e-12</v>
+        <v>0.0008716307347640395</v>
       </c>
       <c r="DP11" t="n">
-        <v>2.567743760673036e-11</v>
+        <v>0.002907427493482828</v>
       </c>
       <c r="DQ11" t="n">
-        <v>4.126702451978659e-11</v>
+        <v>0.001567053375765681</v>
       </c>
       <c r="DR11" t="n">
-        <v>2.864699033544582e-10</v>
+        <v>0.002803562209010124</v>
       </c>
       <c r="DS11" t="n">
-        <v>2.161272966150207e-10</v>
+        <v>0.0001185289584100246</v>
       </c>
       <c r="DT11" t="n">
-        <v>2.797796543052566e-11</v>
+        <v>0.0008754405425861478</v>
       </c>
       <c r="DU11" t="n">
-        <v>2.453210898312186e-11</v>
+        <v>0.0001755536795826629</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.050455208928547e-11</v>
+        <v>0.0009488038485869765</v>
       </c>
       <c r="DW11" t="n">
-        <v>3.381045790562531e-11</v>
+        <v>0.0007104208343662322</v>
       </c>
       <c r="DX11" t="n">
-        <v>3.08681899485741e-11</v>
+        <v>0.0006015453254804015</v>
       </c>
       <c r="DY11" t="n">
-        <v>5.886158227497162e-11</v>
+        <v>0.0005373189924284816</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.278033373575127e-10</v>
+        <v>0.0009597346652299166</v>
       </c>
       <c r="EA11" t="n">
-        <v>6.208827202369704e-11</v>
+        <v>0.0003592254361137748</v>
       </c>
       <c r="EB11" t="n">
-        <v>4.885495133444273e-11</v>
+        <v>0.001120704226195812</v>
       </c>
       <c r="EC11" t="n">
-        <v>4.64169223890476e-11</v>
+        <v>0.0001657463726587594</v>
       </c>
       <c r="ED11" t="n">
-        <v>3.182494198727959e-12</v>
+        <v>0.0007233379292301834</v>
       </c>
       <c r="EE11" t="n">
-        <v>8.783302210546573e-12</v>
+        <v>0.001725466107018292</v>
       </c>
       <c r="EF11" t="n">
-        <v>6.569548377521883e-11</v>
+        <v>0.0002811847953125834</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.485484040803954e-12</v>
+        <v>0.002344341017305851</v>
       </c>
       <c r="EH11" t="n">
-        <v>3.560648997869009e-11</v>
+        <v>0.0002660038589965552</v>
       </c>
       <c r="EI11" t="n">
-        <v>3.191383268763559e-11</v>
+        <v>0.0007477831095457077</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.164744550807839e-10</v>
+        <v>0.0003702639369294047</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.059539470049664e-10</v>
+        <v>0.00125473493244499</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.037577575940807e-11</v>
+        <v>0.001004817197099328</v>
       </c>
       <c r="EM11" t="n">
-        <v>2.000258465806315e-11</v>
+        <v>0.001187207992188632</v>
       </c>
       <c r="EN11" t="n">
-        <v>8.062382705897875e-11</v>
+        <v>0.0005752512952312827</v>
       </c>
       <c r="EO11" t="n">
-        <v>7.32942040393425e-11</v>
+        <v>0.001180680468678474</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.672381400030787e-10</v>
+        <v>0.0005004872800782323</v>
       </c>
       <c r="EQ11" t="n">
-        <v>5.859080581815945e-11</v>
+        <v>0.00138898950535804</v>
       </c>
       <c r="ER11" t="n">
-        <v>5.764386190598714e-11</v>
+        <v>0.0008652309188619256</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.463056897854642e-10</v>
+        <v>0.001653459388762712</v>
       </c>
       <c r="ET11" t="n">
-        <v>1.753508171997709e-10</v>
+        <v>0.001746318419463933</v>
       </c>
       <c r="EU11" t="n">
-        <v>8.726910860623605e-11</v>
+        <v>0.001594362314790487</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.920509307140605e-10</v>
+        <v>0.003064720425754786</v>
       </c>
       <c r="EW11" t="n">
-        <v>6.765775439898647e-12</v>
+        <v>0.0005255253054201603</v>
       </c>
       <c r="EX11" t="n">
-        <v>7.695834247645195e-11</v>
+        <v>0.0004928366397507489</v>
       </c>
       <c r="EY11" t="n">
-        <v>4.720905263932984e-11</v>
+        <v>0.001895998953841627</v>
       </c>
       <c r="EZ11" t="n">
-        <v>9.397278094569472e-12</v>
+        <v>0.0006772326887585223</v>
       </c>
       <c r="FA11" t="n">
-        <v>7.825116943305233e-11</v>
+        <v>6.625945388805121e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>4.07276989911054e-11</v>
+        <v>0.0006650679861195385</v>
       </c>
       <c r="FC11" t="n">
-        <v>2.354461894546467e-12</v>
+        <v>0.0005394774489104748</v>
       </c>
       <c r="FD11" t="n">
-        <v>9.62994007452922e-13</v>
+        <v>0.001777366502210498</v>
       </c>
       <c r="FE11" t="n">
-        <v>6.70508024103178e-11</v>
+        <v>0.001574374735355377</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.989850818839844e-11</v>
+        <v>0.0009551168186590075</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.920363174034989e-10</v>
+        <v>0.0005275657749734819</v>
       </c>
       <c r="FH11" t="n">
-        <v>7.861752221449692e-11</v>
+        <v>0.000592840020544827</v>
       </c>
       <c r="FI11" t="n">
-        <v>7.52517839708311e-11</v>
+        <v>0.0005535951931960881</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.378451658373692e-10</v>
+        <v>0.003551896195858717</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.23839327681452e-10</v>
+        <v>0.001405949587933719</v>
       </c>
       <c r="FL11" t="n">
-        <v>1.079756353772332e-10</v>
+        <v>0.0003375484375283122</v>
       </c>
       <c r="FM11" t="n">
-        <v>7.564410903215801e-11</v>
+        <v>0.002147302031517029</v>
       </c>
       <c r="FN11" t="n">
-        <v>2.410033284050428e-10</v>
+        <v>0.000629102869424969</v>
       </c>
       <c r="FO11" t="n">
-        <v>5.403901284783963e-12</v>
+        <v>0.00131640734616667</v>
       </c>
       <c r="FP11" t="n">
-        <v>2.147587663259287e-11</v>
+        <v>0.002954060211777687</v>
       </c>
       <c r="FQ11" t="n">
-        <v>1.063023280511999e-11</v>
+        <v>0.003509032540023327</v>
       </c>
       <c r="FR11" t="n">
-        <v>1.426914697510995e-10</v>
+        <v>0.0008201007731258869</v>
       </c>
       <c r="FS11" t="n">
-        <v>4.853127621995412e-11</v>
+        <v>1.565378624945879e-06</v>
       </c>
       <c r="FT11" t="n">
-        <v>5.195407992708567e-10</v>
+        <v>0.005209749564528465</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.850403996694894e-10</v>
+        <v>0.002277927938848734</v>
       </c>
       <c r="FV11" t="n">
-        <v>9.49036682573734e-11</v>
+        <v>0.001465316629037261</v>
       </c>
       <c r="FW11" t="n">
-        <v>1.129899993013161e-10</v>
+        <v>0.001793657429516315</v>
       </c>
       <c r="FX11" t="n">
-        <v>3.131113424093002e-11</v>
+        <v>0.001544762519188225</v>
       </c>
       <c r="FY11" t="n">
-        <v>7.126802620271988e-11</v>
+        <v>0.002939837984740734</v>
       </c>
       <c r="FZ11" t="n">
-        <v>8.894525393987607e-11</v>
+        <v>0.0003463063330855221</v>
       </c>
       <c r="GA11" t="n">
-        <v>9.742977952198473e-11</v>
+        <v>0.0006431038491427898</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.972720875542677e-10</v>
+        <v>0.0001252138754352927</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.969200774665225e-10</v>
+        <v>0.0002335893223062158</v>
       </c>
       <c r="GD11" t="n">
-        <v>2.99986251117712e-11</v>
+        <v>0.001713458681479096</v>
       </c>
       <c r="GE11" t="n">
-        <v>7.648993244346869e-11</v>
+        <v>0.002452984219416976</v>
       </c>
       <c r="GF11" t="n">
-        <v>1.419842975830532e-11</v>
+        <v>0.000870796968229115</v>
       </c>
       <c r="GG11" t="n">
-        <v>4.378220008760536e-11</v>
+        <v>4.028391049359925e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.367358404280594e-08</v>
+        <v>0.008694972842931747</v>
       </c>
       <c r="B12" t="n">
-        <v>2.988671354842154e-08</v>
+        <v>0.0838066041469574</v>
       </c>
       <c r="C12" t="n">
-        <v>1.562708007440961e-08</v>
+        <v>0.003997073043137789</v>
       </c>
       <c r="D12" t="n">
-        <v>6.986665823660587e-08</v>
+        <v>0.06458073109388351</v>
       </c>
       <c r="E12" t="n">
-        <v>1.590865927880714e-08</v>
+        <v>0.00560871884226799</v>
       </c>
       <c r="F12" t="n">
-        <v>1.720691678031017e-08</v>
+        <v>0.01055078767240047</v>
       </c>
       <c r="G12" t="n">
-        <v>4.887247495588554e-09</v>
+        <v>0.005410520359873772</v>
       </c>
       <c r="H12" t="n">
-        <v>2.032684065511603e-08</v>
+        <v>0.008626649156212807</v>
       </c>
       <c r="I12" t="n">
-        <v>7.910688992751602e-09</v>
+        <v>0.002632203511893749</v>
       </c>
       <c r="J12" t="n">
-        <v>7.644478827728562e-09</v>
+        <v>0.01537742465734482</v>
       </c>
       <c r="K12" t="n">
-        <v>2.757739459013919e-08</v>
+        <v>0.05666615441441536</v>
       </c>
       <c r="L12" t="n">
-        <v>2.641483654031163e-08</v>
+        <v>0.000764997792430222</v>
       </c>
       <c r="M12" t="n">
-        <v>6.94301292014643e-08</v>
+        <v>0.06203506886959076</v>
       </c>
       <c r="N12" t="n">
-        <v>3.77097286730077e-08</v>
+        <v>0.01832455024123192</v>
       </c>
       <c r="O12" t="n">
-        <v>9.073290563321734e-09</v>
+        <v>0.02907241322100163</v>
       </c>
       <c r="P12" t="n">
-        <v>2.39974862203951e-09</v>
+        <v>0.0008526556193828583</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.143895911326354e-08</v>
+        <v>0.009106555953621864</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51006140924892e-08</v>
+        <v>0.005634747911244631</v>
       </c>
       <c r="S12" t="n">
-        <v>2.300960311174549e-09</v>
+        <v>0.001932887593284249</v>
       </c>
       <c r="T12" t="n">
-        <v>8.030250242541115e-09</v>
+        <v>0.01085253618657589</v>
       </c>
       <c r="U12" t="n">
-        <v>4.258305708049193e-09</v>
+        <v>0.0007447048556059599</v>
       </c>
       <c r="V12" t="n">
-        <v>1.314715802891442e-08</v>
+        <v>0.01055257208645344</v>
       </c>
       <c r="W12" t="n">
-        <v>3.653181934737404e-08</v>
+        <v>0.003926816862076521</v>
       </c>
       <c r="X12" t="n">
-        <v>9.654254284896524e-09</v>
+        <v>0.004840349312871695</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.170347152523732e-09</v>
+        <v>0.01164989545941353</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.467139547159604e-09</v>
+        <v>0.0001039008420775644</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.110228658480651e-10</v>
+        <v>0.005646123550832272</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.606468380543902e-08</v>
+        <v>0.006809172220528126</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.488442258334999e-09</v>
+        <v>0.01643597520887852</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.305600403460176e-09</v>
+        <v>0.0001033806329360232</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.302618007377077e-08</v>
+        <v>0.00668370770290494</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.868052018101253e-09</v>
+        <v>0.00495803402736783</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.391879387417475e-09</v>
+        <v>0.002448930172249675</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.740639157953865e-10</v>
+        <v>0.006876734085381031</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.07944877878208e-09</v>
+        <v>0.0001759356819093227</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4.343908344139891e-09</v>
+        <v>0.00177113909740001</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.467263022192355e-08</v>
+        <v>0.003998089581727982</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.311888706671652e-09</v>
+        <v>0.008293386548757553</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.646254657738382e-10</v>
+        <v>0.002018181141465902</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.483946186046751e-09</v>
+        <v>0.003181652165949345</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.712347928010786e-09</v>
+        <v>0.009803034365177155</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.751584655096394e-08</v>
+        <v>0.008417370729148388</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.022864459798711e-09</v>
+        <v>0.00553430337458849</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.059196673760312e-09</v>
+        <v>0.003794882912188768</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.167579697484825e-10</v>
+        <v>0.002551334910094738</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.346764560456904e-08</v>
+        <v>0.006903728935867548</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.885208161274022e-08</v>
+        <v>0.06198294460773468</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.943510774538026e-08</v>
+        <v>0.004281077533960342</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.784576220131839e-08</v>
+        <v>0.00721662724390626</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.229025947679929e-08</v>
+        <v>0.01087742485105991</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.292210060124034e-09</v>
+        <v>0.006767376326024532</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4.375431572611888e-09</v>
+        <v>0.002938007470220327</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.432228735609442e-08</v>
+        <v>0.0005378918722271919</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.803128757416061e-09</v>
+        <v>0.000290034688077867</v>
       </c>
       <c r="BC12" t="n">
-        <v>5.186987728222903e-09</v>
+        <v>0.001015703426674008</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.917474262176256e-09</v>
+        <v>0.01461029797792435</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.419542757958197e-09</v>
+        <v>0.01609090343117714</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.037845175413167e-08</v>
+        <v>0.01564373821020126</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.562688061757967e-09</v>
+        <v>0.01798193342983723</v>
       </c>
       <c r="BH12" t="n">
-        <v>6.032202293226874e-09</v>
+        <v>0.01333686988800764</v>
       </c>
       <c r="BI12" t="n">
-        <v>5.354240606436633e-09</v>
+        <v>0.009433158673346043</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.048976572270988e-09</v>
+        <v>0.006047051399946213</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.969391482172568e-09</v>
+        <v>0.005688346456736326</v>
       </c>
       <c r="BL12" t="n">
-        <v>8.972613207980373e-10</v>
+        <v>0.01653043925762177</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.640945690439821e-08</v>
+        <v>0.01010206621140242</v>
       </c>
       <c r="BN12" t="n">
-        <v>9.782143983727565e-09</v>
+        <v>0.005591054446995258</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.158844753490484e-08</v>
+        <v>0.002332997275516391</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.4413808813174e-08</v>
+        <v>0.01629346609115601</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.336042387833913e-10</v>
+        <v>0.00416936632245779</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.253759318586845e-09</v>
+        <v>0.007456990890204906</v>
       </c>
       <c r="BS12" t="n">
-        <v>6.496483795359609e-09</v>
+        <v>0.008657733909785748</v>
       </c>
       <c r="BT12" t="n">
-        <v>5.578225881208709e-09</v>
+        <v>0.0008833614992909133</v>
       </c>
       <c r="BU12" t="n">
-        <v>2.297145940133305e-08</v>
+        <v>0.003921291790902615</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.033915708603672e-08</v>
+        <v>0.03017484955489635</v>
       </c>
       <c r="BW12" t="n">
-        <v>6.545787023526373e-09</v>
+        <v>0.003440540283918381</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.50343896116101e-08</v>
+        <v>0.01136020570993423</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.18378826133403e-09</v>
+        <v>0.004199720453470945</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.83385857610574e-08</v>
+        <v>0.01162595488131046</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.914323588536604e-09</v>
+        <v>0.003440272994339466</v>
       </c>
       <c r="CB12" t="n">
-        <v>5.796930935275668e-09</v>
+        <v>0.004545301664620638</v>
       </c>
       <c r="CC12" t="n">
-        <v>5.345299314285512e-09</v>
+        <v>0.00508602149784565</v>
       </c>
       <c r="CD12" t="n">
-        <v>8.374821724999038e-09</v>
+        <v>0.005174780264496803</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.16950760187251e-09</v>
+        <v>0.01431899424642324</v>
       </c>
       <c r="CF12" t="n">
-        <v>6.55370158142432e-09</v>
+        <v>0.004552162252366543</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.314014141939879e-08</v>
+        <v>0.004757789429277182</v>
       </c>
       <c r="CH12" t="n">
-        <v>7.146576219696499e-09</v>
+        <v>0.004322489723563194</v>
       </c>
       <c r="CI12" t="n">
-        <v>5.117366530527079e-09</v>
+        <v>0.00243614218197763</v>
       </c>
       <c r="CJ12" t="n">
-        <v>8.972121934291977e-10</v>
+        <v>0.004943688400089741</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.218230292314274e-09</v>
+        <v>0.001779141137376428</v>
       </c>
       <c r="CL12" t="n">
-        <v>4.739441727963367e-09</v>
+        <v>0.002453800523653626</v>
       </c>
       <c r="CM12" t="n">
-        <v>2.047978897579128e-09</v>
+        <v>0.009854654781520367</v>
       </c>
       <c r="CN12" t="n">
-        <v>3.147337279685303e-09</v>
+        <v>0.006086206994950771</v>
       </c>
       <c r="CO12" t="n">
-        <v>9.907904718886584e-09</v>
+        <v>0.003559929085895419</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.657368109420077e-08</v>
+        <v>0.02457695826888084</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.890819056882265e-09</v>
+        <v>0.01212824508547783</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.816185601910547e-08</v>
+        <v>0.009351661428809166</v>
       </c>
       <c r="CS12" t="n">
-        <v>3.949675697612065e-09</v>
+        <v>0.0101895472034812</v>
       </c>
       <c r="CT12" t="n">
-        <v>5.426836757749243e-09</v>
+        <v>0.0145100262016058</v>
       </c>
       <c r="CU12" t="n">
-        <v>4.855729152097865e-10</v>
+        <v>0.001680176006630063</v>
       </c>
       <c r="CV12" t="n">
-        <v>8.867232281772885e-09</v>
+        <v>0.005274460185319185</v>
       </c>
       <c r="CW12" t="n">
-        <v>4.488449611983469e-09</v>
+        <v>0.01067858468741179</v>
       </c>
       <c r="CX12" t="n">
-        <v>3.657124159062164e-09</v>
+        <v>0.004597783088684082</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.069818456045368e-08</v>
+        <v>0.007871903479099274</v>
       </c>
       <c r="CZ12" t="n">
-        <v>4.344653525834019e-09</v>
+        <v>0.003682759357616305</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.444106416201521e-09</v>
+        <v>0.00287388451397419</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.238046776208535e-09</v>
+        <v>0.00631887000054121</v>
       </c>
       <c r="DC12" t="n">
-        <v>4.871616887669461e-09</v>
+        <v>0.001984408125281334</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.956382942429173e-09</v>
+        <v>0.00120617588981986</v>
       </c>
       <c r="DE12" t="n">
-        <v>2.218233063899788e-08</v>
+        <v>0.00578609760850668</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.301208030213274e-08</v>
+        <v>0.008897558785974979</v>
       </c>
       <c r="DG12" t="n">
-        <v>6.144181163847406e-09</v>
+        <v>0.00642709294334054</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.564645384950381e-09</v>
+        <v>0.03064708225429058</v>
       </c>
       <c r="DI12" t="n">
-        <v>4.663882613442638e-10</v>
+        <v>0.004922614432871342</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.504647784145163e-08</v>
+        <v>0.0008762539364397526</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.052134823709139e-08</v>
+        <v>0.003012086497619748</v>
       </c>
       <c r="DL12" t="n">
-        <v>2.202260596106953e-08</v>
+        <v>0.005004375707358122</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.504004419951912e-09</v>
+        <v>0.006084812339395285</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.563175366925407e-09</v>
+        <v>0.009134779684245586</v>
       </c>
       <c r="DO12" t="n">
-        <v>3.502407697197896e-09</v>
+        <v>0.004711024463176727</v>
       </c>
       <c r="DP12" t="n">
-        <v>2.637033924557386e-09</v>
+        <v>0.01183854229748249</v>
       </c>
       <c r="DQ12" t="n">
-        <v>9.439984793857548e-09</v>
+        <v>0.01100680138915777</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.433300145237126e-10</v>
+        <v>0.01173515804111958</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.30474475668052e-08</v>
+        <v>0.01439435034990311</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.77360986902886e-09</v>
+        <v>0.004148129373788834</v>
       </c>
       <c r="DU12" t="n">
-        <v>6.085740356098768e-09</v>
+        <v>0.002162707038223743</v>
       </c>
       <c r="DV12" t="n">
-        <v>8.908115134431682e-09</v>
+        <v>0.007125426083803177</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.477604483213213e-09</v>
+        <v>0.002281869994476438</v>
       </c>
       <c r="DX12" t="n">
-        <v>8.73441052817725e-09</v>
+        <v>0.000181704293936491</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.425708078845901e-09</v>
+        <v>0.00829982478171587</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.349280864815228e-08</v>
+        <v>0.005090046674013138</v>
       </c>
       <c r="EA12" t="n">
-        <v>8.473513446460856e-09</v>
+        <v>0.003223880659788847</v>
       </c>
       <c r="EB12" t="n">
-        <v>5.567551975005358e-10</v>
+        <v>0.007748580072075129</v>
       </c>
       <c r="EC12" t="n">
-        <v>5.420006221612539e-09</v>
+        <v>0.003459865693002939</v>
       </c>
       <c r="ED12" t="n">
-        <v>5.577509121224011e-09</v>
+        <v>0.006410050205886364</v>
       </c>
       <c r="EE12" t="n">
-        <v>8.614724933408979e-09</v>
+        <v>0.00277257664129138</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.014589923187259e-08</v>
+        <v>0.003034968394786119</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.083879652696851e-09</v>
+        <v>0.006374608725309372</v>
       </c>
       <c r="EH12" t="n">
-        <v>3.978051665853855e-09</v>
+        <v>0.002496637403964996</v>
       </c>
       <c r="EI12" t="n">
-        <v>1.980843755688966e-08</v>
+        <v>0.005095533560961485</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.216494727174222e-08</v>
+        <v>0.008158325217664242</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.043362019004235e-08</v>
+        <v>0.002565910574048758</v>
       </c>
       <c r="EL12" t="n">
-        <v>3.006610960198941e-09</v>
+        <v>0.009233612567186356</v>
       </c>
       <c r="EM12" t="n">
-        <v>4.631036443214498e-09</v>
+        <v>0.001861002645455301</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.777117342172119e-09</v>
+        <v>0.0005708812968805432</v>
       </c>
       <c r="EO12" t="n">
-        <v>5.992183638170445e-09</v>
+        <v>0.005010385997593403</v>
       </c>
       <c r="EP12" t="n">
-        <v>5.114237922043685e-10</v>
+        <v>0.008564268238842487</v>
       </c>
       <c r="EQ12" t="n">
-        <v>4.319793411866613e-10</v>
+        <v>0.002055835444480181</v>
       </c>
       <c r="ER12" t="n">
-        <v>9.589418148436835e-10</v>
+        <v>0.003338774666190147</v>
       </c>
       <c r="ES12" t="n">
-        <v>2.529431331055321e-09</v>
+        <v>0.003342605195939541</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.721067732773918e-09</v>
+        <v>0.01747299544513226</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.79365411412391e-09</v>
+        <v>0.01126419752836227</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.773257429782404e-09</v>
+        <v>0.01114999689161777</v>
       </c>
       <c r="EW12" t="n">
-        <v>2.911894947388305e-09</v>
+        <v>0.002189418766647577</v>
       </c>
       <c r="EX12" t="n">
-        <v>7.135871005203853e-09</v>
+        <v>0.004253569059073925</v>
       </c>
       <c r="EY12" t="n">
-        <v>2.406121080156254e-09</v>
+        <v>0.01074138842523098</v>
       </c>
       <c r="EZ12" t="n">
-        <v>3.840232576379776e-09</v>
+        <v>0.001733696786686778</v>
       </c>
       <c r="FA12" t="n">
-        <v>9.035606041152278e-09</v>
+        <v>0.006616560276597738</v>
       </c>
       <c r="FB12" t="n">
-        <v>6.233465299487762e-09</v>
+        <v>0.0004084964166395366</v>
       </c>
       <c r="FC12" t="n">
-        <v>4.301874412249163e-09</v>
+        <v>0.004604948218911886</v>
       </c>
       <c r="FD12" t="n">
-        <v>3.703631845652922e-10</v>
+        <v>0.006313598249107599</v>
       </c>
       <c r="FE12" t="n">
-        <v>3.62766505723755e-09</v>
+        <v>0.00181684154085815</v>
       </c>
       <c r="FF12" t="n">
-        <v>3.343797905230872e-09</v>
+        <v>0.002362265717238188</v>
       </c>
       <c r="FG12" t="n">
-        <v>9.711021320413238e-09</v>
+        <v>0.00150019209831953</v>
       </c>
       <c r="FH12" t="n">
-        <v>3.976751372647414e-09</v>
+        <v>0.005097076296806335</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.449211084469937e-09</v>
+        <v>0.004827479366213083</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.009435313115148e-09</v>
+        <v>0.008987922221422195</v>
       </c>
       <c r="FK12" t="n">
-        <v>1.456298281965474e-08</v>
+        <v>0.002130967099219561</v>
       </c>
       <c r="FL12" t="n">
-        <v>2.009875110786652e-08</v>
+        <v>0.003391647944226861</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.231908575149987e-09</v>
+        <v>0.003009049920365214</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.316067166357016e-08</v>
+        <v>0.001729031675495207</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.175529096286709e-08</v>
+        <v>0.0005834102048538625</v>
       </c>
       <c r="FP12" t="n">
-        <v>2.913867813703064e-09</v>
+        <v>0.001465983688831329</v>
       </c>
       <c r="FQ12" t="n">
-        <v>5.437327921242741e-09</v>
+        <v>0.003255050629377365</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.096723600824134e-08</v>
+        <v>0.0008016679203137755</v>
       </c>
       <c r="FS12" t="n">
-        <v>4.123394958810422e-09</v>
+        <v>0.01161126419901848</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.701936807625316e-08</v>
+        <v>0.002659454010426998</v>
       </c>
       <c r="FU12" t="n">
-        <v>1.343842903622772e-08</v>
+        <v>0.005500577390193939</v>
       </c>
       <c r="FV12" t="n">
-        <v>5.744102082871905e-09</v>
+        <v>0.01214911416172981</v>
       </c>
       <c r="FW12" t="n">
-        <v>7.853948602587479e-09</v>
+        <v>0.00748034194111824</v>
       </c>
       <c r="FX12" t="n">
-        <v>8.348028046611944e-09</v>
+        <v>0.0007821787148714066</v>
       </c>
       <c r="FY12" t="n">
-        <v>9.374900855618762e-09</v>
+        <v>0.01042639557272196</v>
       </c>
       <c r="FZ12" t="n">
-        <v>1.694654017114772e-08</v>
+        <v>0.002027058973908424</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.242791286022339e-09</v>
+        <v>0.002476450521498919</v>
       </c>
       <c r="GB12" t="n">
-        <v>2.140406962780617e-09</v>
+        <v>0.005725644063204527</v>
       </c>
       <c r="GC12" t="n">
-        <v>5.92327698001327e-09</v>
+        <v>0.009775525890290737</v>
       </c>
       <c r="GD12" t="n">
-        <v>4.471601755540178e-09</v>
+        <v>0.0111289881169796</v>
       </c>
       <c r="GE12" t="n">
-        <v>4.638448736216105e-09</v>
+        <v>0.02021673694252968</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.293197726681683e-08</v>
+        <v>0.008686828427016735</v>
       </c>
       <c r="GG12" t="n">
-        <v>7.43188666163519e-09</v>
+        <v>0.005413228645920753</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.912277912197169e-05</v>
+        <v>0.01692746020853519</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0003367583267390728</v>
+        <v>0.1398927718400955</v>
       </c>
       <c r="C13" t="n">
-        <v>1.141422762884758e-05</v>
+        <v>0.01320743747055531</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003006169572472572</v>
+        <v>0.05197828263044357</v>
       </c>
       <c r="E13" t="n">
-        <v>9.579481411492452e-05</v>
+        <v>0.004131296649575233</v>
       </c>
       <c r="F13" t="n">
-        <v>6.109726200520527e-07</v>
+        <v>0.08488455414772034</v>
       </c>
       <c r="G13" t="n">
-        <v>2.142206722055562e-05</v>
+        <v>0.01706771925091743</v>
       </c>
       <c r="H13" t="n">
-        <v>1.797904042177834e-05</v>
+        <v>0.04848878458142281</v>
       </c>
       <c r="I13" t="n">
-        <v>1.528064603917301e-05</v>
+        <v>0.003973508253693581</v>
       </c>
       <c r="J13" t="n">
-        <v>1.509448338765651e-06</v>
+        <v>0.03205119445919991</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003417923580855131</v>
+        <v>0.1176035851240158</v>
       </c>
       <c r="L13" t="n">
-        <v>7.747498784738127e-06</v>
+        <v>0.003252692986279726</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0002485056756995618</v>
+        <v>0.03685170412063599</v>
       </c>
       <c r="N13" t="n">
-        <v>3.080796886933967e-05</v>
+        <v>0.01227411720901728</v>
       </c>
       <c r="O13" t="n">
-        <v>2.221753311459906e-05</v>
+        <v>0.07882920652627945</v>
       </c>
       <c r="P13" t="n">
-        <v>7.372473191935569e-06</v>
+        <v>0.01741099171340466</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.644815322128125e-05</v>
+        <v>0.005306711420416832</v>
       </c>
       <c r="R13" t="n">
-        <v>4.515440014074557e-05</v>
+        <v>0.01431483775377274</v>
       </c>
       <c r="S13" t="n">
-        <v>1.884685843833722e-05</v>
+        <v>0.0008999544661492109</v>
       </c>
       <c r="T13" t="n">
-        <v>4.344663830124773e-05</v>
+        <v>0.004913906566798687</v>
       </c>
       <c r="U13" t="n">
-        <v>1.547756619402207e-05</v>
+        <v>0.01299036014825106</v>
       </c>
       <c r="V13" t="n">
-        <v>4.738557618111372e-05</v>
+        <v>0.019530164077878</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0001541845558676869</v>
+        <v>0.03258831799030304</v>
       </c>
       <c r="X13" t="n">
-        <v>6.345801466522971e-07</v>
+        <v>0.01111552678048611</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.166624396224506e-05</v>
+        <v>0.01131762098520994</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.596857029857347e-06</v>
+        <v>0.02170904353260994</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.693536887614755e-06</v>
+        <v>0.01460531167685986</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.779928581730928e-05</v>
+        <v>0.00184435211122036</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.760384475346655e-05</v>
+        <v>0.006702110171318054</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.395496944198385e-07</v>
+        <v>0.005801121238619089</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001119333901442587</v>
+        <v>0.001524918479844928</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.398619926680112e-06</v>
+        <v>0.01109636202454567</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.443580110091716e-05</v>
+        <v>0.01046456769108772</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.590603460499551e-06</v>
+        <v>0.006238969974219799</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.983166480902582e-06</v>
+        <v>0.005569361615926027</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3.098084926023148e-05</v>
+        <v>0.006922669243067503</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.700839781435207e-05</v>
+        <v>0.02341775223612785</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.719647742807865e-05</v>
+        <v>0.01011365745216608</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.856801777146757e-05</v>
+        <v>0.002134073991328478</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.292393012088723e-05</v>
+        <v>0.01133505068719387</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.405109287588857e-05</v>
+        <v>0.003689962672069669</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.261617373733316e-05</v>
+        <v>0.01515137404203415</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.792010703473352e-06</v>
+        <v>0.006860067136585712</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.185331529995892e-05</v>
+        <v>0.01081053353846073</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.427136314508971e-05</v>
+        <v>0.01503476779907942</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.96960201417096e-05</v>
+        <v>0.003323693294078112</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0002304004883626476</v>
+        <v>0.08675835281610489</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.382511982228607e-06</v>
+        <v>0.005612056702375412</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.511839455924928e-05</v>
+        <v>0.0197260994464159</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.488467205490451e-05</v>
+        <v>0.006166414357721806</v>
       </c>
       <c r="AY13" t="n">
-        <v>4.557487409329042e-05</v>
+        <v>0.04723115637898445</v>
       </c>
       <c r="AZ13" t="n">
-        <v>4.131222885916941e-05</v>
+        <v>0.02717016823589802</v>
       </c>
       <c r="BA13" t="n">
-        <v>6.34521620668238e-06</v>
+        <v>0.0174848809838295</v>
       </c>
       <c r="BB13" t="n">
-        <v>3.158337494824082e-05</v>
+        <v>0.02711106091737747</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.780707134457771e-05</v>
+        <v>0.005717973224818707</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.419116496341303e-05</v>
+        <v>0.04457918927073479</v>
       </c>
       <c r="BE13" t="n">
-        <v>3.220118742319755e-06</v>
+        <v>0.03156516328454018</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000143305427627638</v>
+        <v>0.01109658740460873</v>
       </c>
       <c r="BG13" t="n">
-        <v>5.895245976716978e-06</v>
+        <v>0.003094489686191082</v>
       </c>
       <c r="BH13" t="n">
-        <v>5.771869473392144e-05</v>
+        <v>0.01299979910254478</v>
       </c>
       <c r="BI13" t="n">
-        <v>4.658019679482095e-05</v>
+        <v>0.01326513849198818</v>
       </c>
       <c r="BJ13" t="n">
-        <v>4.255612566339551e-06</v>
+        <v>0.01760829798877239</v>
       </c>
       <c r="BK13" t="n">
-        <v>7.023770012892783e-05</v>
+        <v>0.01326418295502663</v>
       </c>
       <c r="BL13" t="n">
-        <v>2.921710074588191e-05</v>
+        <v>0.0117441825568676</v>
       </c>
       <c r="BM13" t="n">
-        <v>6.624332309002057e-05</v>
+        <v>0.03347194194793701</v>
       </c>
       <c r="BN13" t="n">
-        <v>3.323559940326959e-05</v>
+        <v>0.02453075721859932</v>
       </c>
       <c r="BO13" t="n">
-        <v>4.035964593640529e-06</v>
+        <v>0.003050999715924263</v>
       </c>
       <c r="BP13" t="n">
-        <v>8.20499008113984e-06</v>
+        <v>0.02557476609945297</v>
       </c>
       <c r="BQ13" t="n">
-        <v>5.924545985180885e-05</v>
+        <v>0.0061080870218575</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.557138941483572e-05</v>
+        <v>0.005128496326506138</v>
       </c>
       <c r="BS13" t="n">
-        <v>9.214571036864072e-06</v>
+        <v>0.004424754530191422</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.075250111171044e-09</v>
+        <v>0.004249121528118849</v>
       </c>
       <c r="BU13" t="n">
-        <v>4.849716060562059e-05</v>
+        <v>0.005444563459604979</v>
       </c>
       <c r="BV13" t="n">
-        <v>7.982339593581855e-05</v>
+        <v>0.05170222744345665</v>
       </c>
       <c r="BW13" t="n">
-        <v>3.843613012577407e-05</v>
+        <v>0.02180704846978188</v>
       </c>
       <c r="BX13" t="n">
-        <v>8.826069097267464e-05</v>
+        <v>0.01429760456085205</v>
       </c>
       <c r="BY13" t="n">
-        <v>2.930886921603815e-06</v>
+        <v>0.003892067121341825</v>
       </c>
       <c r="BZ13" t="n">
-        <v>5.333889475878095e-06</v>
+        <v>0.02139140665531158</v>
       </c>
       <c r="CA13" t="n">
-        <v>2.151148146367632e-05</v>
+        <v>0.002118462696671486</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.360010082862573e-05</v>
+        <v>0.005531114526093006</v>
       </c>
       <c r="CC13" t="n">
-        <v>3.846404433716089e-05</v>
+        <v>0.0151279317215085</v>
       </c>
       <c r="CD13" t="n">
-        <v>4.242719296598807e-05</v>
+        <v>0.002097834832966328</v>
       </c>
       <c r="CE13" t="n">
-        <v>7.813223783159629e-05</v>
+        <v>0.02345090359449387</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.697484160307795e-05</v>
+        <v>0.01752123422920704</v>
       </c>
       <c r="CG13" t="n">
-        <v>4.953970346832648e-05</v>
+        <v>0.007537618279457092</v>
       </c>
       <c r="CH13" t="n">
-        <v>6.073795248084934e-06</v>
+        <v>0.002682421123608947</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.149808824469801e-05</v>
+        <v>0.01318739727139473</v>
       </c>
       <c r="CJ13" t="n">
-        <v>6.79062736708147e-07</v>
+        <v>0.01031447388231754</v>
       </c>
       <c r="CK13" t="n">
-        <v>5.95518940826878e-07</v>
+        <v>0.01063832081854343</v>
       </c>
       <c r="CL13" t="n">
-        <v>3.46375054505188e-06</v>
+        <v>0.01244643144309521</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.921370312629733e-05</v>
+        <v>0.02943543344736099</v>
       </c>
       <c r="CN13" t="n">
-        <v>3.578595715225674e-05</v>
+        <v>0.02495075576007366</v>
       </c>
       <c r="CO13" t="n">
-        <v>8.662555046612397e-06</v>
+        <v>6.763450801372528e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>3.720490349223837e-05</v>
+        <v>0.03387225046753883</v>
       </c>
       <c r="CQ13" t="n">
-        <v>7.473508594557643e-05</v>
+        <v>0.02005872130393982</v>
       </c>
       <c r="CR13" t="n">
-        <v>8.474119385937229e-05</v>
+        <v>0.01068413723260164</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.665898344072048e-05</v>
+        <v>0.02075297944247723</v>
       </c>
       <c r="CT13" t="n">
-        <v>5.833225804963149e-05</v>
+        <v>0.01393930707126856</v>
       </c>
       <c r="CU13" t="n">
-        <v>2.374755058554001e-05</v>
+        <v>0.01316673588007689</v>
       </c>
       <c r="CV13" t="n">
-        <v>4.166633516433649e-05</v>
+        <v>0.001090884557925165</v>
       </c>
       <c r="CW13" t="n">
-        <v>7.459934568032622e-05</v>
+        <v>0.02114607952535152</v>
       </c>
       <c r="CX13" t="n">
-        <v>2.260956171085127e-05</v>
+        <v>0.01801098696887493</v>
       </c>
       <c r="CY13" t="n">
-        <v>5.708629760192707e-05</v>
+        <v>0.01376328524202108</v>
       </c>
       <c r="CZ13" t="n">
-        <v>7.587706932099536e-06</v>
+        <v>0.005151648074388504</v>
       </c>
       <c r="DA13" t="n">
-        <v>7.864706276450306e-06</v>
+        <v>0.01398227736353874</v>
       </c>
       <c r="DB13" t="n">
-        <v>6.162194040371105e-06</v>
+        <v>0.01082671247422695</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.417465682607144e-05</v>
+        <v>0.01744493469595909</v>
       </c>
       <c r="DD13" t="n">
-        <v>3.455895694060018e-06</v>
+        <v>0.008718891069293022</v>
       </c>
       <c r="DE13" t="n">
-        <v>5.882015830138698e-05</v>
+        <v>0.007609870750457048</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.638264312641695e-05</v>
+        <v>0.0136425718665123</v>
       </c>
       <c r="DG13" t="n">
-        <v>5.889015665161423e-05</v>
+        <v>0.002490857616066933</v>
       </c>
       <c r="DH13" t="n">
-        <v>3.433041274547577e-05</v>
+        <v>0.07262768596410751</v>
       </c>
       <c r="DI13" t="n">
-        <v>4.672709474107251e-05</v>
+        <v>0.01944229565560818</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.464530032535549e-05</v>
+        <v>0.02697623148560524</v>
       </c>
       <c r="DK13" t="n">
-        <v>3.867235500365496e-05</v>
+        <v>0.02549200877547264</v>
       </c>
       <c r="DL13" t="n">
-        <v>5.472453631227836e-05</v>
+        <v>0.0222218930721283</v>
       </c>
       <c r="DM13" t="n">
-        <v>5.608472747553606e-06</v>
+        <v>0.02109366096556187</v>
       </c>
       <c r="DN13" t="n">
-        <v>3.537242446327582e-05</v>
+        <v>0.003985878080129623</v>
       </c>
       <c r="DO13" t="n">
-        <v>4.179697498329915e-06</v>
+        <v>0.01490947883576155</v>
       </c>
       <c r="DP13" t="n">
-        <v>2.134314672730397e-05</v>
+        <v>0.02168704196810722</v>
       </c>
       <c r="DQ13" t="n">
-        <v>3.800814738497138e-06</v>
+        <v>0.01245751790702343</v>
       </c>
       <c r="DR13" t="n">
-        <v>3.007607847393956e-05</v>
+        <v>0.01076187659054995</v>
       </c>
       <c r="DS13" t="n">
-        <v>1.872643770184368e-05</v>
+        <v>0.006179139018058777</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.126036633853801e-06</v>
+        <v>0.004289291799068451</v>
       </c>
       <c r="DU13" t="n">
-        <v>9.998504538089037e-06</v>
+        <v>0.0004534241743385792</v>
       </c>
       <c r="DV13" t="n">
-        <v>3.363849828019738e-05</v>
+        <v>0.01187722664326429</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.324450204265304e-05</v>
+        <v>0.001042270800098777</v>
       </c>
       <c r="DX13" t="n">
-        <v>2.685271101654507e-05</v>
+        <v>0.01141374837607145</v>
       </c>
       <c r="DY13" t="n">
-        <v>2.378708632022608e-05</v>
+        <v>0.01521278545260429</v>
       </c>
       <c r="DZ13" t="n">
-        <v>2.75187921943143e-05</v>
+        <v>0.005085226148366928</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.41685304697603e-05</v>
+        <v>0.005064972676336765</v>
       </c>
       <c r="EB13" t="n">
-        <v>3.625405224738643e-05</v>
+        <v>0.01605339720845222</v>
       </c>
       <c r="EC13" t="n">
-        <v>4.397134944156278e-06</v>
+        <v>0.005808945745229721</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.550048546050675e-05</v>
+        <v>0.007352563552558422</v>
       </c>
       <c r="EE13" t="n">
-        <v>2.570151264080778e-05</v>
+        <v>0.0146466288715601</v>
       </c>
       <c r="EF13" t="n">
-        <v>3.607039252528921e-05</v>
+        <v>0.002758333925157785</v>
       </c>
       <c r="EG13" t="n">
-        <v>9.348218736704439e-05</v>
+        <v>0.0186653658747673</v>
       </c>
       <c r="EH13" t="n">
-        <v>1.885313758975826e-05</v>
+        <v>0.01272701937705278</v>
       </c>
       <c r="EI13" t="n">
-        <v>9.9452372523956e-05</v>
+        <v>0.002589564304798841</v>
       </c>
       <c r="EJ13" t="n">
-        <v>7.321067823795602e-05</v>
+        <v>0.006479552015662193</v>
       </c>
       <c r="EK13" t="n">
-        <v>2.865057103917934e-05</v>
+        <v>0.001846670173108578</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.440802407159936e-06</v>
+        <v>0.007815811783075333</v>
       </c>
       <c r="EM13" t="n">
-        <v>2.287085044372361e-05</v>
+        <v>0.003730907337740064</v>
       </c>
       <c r="EN13" t="n">
-        <v>2.207608849857934e-05</v>
+        <v>0.006168355699628592</v>
       </c>
       <c r="EO13" t="n">
-        <v>4.232270293869078e-05</v>
+        <v>0.003275573253631592</v>
       </c>
       <c r="EP13" t="n">
-        <v>4.220570554025471e-05</v>
+        <v>0.008600316010415554</v>
       </c>
       <c r="EQ13" t="n">
-        <v>7.625224498042371e-06</v>
+        <v>0.01210304256528616</v>
       </c>
       <c r="ER13" t="n">
-        <v>3.951459348172648e-06</v>
+        <v>0.01283653825521469</v>
       </c>
       <c r="ES13" t="n">
-        <v>4.485392491915263e-05</v>
+        <v>0.00672372430562973</v>
       </c>
       <c r="ET13" t="n">
-        <v>5.020502158004092e-06</v>
+        <v>0.0202349629253149</v>
       </c>
       <c r="EU13" t="n">
-        <v>7.673734216950834e-06</v>
+        <v>0.024049062281847</v>
       </c>
       <c r="EV13" t="n">
-        <v>1.587902625033166e-05</v>
+        <v>0.04802767932415009</v>
       </c>
       <c r="EW13" t="n">
-        <v>2.092599970637821e-05</v>
+        <v>0.007092866115272045</v>
       </c>
       <c r="EX13" t="n">
-        <v>3.447396011324599e-05</v>
+        <v>0.001083589741028845</v>
       </c>
       <c r="EY13" t="n">
-        <v>6.799677794333547e-05</v>
+        <v>0.01474758516997099</v>
       </c>
       <c r="EZ13" t="n">
-        <v>1.938606510520913e-05</v>
+        <v>0.01328380592167377</v>
       </c>
       <c r="FA13" t="n">
-        <v>5.737467654398642e-05</v>
+        <v>0.007584731094539165</v>
       </c>
       <c r="FB13" t="n">
-        <v>1.785512722562999e-06</v>
+        <v>0.003302507568150759</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.301735119341174e-05</v>
+        <v>0.01169420871883631</v>
       </c>
       <c r="FD13" t="n">
-        <v>5.547458385990467e-06</v>
+        <v>0.01789195090532303</v>
       </c>
       <c r="FE13" t="n">
-        <v>7.892331268521957e-07</v>
+        <v>0.01347396522760391</v>
       </c>
       <c r="FF13" t="n">
-        <v>9.484420843364205e-06</v>
+        <v>0.01221395842730999</v>
       </c>
       <c r="FG13" t="n">
-        <v>1.101002817449626e-05</v>
+        <v>0.003166080452501774</v>
       </c>
       <c r="FH13" t="n">
-        <v>4.973519025952555e-05</v>
+        <v>0.01579330861568451</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.692460864433087e-05</v>
+        <v>0.01585171744227409</v>
       </c>
       <c r="FJ13" t="n">
-        <v>5.901867552893236e-05</v>
+        <v>0.01992373540997505</v>
       </c>
       <c r="FK13" t="n">
-        <v>2.454513378324918e-05</v>
+        <v>0.006028510630130768</v>
       </c>
       <c r="FL13" t="n">
-        <v>2.643037441885099e-05</v>
+        <v>0.002821654547005892</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.588373263279209e-06</v>
+        <v>0.0127167385071516</v>
       </c>
       <c r="FN13" t="n">
-        <v>2.297176433785353e-05</v>
+        <v>0.0109943151473999</v>
       </c>
       <c r="FO13" t="n">
-        <v>3.02969910990214e-05</v>
+        <v>0.009124539792537689</v>
       </c>
       <c r="FP13" t="n">
-        <v>2.277361272717826e-05</v>
+        <v>0.01696488074958324</v>
       </c>
       <c r="FQ13" t="n">
-        <v>3.176141763105989e-05</v>
+        <v>0.01873973198235035</v>
       </c>
       <c r="FR13" t="n">
-        <v>1.55114375957055e-05</v>
+        <v>0.01935651339590549</v>
       </c>
       <c r="FS13" t="n">
-        <v>3.571143679437228e-05</v>
+        <v>0.002837487496435642</v>
       </c>
       <c r="FT13" t="n">
-        <v>5.369810605770908e-05</v>
+        <v>0.02862977609038353</v>
       </c>
       <c r="FU13" t="n">
-        <v>2.447722545184661e-05</v>
+        <v>0.02254908159375191</v>
       </c>
       <c r="FV13" t="n">
-        <v>2.593311728560366e-05</v>
+        <v>0.01410043425858021</v>
       </c>
       <c r="FW13" t="n">
-        <v>1.455502751923632e-05</v>
+        <v>0.002155140973627567</v>
       </c>
       <c r="FX13" t="n">
-        <v>5.052206688560545e-05</v>
+        <v>0.01128438487648964</v>
       </c>
       <c r="FY13" t="n">
-        <v>3.153524085064419e-05</v>
+        <v>0.02315151318907738</v>
       </c>
       <c r="FZ13" t="n">
-        <v>5.217244506638963e-06</v>
+        <v>0.003012014552950859</v>
       </c>
       <c r="GA13" t="n">
-        <v>2.137512456101831e-05</v>
+        <v>0.01081140618771315</v>
       </c>
       <c r="GB13" t="n">
-        <v>4.267257463652641e-05</v>
+        <v>0.00502720894291997</v>
       </c>
       <c r="GC13" t="n">
-        <v>6.481999207608169e-06</v>
+        <v>0.001885336823761463</v>
       </c>
       <c r="GD13" t="n">
-        <v>1.073579551302828e-05</v>
+        <v>0.006052786950021982</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.907803016365506e-05</v>
+        <v>0.05211837962269783</v>
       </c>
       <c r="GF13" t="n">
-        <v>3.905963603756391e-05</v>
+        <v>0.0008123139850795269</v>
       </c>
       <c r="GG13" t="n">
-        <v>1.320351475442294e-05</v>
+        <v>0.004070116207003593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.77515442345566e-08</v>
+        <v>0.002358072204515338</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0861560418316e-08</v>
+        <v>0.04519301652908325</v>
       </c>
       <c r="C14" t="n">
-        <v>2.015674027688874e-08</v>
+        <v>0.004394729621708393</v>
       </c>
       <c r="D14" t="n">
-        <v>4.29430677684195e-08</v>
+        <v>0.02061634697020054</v>
       </c>
       <c r="E14" t="n">
-        <v>3.155377825692085e-08</v>
+        <v>0.009545069187879562</v>
       </c>
       <c r="F14" t="n">
-        <v>6.438875654879439e-09</v>
+        <v>0.005772814154624939</v>
       </c>
       <c r="G14" t="n">
-        <v>5.258891100368146e-09</v>
+        <v>0.003513716161251068</v>
       </c>
       <c r="H14" t="n">
-        <v>2.51280489749206e-08</v>
+        <v>0.002010042546316981</v>
       </c>
       <c r="I14" t="n">
-        <v>2.788840625100875e-08</v>
+        <v>0.002089016605168581</v>
       </c>
       <c r="J14" t="n">
-        <v>1.035442309671453e-08</v>
+        <v>0.003829649649560452</v>
       </c>
       <c r="K14" t="n">
-        <v>2.072205340652999e-08</v>
+        <v>0.03236570209264755</v>
       </c>
       <c r="L14" t="n">
-        <v>2.160098233616736e-08</v>
+        <v>0.0006502055912278593</v>
       </c>
       <c r="M14" t="n">
-        <v>4.789735186250255e-08</v>
+        <v>0.01762154325842857</v>
       </c>
       <c r="N14" t="n">
-        <v>3.619186017544962e-08</v>
+        <v>0.01126196980476379</v>
       </c>
       <c r="O14" t="n">
-        <v>5.637478039943744e-09</v>
+        <v>0.005728586111217737</v>
       </c>
       <c r="P14" t="n">
-        <v>7.69415464674239e-09</v>
+        <v>0.003196128876879811</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.070930982256414e-08</v>
+        <v>0.007111258804798126</v>
       </c>
       <c r="R14" t="n">
-        <v>3.721369168374622e-08</v>
+        <v>0.0007328984211198986</v>
       </c>
       <c r="S14" t="n">
-        <v>7.311566907475253e-09</v>
+        <v>0.002067269757390022</v>
       </c>
       <c r="T14" t="n">
-        <v>2.338998772444256e-09</v>
+        <v>0.006256969179958105</v>
       </c>
       <c r="U14" t="n">
-        <v>2.990318215267962e-09</v>
+        <v>0.001513654133304954</v>
       </c>
       <c r="V14" t="n">
-        <v>1.582277242562213e-08</v>
+        <v>0.006452227476984262</v>
       </c>
       <c r="W14" t="n">
-        <v>2.757560757515876e-08</v>
+        <v>0.004701576661318541</v>
       </c>
       <c r="X14" t="n">
-        <v>4.104999895560013e-09</v>
+        <v>0.00345646170899272</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.719675735145643e-09</v>
+        <v>0.003379710717126727</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.931537204797223e-09</v>
+        <v>0.00489895511418581</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.520867484345217e-09</v>
+        <v>0.002485897624865174</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.28024106871294e-08</v>
+        <v>0.001236291602253914</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.769389049310348e-09</v>
+        <v>0.001727407914586365</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.596493908768593e-09</v>
+        <v>0.002102994592860341</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.227746342953196e-08</v>
+        <v>0.0002266294322907925</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.153788531382816e-08</v>
+        <v>6.649235729128122e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.180730707124212e-09</v>
+        <v>0.00180037273094058</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.181549080797595e-09</v>
+        <v>0.000353102688677609</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.399291959027551e-10</v>
+        <v>0.004351659212261438</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5.111730150275662e-09</v>
+        <v>0.0002582528395578265</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.855387451627394e-09</v>
+        <v>0.006368061061948538</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.014488380084003e-09</v>
+        <v>0.002275861334055662</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.131630456008281e-09</v>
+        <v>5.456275175674818e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.273452398033783e-09</v>
+        <v>0.004180687945336103</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.021638951215209e-08</v>
+        <v>0.005278751254081726</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.588395772335389e-09</v>
+        <v>0.006157109048217535</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.066583264046187e-11</v>
+        <v>0.001611470826901495</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.601695830468543e-09</v>
+        <v>0.003543199738487601</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.673252064155918e-09</v>
+        <v>0.002012870972976089</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.816456318692872e-08</v>
+        <v>0.000589625327847898</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.791323001043565e-08</v>
+        <v>0.02816320769488811</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.480407174625498e-08</v>
+        <v>0.000505245930980891</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.51947201487701e-08</v>
+        <v>0.003534745192155242</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.364194948815793e-09</v>
+        <v>0.0003250674344599247</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.861239162792572e-09</v>
+        <v>0.0004427229869179428</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.342920663560676e-09</v>
+        <v>0.002484109252691269</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.951556510311093e-08</v>
+        <v>0.005095392465591431</v>
       </c>
       <c r="BB14" t="n">
-        <v>5.711753292558797e-09</v>
+        <v>0.000525263836607337</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.698613942366592e-09</v>
+        <v>0.0002770917490124702</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.767454849144201e-09</v>
+        <v>0.006502642761915922</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.063575005844086e-08</v>
+        <v>0.009466564282774925</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.150161826364183e-08</v>
+        <v>0.005594672635197639</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.914169089900497e-08</v>
+        <v>0.01332369446754456</v>
       </c>
       <c r="BH14" t="n">
-        <v>5.889629228761351e-09</v>
+        <v>0.001307048252783716</v>
       </c>
       <c r="BI14" t="n">
-        <v>5.684897885771534e-09</v>
+        <v>0.001286300714127719</v>
       </c>
       <c r="BJ14" t="n">
-        <v>3.762020917008613e-09</v>
+        <v>0.005344799719750881</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.06577351388637e-08</v>
+        <v>0.0003660556103568524</v>
       </c>
       <c r="BL14" t="n">
-        <v>8.7980456253689e-10</v>
+        <v>0.004482337739318609</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.744215971655194e-08</v>
+        <v>0.00801701657474041</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.163124530023651e-08</v>
+        <v>0.002826443174853921</v>
       </c>
       <c r="BO14" t="n">
-        <v>8.22242807174689e-09</v>
+        <v>0.0005527305183932185</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.257463466686204e-08</v>
+        <v>0.006181838922202587</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.339361954677543e-10</v>
+        <v>0.003852311056107283</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.058902188155741e-09</v>
+        <v>0.001361681846901774</v>
       </c>
       <c r="BS14" t="n">
-        <v>4.411077281218923e-09</v>
+        <v>0.002026309492066503</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.834358608401089e-09</v>
+        <v>0.001684439601376653</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.410411520907928e-08</v>
+        <v>0.001588342012837529</v>
       </c>
       <c r="BV14" t="n">
-        <v>5.681879855501393e-09</v>
+        <v>0.01544628199189901</v>
       </c>
       <c r="BW14" t="n">
-        <v>6.492810289415729e-09</v>
+        <v>0.004026705864816904</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.033960555536396e-08</v>
+        <v>0.001949121593497694</v>
       </c>
       <c r="BY14" t="n">
-        <v>1.053801490513706e-09</v>
+        <v>0.0004117278731428087</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.544768579719857e-08</v>
+        <v>0.00568440742790699</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.820867012725103e-09</v>
+        <v>0.003422705456614494</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.070060662300421e-08</v>
+        <v>0.001169334980659187</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.274546411802248e-09</v>
+        <v>0.0002859613159671426</v>
       </c>
       <c r="CD14" t="n">
-        <v>1.141016392480765e-09</v>
+        <v>0.0004892206052318215</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.31051164259577e-09</v>
+        <v>0.007556325290352106</v>
       </c>
       <c r="CF14" t="n">
-        <v>6.692007836761604e-09</v>
+        <v>0.002519540721550584</v>
       </c>
       <c r="CG14" t="n">
-        <v>8.259408268429524e-09</v>
+        <v>0.002646306063979864</v>
       </c>
       <c r="CH14" t="n">
-        <v>8.759728054030802e-09</v>
+        <v>0.001717986189760268</v>
       </c>
       <c r="CI14" t="n">
-        <v>2.96196334126364e-09</v>
+        <v>0.001579961972311139</v>
       </c>
       <c r="CJ14" t="n">
-        <v>3.711486673552145e-09</v>
+        <v>0.001542418613098562</v>
       </c>
       <c r="CK14" t="n">
-        <v>6.633693594437773e-09</v>
+        <v>0.001639616675674915</v>
       </c>
       <c r="CL14" t="n">
-        <v>5.790785628789763e-09</v>
+        <v>0.001618520356714725</v>
       </c>
       <c r="CM14" t="n">
-        <v>4.141218479247755e-09</v>
+        <v>0.009313393384218216</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.51152441674185e-08</v>
+        <v>0.001035006018355489</v>
       </c>
       <c r="CO14" t="n">
-        <v>8.466183309963071e-10</v>
+        <v>0.00118982105050236</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.383483816397302e-08</v>
+        <v>0.004368024412542582</v>
       </c>
       <c r="CQ14" t="n">
-        <v>7.681784097712807e-09</v>
+        <v>0.004631674848496914</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.422455397914746e-08</v>
+        <v>0.01109731756150723</v>
       </c>
       <c r="CS14" t="n">
-        <v>5.393390734020898e-10</v>
+        <v>0.00450505455955863</v>
       </c>
       <c r="CT14" t="n">
-        <v>7.599841311822786e-10</v>
+        <v>0.003140865126624703</v>
       </c>
       <c r="CU14" t="n">
-        <v>6.563567467310349e-09</v>
+        <v>0.004724707920104265</v>
       </c>
       <c r="CV14" t="n">
-        <v>1.399985238847989e-09</v>
+        <v>0.0002019125386141241</v>
       </c>
       <c r="CW14" t="n">
-        <v>3.84102172290568e-09</v>
+        <v>0.006920638959854841</v>
       </c>
       <c r="CX14" t="n">
-        <v>5.908483036165535e-09</v>
+        <v>0.003056071233004332</v>
       </c>
       <c r="CY14" t="n">
-        <v>5.137495762141953e-09</v>
+        <v>0.004189737141132355</v>
       </c>
       <c r="CZ14" t="n">
-        <v>5.088776511286142e-09</v>
+        <v>0.001675832783803344</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.187349552012051e-09</v>
+        <v>0.001350408187136054</v>
       </c>
       <c r="DB14" t="n">
-        <v>7.04222680170119e-10</v>
+        <v>0.001742023276165128</v>
       </c>
       <c r="DC14" t="n">
-        <v>6.339886393647021e-09</v>
+        <v>0.002626793691888452</v>
       </c>
       <c r="DD14" t="n">
-        <v>4.251038188129996e-09</v>
+        <v>0.001187085174024105</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.430745655284227e-08</v>
+        <v>0.003959824331104755</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.517486580837613e-08</v>
+        <v>0.01083394419401884</v>
       </c>
       <c r="DG14" t="n">
-        <v>4.621798055381987e-09</v>
+        <v>0.001643328578211367</v>
       </c>
       <c r="DH14" t="n">
-        <v>8.658580519238512e-09</v>
+        <v>0.01045149099081755</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.50916207203511e-09</v>
+        <v>0.001797748962417245</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.886517253524289e-08</v>
+        <v>0.002384244231507182</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.228603523946049e-09</v>
+        <v>0.002422656631097198</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.724343157150088e-08</v>
+        <v>0.001308617298491299</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.236934643600307e-08</v>
+        <v>0.002716596936807036</v>
       </c>
       <c r="DN14" t="n">
-        <v>3.61381990998666e-09</v>
+        <v>0.005022190045565367</v>
       </c>
       <c r="DO14" t="n">
-        <v>4.166593736698587e-09</v>
+        <v>0.003116497071459889</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.605923616310179e-09</v>
+        <v>0.001034805784001946</v>
       </c>
       <c r="DQ14" t="n">
-        <v>7.667911638975511e-09</v>
+        <v>0.002973497845232487</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.127011373114328e-09</v>
+        <v>0.002085627289488912</v>
       </c>
       <c r="DS14" t="n">
-        <v>3.414712956839594e-09</v>
+        <v>0.002929333131760359</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.109763392292962e-09</v>
+        <v>0.001922483323141932</v>
       </c>
       <c r="DU14" t="n">
-        <v>2.591886039127189e-09</v>
+        <v>0.002710998989641666</v>
       </c>
       <c r="DV14" t="n">
-        <v>4.345283244333586e-09</v>
+        <v>0.001496804994530976</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.127099191755576e-09</v>
+        <v>0.0001658318506088108</v>
       </c>
       <c r="DX14" t="n">
-        <v>4.037681300417262e-09</v>
+        <v>0.002744293538853526</v>
       </c>
       <c r="DY14" t="n">
-        <v>2.040235536071577e-09</v>
+        <v>0.004052429459989071</v>
       </c>
       <c r="DZ14" t="n">
-        <v>5.507129419157764e-09</v>
+        <v>0.001053379266522825</v>
       </c>
       <c r="EA14" t="n">
-        <v>9.549331325686694e-10</v>
+        <v>0.005694754887372255</v>
       </c>
       <c r="EB14" t="n">
-        <v>2.830035317202828e-09</v>
+        <v>0.0001260707213077694</v>
       </c>
       <c r="EC14" t="n">
-        <v>4.63336968792305e-09</v>
+        <v>0.003552204463630915</v>
       </c>
       <c r="ED14" t="n">
-        <v>3.899885303582096e-09</v>
+        <v>0.001280946773476899</v>
       </c>
       <c r="EE14" t="n">
-        <v>3.391261715890437e-09</v>
+        <v>0.00393104599788785</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.165968985920699e-09</v>
+        <v>0.005381423979997635</v>
       </c>
       <c r="EG14" t="n">
-        <v>6.81711243011307e-10</v>
+        <v>0.006616978906095028</v>
       </c>
       <c r="EH14" t="n">
-        <v>4.880862380929329e-09</v>
+        <v>0.004005718510597944</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.073987565547441e-08</v>
+        <v>0.002836177591234446</v>
       </c>
       <c r="EJ14" t="n">
-        <v>3.265886672210172e-09</v>
+        <v>0.002028055721893907</v>
       </c>
       <c r="EK14" t="n">
-        <v>2.689676925626827e-09</v>
+        <v>0.00111375586129725</v>
       </c>
       <c r="EL14" t="n">
-        <v>3.443999752050786e-09</v>
+        <v>0.001889899373054504</v>
       </c>
       <c r="EM14" t="n">
-        <v>6.599180757405065e-09</v>
+        <v>0.0007925838581286371</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.084966116948749e-09</v>
+        <v>0.0004042948712594807</v>
       </c>
       <c r="EO14" t="n">
-        <v>4.462965996765433e-09</v>
+        <v>0.001496068201959133</v>
       </c>
       <c r="EP14" t="n">
-        <v>2.647242425268814e-09</v>
+        <v>0.004327090457081795</v>
       </c>
       <c r="EQ14" t="n">
-        <v>5.039049622013181e-09</v>
+        <v>0.002100758021697402</v>
       </c>
       <c r="ER14" t="n">
-        <v>3.497050649059474e-09</v>
+        <v>0.003511213697493076</v>
       </c>
       <c r="ES14" t="n">
-        <v>6.096295912527694e-09</v>
+        <v>0.002297418424859643</v>
       </c>
       <c r="ET14" t="n">
-        <v>8.132585715969753e-10</v>
+        <v>0.001638241927139461</v>
       </c>
       <c r="EU14" t="n">
-        <v>1.930787751902585e-09</v>
+        <v>0.004281843546777964</v>
       </c>
       <c r="EV14" t="n">
-        <v>6.425311394053779e-09</v>
+        <v>0.00117468973621726</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.404321186588732e-10</v>
+        <v>0.001543662510812283</v>
       </c>
       <c r="EX14" t="n">
-        <v>1.452663433987311e-09</v>
+        <v>0.001138758379966021</v>
       </c>
       <c r="EY14" t="n">
-        <v>2.958961520249659e-09</v>
+        <v>0.006944842170923948</v>
       </c>
       <c r="EZ14" t="n">
-        <v>5.705330430316735e-09</v>
+        <v>0.002329354407265782</v>
       </c>
       <c r="FA14" t="n">
-        <v>5.347226217367052e-09</v>
+        <v>0.003240364603698254</v>
       </c>
       <c r="FB14" t="n">
-        <v>8.692984998504016e-09</v>
+        <v>0.0008262525661848485</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.008726435713925e-10</v>
+        <v>0.001625071279704571</v>
       </c>
       <c r="FD14" t="n">
-        <v>2.0100476838536e-09</v>
+        <v>0.002044411143288016</v>
       </c>
       <c r="FE14" t="n">
-        <v>3.380856039569835e-09</v>
+        <v>0.00190382928121835</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.069440174778947e-09</v>
+        <v>0.002086432883515954</v>
       </c>
       <c r="FG14" t="n">
-        <v>4.633700090295179e-10</v>
+        <v>0.002448851941153407</v>
       </c>
       <c r="FH14" t="n">
-        <v>6.767651328232205e-09</v>
+        <v>0.001511680311523378</v>
       </c>
       <c r="FI14" t="n">
-        <v>1.211318156890684e-09</v>
+        <v>0.001422689761966467</v>
       </c>
       <c r="FJ14" t="n">
-        <v>5.031680849754139e-09</v>
+        <v>0.004429338034242392</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.33509230337836e-08</v>
+        <v>0.004772622138261795</v>
       </c>
       <c r="FL14" t="n">
-        <v>9.902693776098204e-09</v>
+        <v>0.003454443998634815</v>
       </c>
       <c r="FM14" t="n">
-        <v>1.980323460770705e-09</v>
+        <v>0.001444476773031056</v>
       </c>
       <c r="FN14" t="n">
-        <v>1.174869712627924e-08</v>
+        <v>0.001529344124719501</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.285335748946181e-08</v>
+        <v>0.0005203075706958771</v>
       </c>
       <c r="FP14" t="n">
-        <v>9.051679406013591e-09</v>
+        <v>0.004889121279120445</v>
       </c>
       <c r="FQ14" t="n">
-        <v>5.068334196778324e-09</v>
+        <v>0.002276194049045444</v>
       </c>
       <c r="FR14" t="n">
-        <v>5.633003397065295e-09</v>
+        <v>0.007912082597613335</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.838774821294464e-08</v>
+        <v>0.0006347137386910617</v>
       </c>
       <c r="FT14" t="n">
-        <v>2.785365893487324e-08</v>
+        <v>0.008354900404810905</v>
       </c>
       <c r="FU14" t="n">
-        <v>4.313886581286397e-09</v>
+        <v>0.0007438568864017725</v>
       </c>
       <c r="FV14" t="n">
-        <v>1.498409507583176e-09</v>
+        <v>0.002860329346731305</v>
       </c>
       <c r="FW14" t="n">
-        <v>1.193110144015463e-08</v>
+        <v>0.001584090990945697</v>
       </c>
       <c r="FX14" t="n">
-        <v>5.94904570050403e-09</v>
+        <v>0.004692681133747101</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.056232961678006e-09</v>
+        <v>0.00494852289557457</v>
       </c>
       <c r="FZ14" t="n">
-        <v>1.251068493246521e-08</v>
+        <v>9.347433660877869e-06</v>
       </c>
       <c r="GA14" t="n">
-        <v>7.276334201833379e-09</v>
+        <v>0.001626380369998515</v>
       </c>
       <c r="GB14" t="n">
-        <v>3.256923619687768e-09</v>
+        <v>0.001066774944774806</v>
       </c>
       <c r="GC14" t="n">
-        <v>1.407401306607881e-08</v>
+        <v>0.002008714713156223</v>
       </c>
       <c r="GD14" t="n">
-        <v>1.091993873103547e-08</v>
+        <v>0.003383556380867958</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.124713300271196e-08</v>
+        <v>0.006340105086565018</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.17074741012857e-08</v>
+        <v>0.002066040877252817</v>
       </c>
       <c r="GG14" t="n">
-        <v>5.095571964375267e-09</v>
+        <v>0.004599385429173708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.001674828818067908</v>
+        <v>0.07610310614109039</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001895829336717725</v>
+        <v>0.411668062210083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002199363429099321</v>
+        <v>0.158510223031044</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005181988701224327</v>
+        <v>0.05049798637628555</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002679055323824286</v>
+        <v>0.1321723312139511</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0001770625240169466</v>
+        <v>0.09109190106391907</v>
       </c>
       <c r="G15" t="n">
-        <v>1.686425093794242e-06</v>
+        <v>0.05906286463141441</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001409385236911476</v>
+        <v>0.0915796309709549</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005005274899303913</v>
+        <v>0.0001880638301372528</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001149740186519921</v>
+        <v>0.1433568894863129</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002236917614936829</v>
+        <v>0.382185697555542</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003432316705584526</v>
+        <v>0.0941464826464653</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00446623470634222</v>
+        <v>0.054460808634758</v>
       </c>
       <c r="N15" t="n">
-        <v>0.003666948992758989</v>
+        <v>0.0194612592458725</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001782512059435248</v>
+        <v>0.01062044501304626</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0001074075407814234</v>
+        <v>0.003081373870372772</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002120849909260869</v>
+        <v>0.1155020743608475</v>
       </c>
       <c r="R15" t="n">
-        <v>0.005185831338167191</v>
+        <v>0.04253998026251793</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0006255326443351805</v>
+        <v>0.07169656455516815</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0004388049710541964</v>
+        <v>0.06086963042616844</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003707773867063224</v>
+        <v>0.08174596726894379</v>
       </c>
       <c r="V15" t="n">
-        <v>0.001406718045473099</v>
+        <v>0.06742234528064728</v>
       </c>
       <c r="W15" t="n">
-        <v>0.003759821644052863</v>
+        <v>0.02817211300134659</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001382808317430317</v>
+        <v>0.01899260655045509</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0007379777962341905</v>
+        <v>0.007404321804642677</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0002391692105447873</v>
+        <v>0.04890120774507523</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0006667957059107721</v>
+        <v>0.02935429289937019</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0002519242989365011</v>
+        <v>0.08036722987890244</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0004018589679617435</v>
+        <v>0.067853644490242</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0002645933709573001</v>
+        <v>0.02381036803126335</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0004453698347788304</v>
+        <v>0.0259773712605238</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001533107249997556</v>
+        <v>0.05029798671603203</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001299265190027654</v>
+        <v>0.003953221254050732</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.027877680025995e-05</v>
+        <v>0.02497844584286213</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.001882095588371158</v>
+        <v>0.01932291314005852</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.002034050412476063</v>
+        <v>0.03376981243491173</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0009017643751576543</v>
+        <v>0.01476699020713568</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.002463797107338905</v>
+        <v>0.03874154016375542</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0004803303745575249</v>
+        <v>0.0165469367057085</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0009499579900875688</v>
+        <v>0.04408201202750206</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0003393941151443869</v>
+        <v>0.01957880891859531</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.001758499885909259</v>
+        <v>0.07605625689029694</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0005096834502182901</v>
+        <v>0.0460878387093544</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0004162761615589261</v>
+        <v>0.02649686299264431</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0004808901576325297</v>
+        <v>0.02522652968764305</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.774047506041825e-06</v>
+        <v>0.1064468100667</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0003894666442647576</v>
+        <v>0.2120381593704224</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.001893023261800408</v>
+        <v>0.0854422003030777</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.002436378505080938</v>
+        <v>0.03814927488565445</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0002551808720454574</v>
+        <v>0.07543283700942993</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.002861735178157687</v>
+        <v>0.05569338425993919</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.000213882332900539</v>
+        <v>0.02627405524253845</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0004914633464068174</v>
+        <v>0.03308914601802826</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.001056796521879733</v>
+        <v>0.05925072729587555</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0005292470450513065</v>
+        <v>0.1482377648353577</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.001883742632344365</v>
+        <v>0.09953807294368744</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0006232509622350335</v>
+        <v>0.03630518540740013</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.001520939404144883</v>
+        <v>0.01499730814248323</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0006233932799659669</v>
+        <v>0.2729237675666809</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0005567778134718537</v>
+        <v>0.009466017596423626</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0003384937299415469</v>
+        <v>0.04752553626894951</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0001231500500580296</v>
+        <v>0.2065271586179733</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.001675113220699131</v>
+        <v>0.01278456300497055</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0001240933197550476</v>
+        <v>0.07824257016181946</v>
       </c>
       <c r="BM15" t="n">
-        <v>7.849917892599478e-05</v>
+        <v>0.01348275691270828</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.001555363647639751</v>
+        <v>0.07708752155303955</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0005431866156868637</v>
+        <v>0.02313582971692085</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0003809662302955985</v>
+        <v>0.09627660363912582</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0002164014877052978</v>
+        <v>0.03746278211474419</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.0004961537197232246</v>
+        <v>0.05454527586698532</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.000989432679489255</v>
+        <v>0.01376903243362904</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.001184175140224397</v>
+        <v>0.05671530961990356</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0008781046490184963</v>
+        <v>0.08282661437988281</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.001168591785244644</v>
+        <v>0.08930687606334686</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0001939074718393385</v>
+        <v>0.004144832957535982</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.001925905351527035</v>
+        <v>0.01505659054964781</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.001784248044714332</v>
+        <v>0.061689592897892</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.0001696480612736195</v>
+        <v>0.0362836942076683</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0002439858508296311</v>
+        <v>0.04479794204235077</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0003585523809306324</v>
+        <v>0.08149918913841248</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.002981426194310188</v>
+        <v>0.07752534002065659</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.0007612682529725134</v>
+        <v>0.04493556916713715</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0012271594023332</v>
+        <v>0.06856624037027359</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0005368238780647516</v>
+        <v>0.03671246021986008</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.001022866228595376</v>
+        <v>0.02637576684355736</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0008259720634669065</v>
+        <v>0.05144701153039932</v>
       </c>
       <c r="CI15" t="n">
-        <v>2.069571200991049e-05</v>
+        <v>0.02238438650965691</v>
       </c>
       <c r="CJ15" t="n">
-        <v>6.316851795418188e-05</v>
+        <v>0.01307603437453508</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0002606573980301619</v>
+        <v>0.02246538177132607</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0005115770036354661</v>
+        <v>0.04525324329733849</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0001064001262420788</v>
+        <v>0.000278085470199585</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.002471297513693571</v>
+        <v>0.01381478831171989</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0003628536942414939</v>
+        <v>0.02965095080435276</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.001639348105527461</v>
+        <v>0.04174362123012543</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.001730273361317813</v>
+        <v>0.0477890707552433</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.001635065418668091</v>
+        <v>0.07056698203086853</v>
       </c>
       <c r="CS15" t="n">
-        <v>4.956522025167942e-05</v>
+        <v>0.05273233726620674</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0003650209109764546</v>
+        <v>0.03825761750340462</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0003656444023363292</v>
+        <v>0.0563976988196373</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0009071559179574251</v>
+        <v>0.04335435107350349</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.001470661722123623</v>
+        <v>0.06432358175516129</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0005741381319239736</v>
+        <v>0.01968980208039284</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.001037619542330503</v>
+        <v>0.03668865561485291</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.001215291325934231</v>
+        <v>0.03489523753523827</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0003673489554785192</v>
+        <v>0.009588389657437801</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0001614136999705806</v>
+        <v>0.0006664907559752464</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0002155348920496181</v>
+        <v>0.01417835708707571</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0005914680077694356</v>
+        <v>0.04538939520716667</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.001362292445264757</v>
+        <v>0.04914849996566772</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.002335822209715843</v>
+        <v>0.2341235280036926</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.002305680420249701</v>
+        <v>0.03667566925287247</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.000972509675193578</v>
+        <v>0.1098794266581535</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.00171333143953234</v>
+        <v>0.0229358896613121</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.0007440212648361921</v>
+        <v>0.1593420058488846</v>
       </c>
       <c r="DK15" t="n">
-        <v>6.576912710443139e-06</v>
+        <v>0.1550595015287399</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0007124360417947173</v>
+        <v>0.01108607184141874</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.0006613649893552065</v>
+        <v>0.04061049595475197</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0001947867422131822</v>
+        <v>0.07970203459262848</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.000696382368914783</v>
+        <v>0.03451824933290482</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0008911542827263474</v>
+        <v>0.1747804135084152</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0003554814320523292</v>
+        <v>0.0463133417069912</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0008216562564484775</v>
+        <v>0.1042510792613029</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0004106270207557827</v>
+        <v>0.05251546204090118</v>
       </c>
       <c r="DT15" t="n">
-        <v>7.52739142626524e-05</v>
+        <v>0.01166925020515919</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0004288572235964239</v>
+        <v>0.01832926832139492</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.001198154874145985</v>
+        <v>0.007298606913536787</v>
       </c>
       <c r="DW15" t="n">
-        <v>9.982211486203596e-05</v>
+        <v>0.002431796863675117</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0004205967707093805</v>
+        <v>0.001995776314288378</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0004353380354586989</v>
+        <v>0.07830838859081268</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0005578009877353907</v>
+        <v>0.05465792864561081</v>
       </c>
       <c r="EA15" t="n">
-        <v>8.199590229196474e-05</v>
+        <v>0.01149700582027435</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.000394937873352319</v>
+        <v>0.09885059297084808</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0002585985057521611</v>
+        <v>0.03239524364471436</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0002439878589939326</v>
+        <v>0.06551336497068405</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.001786484499461949</v>
+        <v>0.02815594524145126</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0009374896762892604</v>
+        <v>0.06073470786213875</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001252897549420595</v>
+        <v>0.07120942324399948</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0001914576714625582</v>
+        <v>0.018047159537673</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.001297338050790131</v>
+        <v>3.074854612350464e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0005142349982634187</v>
+        <v>0.03597139939665794</v>
       </c>
       <c r="EK15" t="n">
-        <v>9.019950084621087e-05</v>
+        <v>0.03376695886254311</v>
       </c>
       <c r="EL15" t="n">
-        <v>6.564410432474688e-05</v>
+        <v>0.01296351291239262</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.001245440216735005</v>
+        <v>0.04085635393857956</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.0005121306166984141</v>
+        <v>0.05996063724160194</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0007713568047620356</v>
+        <v>0.03065993264317513</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0008459760574623942</v>
+        <v>0.04738239198923111</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.001624741591513157</v>
+        <v>0.02103868871927261</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.00048241758486256</v>
+        <v>0.004497559741139412</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.001196099445223808</v>
+        <v>0.004488762933760881</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0005454564234241843</v>
+        <v>0.03980752825737</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0005385410622693598</v>
+        <v>0.04051487147808075</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.581425021868199e-05</v>
+        <v>0.08164753019809723</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.001000082353129983</v>
+        <v>0.03132126480340958</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.0007673562504351139</v>
+        <v>0.03440189361572266</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.00142067251726985</v>
+        <v>0.08316176384687424</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0006961902836337686</v>
+        <v>0.03805418685078621</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.0007906159153208137</v>
+        <v>0.03479516506195068</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.001035782974213362</v>
+        <v>0.02558166161179543</v>
       </c>
       <c r="FC15" t="n">
-        <v>8.695237920619547e-05</v>
+        <v>0.01704508997499943</v>
       </c>
       <c r="FD15" t="n">
-        <v>6.841772847110406e-05</v>
+        <v>0.01610545441508293</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0002724640944506973</v>
+        <v>0.01112247258424759</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0007930010324344039</v>
+        <v>0.06072255223989487</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.0002748392289504409</v>
+        <v>0.0001864507794380188</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0007339123403653502</v>
+        <v>0.04629730060696602</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.0008086547022685409</v>
+        <v>0.02618619613349438</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.0007083130767568946</v>
+        <v>0.02680531144142151</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0009661135845817626</v>
+        <v>0.04384745657444</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0006436301628127694</v>
+        <v>0.05748160183429718</v>
       </c>
       <c r="FM15" t="n">
-        <v>3.8111065805424e-05</v>
+        <v>0.03548800572752953</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0006561760674230754</v>
+        <v>0.01223508361726999</v>
       </c>
       <c r="FO15" t="n">
-        <v>8.27839394332841e-05</v>
+        <v>0.05262100324034691</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0003065956989303231</v>
+        <v>0.1425653845071793</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.001345061813481152</v>
+        <v>0.04731027409434319</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0002517486282158643</v>
+        <v>0.162313848733902</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0008778689661994576</v>
+        <v>0.03387156128883362</v>
       </c>
       <c r="FT15" t="n">
-        <v>4.672856448451057e-05</v>
+        <v>0.09987379610538483</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.0004566160496324301</v>
+        <v>0.07140262424945831</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0002932634088210762</v>
+        <v>0.03311662748456001</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.0006900798762217164</v>
+        <v>0.001610347419045866</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0007305830367840827</v>
+        <v>0.04791879281401634</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.0005199036095291376</v>
+        <v>0.06547407060861588</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0001466565881855786</v>
+        <v>0.06162799522280693</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0004966914420947433</v>
+        <v>0.04432064667344093</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0003598702314775437</v>
+        <v>0.01907679252326488</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.0002092229842673987</v>
+        <v>0.1077161729335785</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0008939083782024682</v>
+        <v>0.08685251325368881</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0005489310715347528</v>
+        <v>0.07511383295059204</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.001181497587822378</v>
+        <v>0.03598324209451675</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.001315382542088628</v>
+        <v>0.02884509414434433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.003725034184753895</v>
+        <v>0.001139481901191175</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01404206268489361</v>
+        <v>0.002857709769159555</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005751321092247963</v>
+        <v>0.006328504998236895</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01828596368432045</v>
+        <v>0.001315808854997158</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002720629796385765</v>
+        <v>0.000590263691265136</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05766391754150391</v>
+        <v>0.002348438138142228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01230823807418346</v>
+        <v>0.002258795546367764</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0376337394118309</v>
+        <v>0.002767425961792469</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005839752964675426</v>
+        <v>0.0001445988600607961</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002788450801745057</v>
+        <v>0.00328315794467926</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01339317206293344</v>
+        <v>0.00422661891207099</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00731734000146389</v>
+        <v>0.005178845953196287</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01665349490940571</v>
+        <v>0.003803297644481063</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009811627678573132</v>
+        <v>0.006039747968316078</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05242147296667099</v>
+        <v>0.004470083396881819</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01240474078804255</v>
+        <v>0.0003507584915496409</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04150444641709328</v>
+        <v>0.005474230274558067</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0114985890686512</v>
+        <v>0.0010785604827106</v>
       </c>
       <c r="S16" t="n">
-        <v>0.006520616356283426</v>
+        <v>0.0008591098012402654</v>
       </c>
       <c r="T16" t="n">
-        <v>0.002658476354554296</v>
+        <v>0.002186422701925039</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00185046682599932</v>
+        <v>0.002424300648272038</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004581648390740156</v>
+        <v>0.0004865070804953575</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01269928924739361</v>
+        <v>0.00129056884907186</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01268324628472328</v>
+        <v>0.001866094069555402</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0006855018436908722</v>
+        <v>0.001707161543890834</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004291330464184284</v>
+        <v>0.00357361719943583</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.001464566332288086</v>
+        <v>0.002694885479286313</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.001172770047560334</v>
+        <v>0.002223832299932837</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.005851571913808584</v>
+        <v>0.0003320817777421325</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002101577119901776</v>
+        <v>0.001434496603906155</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.01346276234835386</v>
+        <v>0.00925887655466795</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01841852068901062</v>
+        <v>0.002430655062198639</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.00226940680295229</v>
+        <v>0.002324088243767619</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.01086199842393398</v>
+        <v>0.001003646291792393</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.001849394524469972</v>
+        <v>0.001057847053743899</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0007528828573413193</v>
+        <v>8.964953303802758e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.003275359980762005</v>
+        <v>0.001610641251318157</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.003702389309182763</v>
+        <v>0.002002483932301402</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.01202962547540665</v>
+        <v>0.0007059124764055014</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.002586826449260116</v>
+        <v>0.002025575144216418</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.01338917016983032</v>
+        <v>0.0009801943087950349</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.006233257241547108</v>
+        <v>0.00196816585958004</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0017957758391276</v>
+        <v>0.0009829192422330379</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.003496678080409765</v>
+        <v>0.0005581841105595231</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.002769969869405031</v>
+        <v>0.002078225836157799</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0009905586484819651</v>
+        <v>0.0006398570258170366</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.004650339484214783</v>
+        <v>0.0008041856926865876</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.002017353195697069</v>
+        <v>0.005868732929229736</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.004733304027467966</v>
+        <v>0.003989233169704676</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.00157753867097199</v>
+        <v>0.002014990197494626</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.02937919087707996</v>
+        <v>0.0001381347537972033</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0008994581294246018</v>
+        <v>0.003113452345132828</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.01964029856026173</v>
+        <v>0.005904115736484528</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.005619039293378592</v>
+        <v>0.0004246221506036818</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.005863458383828402</v>
+        <v>0.004829248413443565</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.000542245339602232</v>
+        <v>0.000541092362254858</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001207947148941457</v>
+        <v>0.00156808621250093</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.007070302031934261</v>
+        <v>0.004373959265649319</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.006883088499307632</v>
+        <v>0.00583646772429347</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.003198918886482716</v>
+        <v>0.00178917683660984</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.01292084157466888</v>
+        <v>0.003463700413703918</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.01093956083059311</v>
+        <v>0.008675619959831238</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.002917655510827899</v>
+        <v>0.002777445130050182</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.001730152405798435</v>
+        <v>0.004049390554428101</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0009089449304156005</v>
+        <v>0.002607694827020168</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.007790548726916313</v>
+        <v>0.003977896180003881</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.009366464801132679</v>
+        <v>0.002320768777281046</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.009341920726001263</v>
+        <v>0.000771196442656219</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.007397558074444532</v>
+        <v>0.000400435266783461</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.004899856168776751</v>
+        <v>0.0004756775742862374</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.000457350630313158</v>
+        <v>0.0006770298350602388</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.003212772076949477</v>
+        <v>0.002367500681430101</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.00845633540302515</v>
+        <v>0.005122066475450993</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0037004838231951</v>
+        <v>0.001073775696568191</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0004407676751725376</v>
+        <v>0.003817953867837787</v>
       </c>
       <c r="BX16" t="n">
-        <v>1.653563231229782e-06</v>
+        <v>0.002719912212342024</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.002368407789617777</v>
+        <v>0.005336274392902851</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.02184819057583809</v>
+        <v>0.003378811525180936</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.003287890460342169</v>
+        <v>0.001058854511938989</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.008584742434322834</v>
+        <v>0.003277676180005074</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.007248927839100361</v>
+        <v>0.00132658495567739</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.000158338007167913</v>
+        <v>0.002124086720868945</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.004915505181998014</v>
+        <v>0.0003015128895640373</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.004341617226600647</v>
+        <v>0.001620222115889192</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.009925092570483685</v>
+        <v>0.000585192465223372</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.002290514297783375</v>
+        <v>0.001198149286210537</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.01161569077521563</v>
+        <v>0.0006052872631698847</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.003897437360137701</v>
+        <v>0.0005177103448659182</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.006799894850701094</v>
+        <v>0.000465901248389855</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0001588620070833713</v>
+        <v>0.001269791158847511</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.001559382770210505</v>
+        <v>0.007196408696472645</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0002988057676702738</v>
+        <v>0.003430298296734691</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.006625503767281771</v>
+        <v>0.003542062826454639</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.0119841443374753</v>
+        <v>0.0009046654449775815</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.008385404944419861</v>
+        <v>0.001348644262179732</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.01412708405405283</v>
+        <v>0.002324431668967009</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.007803114131093025</v>
+        <v>0.001659573405049741</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.001286424696445465</v>
+        <v>0.002329934621229768</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.007909905165433884</v>
+        <v>0.0001136527935159393</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.001193903852254152</v>
+        <v>0.002239231020212173</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.006311020813882351</v>
+        <v>6.124319043010473e-07</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.005165987648069859</v>
+        <v>0.0004734410904347897</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.009221544489264488</v>
+        <v>8.94937984412536e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.002148130675777793</v>
+        <v>0.0003974561113864183</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.01075494382530451</v>
+        <v>0.0009788796305656433</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.001690185163170099</v>
+        <v>0.0003939619055017829</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.009159114211797714</v>
+        <v>0.0001937608176376671</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0003057474095840007</v>
+        <v>0.0006487902137450874</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.01517317816615105</v>
+        <v>0.001354671781882644</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.01446441188454628</v>
+        <v>0.01194736082106829</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.001844911021180451</v>
+        <v>0.002542086876928806</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.005463478155434132</v>
+        <v>0.007140039931982756</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.003485118504613638</v>
+        <v>0.00675049377605319</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.01301073469221592</v>
+        <v>0.005452899262309074</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.001108665484935045</v>
+        <v>0.01065034791827202</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.009966226294636726</v>
+        <v>0.00222668657079339</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.000385969877243042</v>
+        <v>0.001032709376886487</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.005848335567861795</v>
+        <v>2.988288179039955e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.005743944086134434</v>
+        <v>0.001540764234960079</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.002509162062779069</v>
+        <v>0.003539487486705184</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.007598927710205317</v>
+        <v>0.003248354652896523</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.001263680402189493</v>
+        <v>0.001129753072746098</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.004466602113097906</v>
+        <v>0.001858373056165874</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.004687956068664789</v>
+        <v>0.003782011801376939</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.007099601440131664</v>
+        <v>0.0009568245150148869</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.005324602127075195</v>
+        <v>6.15035678492859e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.0002014382043853402</v>
+        <v>0.0009781979024410248</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.004820941481739283</v>
+        <v>0.005161233711987734</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.002478351583704352</v>
+        <v>0.001172608695924282</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.002398633165284991</v>
+        <v>0.000196336506633088</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.003279440104961395</v>
+        <v>0.004703357815742493</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.001207651337608695</v>
+        <v>0.004072303418070078</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.001258756383322179</v>
+        <v>0.001724935951642692</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.004805394914001226</v>
+        <v>0.001565777929499745</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.00420840922743082</v>
+        <v>0.002977951429784298</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.001407499192282557</v>
+        <v>0.001906497636809945</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.007880495861172676</v>
+        <v>0.002343512838706374</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.001855000853538513</v>
+        <v>0.0005043933051638305</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.00889773853123188</v>
+        <v>0.003349015954881907</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.005768912844359875</v>
+        <v>0.001392957754433155</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.01376414392143488</v>
+        <v>0.002298578387126327</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.0007659425609745085</v>
+        <v>0.001144787762314081</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.008335351012647152</v>
+        <v>0.0003302289405837655</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.0004428422544151545</v>
+        <v>0.001624029944650829</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.003368263831362128</v>
+        <v>0.001831091940402985</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.003777544479817152</v>
+        <v>3.72596550732851e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.00558565417304635</v>
+        <v>0.0007219138205982745</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.003590349806472659</v>
+        <v>0.0002829807344824076</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.004296221770346165</v>
+        <v>0.002892695832997561</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.007810479961335659</v>
+        <v>0.005921930074691772</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.003132402896881104</v>
+        <v>8.634317782707512e-05</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.003736178623512387</v>
+        <v>0.003099956549704075</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.001466350862756371</v>
+        <v>4.484769306145608e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.0003239461220800877</v>
+        <v>0.00268099969252944</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.006278039887547493</v>
+        <v>0.0006173327565193176</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.005886062048375607</v>
+        <v>0.0007125696283765137</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.01046167686581612</v>
+        <v>0.0005744864465668797</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0004176680231466889</v>
+        <v>0.000547314528375864</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.01121218875050545</v>
+        <v>0.0004221514100208879</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.002464887220412493</v>
+        <v>4.276477557141334e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.009510091505944729</v>
+        <v>0.0007817933801561594</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.0015489551005885</v>
+        <v>0.000940116704441607</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.0009451394435018301</v>
+        <v>0.0004505813703872263</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.002652036491781473</v>
+        <v>0.006541823036968708</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.004429700784385204</v>
+        <v>0.0006574990111403167</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.01054979301989079</v>
+        <v>0.001909299287945032</v>
       </c>
       <c r="FK16" t="n">
-        <v>4.921271465718746e-05</v>
+        <v>0.000821208581328392</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.002578800311312079</v>
+        <v>0.002719905925914645</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.001788698835298419</v>
+        <v>0.0006340299732983112</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.007593061774969101</v>
+        <v>0.001318468945100904</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.0009321408579126</v>
+        <v>0.001431444543413818</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.006118399556726217</v>
+        <v>0.007803010754287243</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.007116847205907106</v>
+        <v>0.008561997674405575</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.002408733125776052</v>
+        <v>0.01394707895815372</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.01236843410879374</v>
+        <v>0.0005478115053847432</v>
       </c>
       <c r="FT16" t="n">
-        <v>8.897855877876282e-06</v>
+        <v>0.01053434237837791</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.02392201498150826</v>
+        <v>0.002045581350103021</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.009839816018939018</v>
+        <v>0.002570054493844509</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.01024545077234507</v>
+        <v>0.0002606128109619021</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.002670398680493236</v>
+        <v>0.002416766248643398</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.003067705547437072</v>
+        <v>0.0007230557966977358</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0002614442200865597</v>
+        <v>0.0001294855610467494</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.002418657066300511</v>
+        <v>0.003197837388142943</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.006200327072292566</v>
+        <v>0.002365388441830873</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.002238552086055279</v>
+        <v>0.004374533891677856</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.002256207633763552</v>
+        <v>0.00242526619695127</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.005522466264665127</v>
+        <v>0.003522973274812102</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.002660280093550682</v>
+        <v>0.004297186620533466</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0004687183536589146</v>
+        <v>0.0003743542183656245</v>
       </c>
     </row>
     <row r="17">
